--- a/Results/Baseline/RR/Results_world_base_RR_target.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_target.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285183552802</v>
+        <v>262.0285179016776</v>
       </c>
       <c r="E2">
-        <v>302.6178274085849</v>
+        <v>302.6178265634903</v>
       </c>
       <c r="F2">
-        <v>500.2357507149289</v>
+        <v>500.2357487914789</v>
       </c>
       <c r="G2">
-        <v>370.614895201732</v>
+        <v>370.6148898372463</v>
       </c>
       <c r="H2">
-        <v>949.009607170472</v>
+        <v>949.0095906576961</v>
       </c>
       <c r="I2">
-        <v>545.2981985782606</v>
+        <v>545.2981286368497</v>
       </c>
       <c r="J2">
-        <v>608.5231020387513</v>
+        <v>608.5227975139658</v>
       </c>
       <c r="K2">
-        <v>699.9487117498388</v>
+        <v>699.9474258616972</v>
       </c>
       <c r="L2">
-        <v>557.9549176303567</v>
+        <v>557.9503314457606</v>
       </c>
       <c r="M2">
-        <v>684.7233658629547</v>
+        <v>684.7069961789849</v>
       </c>
       <c r="N2">
-        <v>347.7567580702259</v>
+        <v>347.701651962346</v>
       </c>
       <c r="O2">
-        <v>386.7636383798003</v>
+        <v>386.6166894926352</v>
       </c>
       <c r="P2">
-        <v>777.1876500028189</v>
+        <v>776.7839387274169</v>
       </c>
       <c r="Q2">
-        <v>789.7029968190087</v>
+        <v>788.8093748836536</v>
       </c>
       <c r="R2">
-        <v>802.6612450296471</v>
+        <v>801.2491542932328</v>
       </c>
       <c r="S2">
-        <v>1988.260502163062</v>
+        <v>1986.942149102201</v>
       </c>
       <c r="T2">
-        <v>1985.460315830373</v>
+        <v>1984.721379690337</v>
       </c>
       <c r="U2">
-        <v>1989.32919330511</v>
+        <v>1988.732899030932</v>
       </c>
       <c r="V2">
-        <v>2001.324255845172</v>
+        <v>2000.337080407494</v>
       </c>
       <c r="W2">
-        <v>2014.261650021289</v>
+        <v>2012.823491629247</v>
       </c>
       <c r="X2">
-        <v>1856.564323837493</v>
+        <v>1854.54168523374</v>
       </c>
       <c r="Y2">
-        <v>1874.148489469549</v>
+        <v>1871.373717942339</v>
       </c>
       <c r="Z2">
-        <v>1887.868226425821</v>
+        <v>1884.597162175224</v>
       </c>
       <c r="AA2">
-        <v>1903.84672972565</v>
+        <v>1899.932285087896</v>
       </c>
       <c r="AB2">
-        <v>1944.513170523133</v>
+        <v>1938.330504817447</v>
       </c>
       <c r="AC2">
-        <v>661.6328789507427</v>
+        <v>651.6575390749269</v>
       </c>
       <c r="AD2">
-        <v>733.7649292900202</v>
+        <v>719.4744172349498</v>
       </c>
       <c r="AE2">
-        <v>803.7860295371518</v>
+        <v>785.3338015173871</v>
       </c>
       <c r="AF2">
-        <v>800.6631096810203</v>
+        <v>782.8940898455319</v>
       </c>
       <c r="AG2">
-        <v>778.3553771359876</v>
+        <v>762.5624647249127</v>
       </c>
       <c r="AH2">
-        <v>592.5708542117929</v>
+        <v>577.2468617846356</v>
       </c>
       <c r="AI2">
-        <v>580.0919196970307</v>
+        <v>566.1849855306841</v>
       </c>
       <c r="AJ2">
-        <v>563.3760470720158</v>
+        <v>551.2162803389825</v>
       </c>
       <c r="AK2">
-        <v>553.7043519122059</v>
+        <v>542.8822258268709</v>
       </c>
       <c r="AL2">
-        <v>613.7852960374248</v>
+        <v>599.7556845227906</v>
       </c>
       <c r="AM2">
-        <v>743.6983110408544</v>
+        <v>721.9081169455866</v>
       </c>
       <c r="AN2">
-        <v>886.5405485111908</v>
+        <v>856.1748706243823</v>
       </c>
       <c r="AO2">
-        <v>1087.701078207645</v>
+        <v>1044.941868607959</v>
       </c>
       <c r="AP2">
-        <v>1344.382756898955</v>
+        <v>1285.57698853579</v>
       </c>
       <c r="AQ2">
-        <v>1478.712029316534</v>
+        <v>1411.896284506661</v>
       </c>
       <c r="AR2">
-        <v>1496.67104509009</v>
+        <v>1429.479274028591</v>
       </c>
       <c r="AS2">
-        <v>1499.866942672001</v>
+        <v>1433.202781142306</v>
       </c>
       <c r="AT2">
-        <v>1488.971522983471</v>
+        <v>1423.673478870265</v>
       </c>
       <c r="AU2">
-        <v>1466.020215584893</v>
+        <v>1402.777490408406</v>
       </c>
       <c r="AV2">
-        <v>1463.33197448606</v>
+        <v>1401.386185262825</v>
       </c>
       <c r="AW2">
-        <v>1448.878752477829</v>
+        <v>1388.441245624266</v>
       </c>
       <c r="AX2">
-        <v>1595.602856396272</v>
+        <v>1539.957487761985</v>
       </c>
       <c r="AY2">
-        <v>1430.009591612271</v>
+        <v>1385.44214485203</v>
       </c>
       <c r="AZ2">
-        <v>1202.38790094722</v>
+        <v>1172.921439443066</v>
       </c>
       <c r="BA2">
-        <v>1106.150610958745</v>
+        <v>1083.10184037861</v>
       </c>
       <c r="BB2">
-        <v>1092.514423008531</v>
+        <v>1068.724671753281</v>
       </c>
       <c r="BC2">
-        <v>1080.07064076331</v>
+        <v>1057.250404375478</v>
       </c>
       <c r="BD2">
-        <v>1037.775408538301</v>
+        <v>1017.93900403792</v>
       </c>
       <c r="BE2">
-        <v>987.6302690770825</v>
+        <v>971.3619786103524</v>
       </c>
       <c r="BF2">
-        <v>959.8559383776852</v>
+        <v>945.764710649875</v>
       </c>
       <c r="BG2">
-        <v>935.1917672003441</v>
+        <v>921.4542219482505</v>
       </c>
       <c r="BH2">
-        <v>968.9783419185948</v>
+        <v>953.571348561674</v>
       </c>
       <c r="BI2">
-        <v>1051.682862991347</v>
+        <v>1031.462260622078</v>
       </c>
       <c r="BJ2">
-        <v>1182.678635143248</v>
+        <v>1154.529060003726</v>
       </c>
       <c r="BK2">
-        <v>1346.668665444631</v>
+        <v>1308.468480641807</v>
       </c>
       <c r="BL2">
-        <v>1509.087072114744</v>
+        <v>1459.688913003863</v>
       </c>
       <c r="BM2">
-        <v>1674.770711007852</v>
+        <v>1615.288592195808</v>
       </c>
       <c r="BN2">
-        <v>1775.763752103957</v>
+        <v>1710.463890099458</v>
       </c>
       <c r="BO2">
-        <v>1809.224666203584</v>
+        <v>1742.547255817165</v>
       </c>
       <c r="BP2">
-        <v>1810.877523236058</v>
+        <v>1744.898711198582</v>
       </c>
       <c r="BQ2">
-        <v>1788.83736832684</v>
+        <v>1724.208443331919</v>
       </c>
       <c r="BR2">
-        <v>1776.818378206759</v>
+        <v>1713.754720134064</v>
       </c>
       <c r="BS2">
-        <v>1764.84769648055</v>
+        <v>1703.302369898266</v>
       </c>
       <c r="BT2">
-        <v>1746.555362093994</v>
+        <v>1686.896268571487</v>
       </c>
       <c r="BU2">
-        <v>1696.743713282445</v>
+        <v>1640.995743935461</v>
       </c>
       <c r="BV2">
-        <v>1571.581124421727</v>
+        <v>1523.795568165762</v>
       </c>
       <c r="BW2">
-        <v>1442.321716140359</v>
+        <v>1403.613083384132</v>
       </c>
       <c r="BX2">
-        <v>1366.155441181183</v>
+        <v>1332.989709169252</v>
       </c>
       <c r="BY2">
-        <v>1338.766202781965</v>
+        <v>1307.903095311504</v>
       </c>
       <c r="BZ2">
-        <v>1318.573127366758</v>
+        <v>1289.521017588491</v>
       </c>
       <c r="CA2">
-        <v>1275.226858240561</v>
+        <v>1248.60323320893</v>
       </c>
       <c r="CB2">
-        <v>1247.563279750684</v>
+        <v>1223.275517432934</v>
       </c>
       <c r="CC2">
-        <v>1237.518784069977</v>
+        <v>1214.423599987342</v>
       </c>
       <c r="CD2">
-        <v>1256.494574307612</v>
+        <v>1232.707436360388</v>
       </c>
       <c r="CE2">
-        <v>1314.505177744029</v>
+        <v>1287.488543261323</v>
       </c>
       <c r="CF2">
-        <v>1399.103362088754</v>
+        <v>1366.129234555535</v>
       </c>
       <c r="CG2">
-        <v>1533.681930426774</v>
+        <v>1492.550652623392</v>
       </c>
       <c r="CH2">
-        <v>1685.953472308854</v>
+        <v>1635.536193710113</v>
       </c>
       <c r="CI2">
-        <v>1834.162249742798</v>
+        <v>1774.758963835321</v>
       </c>
       <c r="CJ2">
-        <v>1955.466442682588</v>
+        <v>1888.875303991036</v>
       </c>
       <c r="CK2">
-        <v>2009.87470541012</v>
+        <v>1939.120490981501</v>
       </c>
       <c r="CL2">
-        <v>2040.532511333468</v>
+        <v>1968.631014819546</v>
       </c>
       <c r="CM2">
-        <v>2042.638800772665</v>
+        <v>1971.473384954767</v>
       </c>
       <c r="CN2">
-        <v>2031.974921926067</v>
+        <v>1962.382191442228</v>
       </c>
       <c r="CO2">
-        <v>2016.18787098487</v>
+        <v>1948.494031610534</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072149393767</v>
+        <v>16.49072146411909</v>
       </c>
       <c r="E3">
-        <v>19.15942811397795</v>
+        <v>19.15942805837055</v>
       </c>
       <c r="F3">
-        <v>32.31320022720192</v>
+        <v>32.31320010023956</v>
       </c>
       <c r="G3">
-        <v>23.60829343314008</v>
+        <v>23.60829307688669</v>
       </c>
       <c r="H3">
-        <v>62.55452024107896</v>
+        <v>62.55451913800535</v>
       </c>
       <c r="I3">
-        <v>35.4281409050574</v>
+        <v>35.42813621779777</v>
       </c>
       <c r="J3">
-        <v>39.56205379460845</v>
+        <v>39.56203335897827</v>
       </c>
       <c r="K3">
-        <v>45.54935015938277</v>
+        <v>45.54926382330304</v>
       </c>
       <c r="L3">
-        <v>36.05744485223367</v>
+        <v>36.05713686853272</v>
       </c>
       <c r="M3">
-        <v>44.49855442674594</v>
+        <v>44.49745503722564</v>
       </c>
       <c r="N3">
-        <v>21.71776539386318</v>
+        <v>21.71406433684495</v>
       </c>
       <c r="O3">
-        <v>24.48089095748633</v>
+        <v>24.47102137390051</v>
       </c>
       <c r="P3">
-        <v>50.61732113736714</v>
+        <v>50.59020633178992</v>
       </c>
       <c r="Q3">
-        <v>51.42108114415419</v>
+        <v>51.36106181754582</v>
       </c>
       <c r="R3">
-        <v>52.2547456583819</v>
+        <v>52.15990365465497</v>
       </c>
       <c r="S3">
-        <v>131.8127708038541</v>
+        <v>131.7242247436408</v>
       </c>
       <c r="T3">
-        <v>131.5789947831139</v>
+        <v>131.5293652125709</v>
       </c>
       <c r="U3">
-        <v>131.793076851517</v>
+        <v>131.7530279319921</v>
       </c>
       <c r="V3">
-        <v>132.5529255898819</v>
+        <v>132.4866234122969</v>
       </c>
       <c r="W3">
-        <v>133.3760688657956</v>
+        <v>133.2794767182308</v>
       </c>
       <c r="X3">
-        <v>122.7428718391708</v>
+        <v>122.6070234274887</v>
       </c>
       <c r="Y3">
-        <v>123.8798250063469</v>
+        <v>123.6934600076597</v>
       </c>
       <c r="Z3">
-        <v>124.7572932130255</v>
+        <v>124.5375950443734</v>
       </c>
       <c r="AA3">
-        <v>125.7864797213125</v>
+        <v>125.5235692850606</v>
       </c>
       <c r="AB3">
-        <v>128.4737423954822</v>
+        <v>128.058487752084</v>
       </c>
       <c r="AC3">
-        <v>42.29526207329225</v>
+        <v>41.62527377967215</v>
       </c>
       <c r="AD3">
-        <v>47.09473843048664</v>
+        <v>46.1349231255296</v>
       </c>
       <c r="AE3">
-        <v>51.75238275996766</v>
+        <v>50.51304737666609</v>
       </c>
       <c r="AF3">
-        <v>51.49741801288381</v>
+        <v>50.30397064462063</v>
       </c>
       <c r="AG3">
-        <v>49.95389285928421</v>
+        <v>48.89317087514117</v>
       </c>
       <c r="AH3">
-        <v>37.43420293668536</v>
+        <v>36.40497672994503</v>
       </c>
       <c r="AI3">
-        <v>36.5489471147802</v>
+        <v>35.61489845823971</v>
       </c>
       <c r="AJ3">
-        <v>35.37875263352979</v>
+        <v>34.56205360303139</v>
       </c>
       <c r="AK3">
-        <v>34.68114006947046</v>
+        <v>33.95428537704544</v>
       </c>
       <c r="AL3">
-        <v>38.66766883850832</v>
+        <v>37.72538687338606</v>
       </c>
       <c r="AM3">
-        <v>47.34339444951858</v>
+        <v>45.87987814925886</v>
       </c>
       <c r="AN3">
-        <v>56.88720698909309</v>
+        <v>54.84772402882607</v>
       </c>
       <c r="AO3">
-        <v>70.34712337835967</v>
+        <v>67.47523604566508</v>
       </c>
       <c r="AP3">
-        <v>87.53539615211578</v>
+        <v>83.58575017723471</v>
       </c>
       <c r="AQ3">
-        <v>96.50755238556104</v>
+        <v>92.01992187549008</v>
       </c>
       <c r="AR3">
-        <v>97.66375250390662</v>
+        <v>93.15086875727332</v>
       </c>
       <c r="AS3">
-        <v>97.82887314176374</v>
+        <v>93.35142809384509</v>
       </c>
       <c r="AT3">
-        <v>97.04809205541704</v>
+        <v>92.6624032221612</v>
       </c>
       <c r="AU3">
-        <v>95.45813680821473</v>
+        <v>91.2104935042875</v>
       </c>
       <c r="AV3">
-        <v>95.2268194464059</v>
+        <v>91.06628443058594</v>
       </c>
       <c r="AW3">
-        <v>94.20327773620724</v>
+        <v>90.14404529451006</v>
       </c>
       <c r="AX3">
-        <v>104.0053002610847</v>
+        <v>100.2679287339001</v>
       </c>
       <c r="AY3">
-        <v>92.83409590270814</v>
+        <v>89.84076714744948</v>
       </c>
       <c r="AZ3">
-        <v>77.49790874239837</v>
+        <v>75.51882997119617</v>
       </c>
       <c r="BA3">
-        <v>70.98449713675589</v>
+        <v>69.43645774812144</v>
       </c>
       <c r="BB3">
-        <v>70.01314817835737</v>
+        <v>68.41533857385916</v>
       </c>
       <c r="BC3">
-        <v>69.12123928750231</v>
+        <v>67.58854457209915</v>
       </c>
       <c r="BD3">
-        <v>66.22440329650611</v>
+        <v>64.8921147357763</v>
       </c>
       <c r="BE3">
-        <v>62.80012994851625</v>
+        <v>61.70749109167433</v>
       </c>
       <c r="BF3">
-        <v>60.87766919200206</v>
+        <v>59.93125113002684</v>
       </c>
       <c r="BG3">
-        <v>59.15981976803452</v>
+        <v>58.23715641417738</v>
       </c>
       <c r="BH3">
-        <v>61.36648465908372</v>
+        <v>60.33169370027453</v>
       </c>
       <c r="BI3">
-        <v>66.85796194784562</v>
+        <v>65.49986734076957</v>
       </c>
       <c r="BJ3">
-        <v>75.592244036542</v>
+        <v>73.7016037985363</v>
       </c>
       <c r="BK3">
-        <v>86.54204656299191</v>
+        <v>83.97636198528008</v>
       </c>
       <c r="BL3">
-        <v>97.38304637234205</v>
+        <v>94.06525533205544</v>
       </c>
       <c r="BM3">
-        <v>108.4430689354962</v>
+        <v>104.4479939587921</v>
       </c>
       <c r="BN3">
-        <v>115.1589927696359</v>
+        <v>110.7731728260436</v>
       </c>
       <c r="BO3">
-        <v>117.3400601850176</v>
+        <v>112.8617193501766</v>
       </c>
       <c r="BP3">
-        <v>117.3852583839817</v>
+        <v>112.9538401971992</v>
       </c>
       <c r="BQ3">
-        <v>115.8346702808269</v>
+        <v>111.4939181270279</v>
       </c>
       <c r="BR3">
-        <v>114.9570671074451</v>
+        <v>110.7214466543775</v>
       </c>
       <c r="BS3">
-        <v>114.0829193324707</v>
+        <v>109.9492778842794</v>
       </c>
       <c r="BT3">
-        <v>112.7845158647897</v>
+        <v>108.7775630682989</v>
       </c>
       <c r="BU3">
-        <v>109.3698179089928</v>
+        <v>105.6255545103345</v>
       </c>
       <c r="BV3">
-        <v>100.8911865884471</v>
+        <v>97.6817156396892</v>
       </c>
       <c r="BW3">
-        <v>92.13750746747709</v>
+        <v>89.53768437670492</v>
       </c>
       <c r="BX3">
-        <v>86.94917331553688</v>
+        <v>84.72163648169118</v>
       </c>
       <c r="BY3">
-        <v>85.03622409802806</v>
+        <v>82.9633413986047</v>
       </c>
       <c r="BZ3">
-        <v>83.60637119248916</v>
+        <v>81.65512264818544</v>
       </c>
       <c r="CA3">
-        <v>80.61720875968376</v>
+        <v>78.82906768972056</v>
       </c>
       <c r="CB3">
-        <v>78.68091460419299</v>
+        <v>77.04966015538668</v>
       </c>
       <c r="CC3">
-        <v>77.92762655238158</v>
+        <v>76.37647056220109</v>
       </c>
       <c r="CD3">
-        <v>79.12296170300829</v>
+        <v>77.52533041691404</v>
       </c>
       <c r="CE3">
-        <v>82.93947658726977</v>
+        <v>81.12493703253995</v>
       </c>
       <c r="CF3">
-        <v>88.53641194368028</v>
+        <v>86.32173937552861</v>
       </c>
       <c r="CG3">
-        <v>97.48946071241099</v>
+        <v>94.72691611406138</v>
       </c>
       <c r="CH3">
-        <v>107.6305659419183</v>
+        <v>104.2443306633259</v>
       </c>
       <c r="CI3">
-        <v>117.4987611602673</v>
+        <v>113.5089843508897</v>
       </c>
       <c r="CJ3">
-        <v>125.5601862411752</v>
+        <v>121.0876404783223</v>
       </c>
       <c r="CK3">
-        <v>129.1248273991302</v>
+        <v>124.3726708842577</v>
       </c>
       <c r="CL3">
-        <v>131.094370164365</v>
+        <v>126.2651576801094</v>
       </c>
       <c r="CM3">
-        <v>131.1466490914331</v>
+        <v>126.3668760459404</v>
       </c>
       <c r="CN3">
-        <v>130.3414440184287</v>
+        <v>125.667300626557</v>
       </c>
       <c r="CO3">
-        <v>129.1922984475657</v>
+        <v>124.6456941172885</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474423.41399472</v>
+        <v>26474419.01758953</v>
       </c>
       <c r="E4">
-        <v>26777296.81587128</v>
+        <v>26777288.9863275</v>
       </c>
       <c r="F4">
-        <v>29376339.02696066</v>
+        <v>29376323.9147871</v>
       </c>
       <c r="G4">
-        <v>29467874.5063388</v>
+        <v>29467846.9969658</v>
       </c>
       <c r="H4">
-        <v>26833069.96320606</v>
+        <v>26833029.18205039</v>
       </c>
       <c r="I4">
-        <v>26319929.27467218</v>
+        <v>26319858.96983352</v>
       </c>
       <c r="J4">
-        <v>29028540.96705208</v>
+        <v>29028420.27989551</v>
       </c>
       <c r="K4">
-        <v>32849499.13648165</v>
+        <v>32849291.52091852</v>
       </c>
       <c r="L4">
-        <v>32627759.80857778</v>
+        <v>32627438.86466835</v>
       </c>
       <c r="M4">
-        <v>34709882.05930787</v>
+        <v>34709340.90868309</v>
       </c>
       <c r="N4">
-        <v>37567199.83872935</v>
+        <v>37566235.36123612</v>
       </c>
       <c r="O4">
-        <v>34858353.03107797</v>
+        <v>34856797.27828567</v>
       </c>
       <c r="P4">
-        <v>38721758.82949891</v>
+        <v>38718856.06536195</v>
       </c>
       <c r="Q4">
-        <v>40056794.69150652</v>
+        <v>40052156.92966959</v>
       </c>
       <c r="R4">
-        <v>41379926.79972728</v>
+        <v>41374134.00628979</v>
       </c>
       <c r="S4">
-        <v>47264136.93476503</v>
+        <v>47257874.01728962</v>
       </c>
       <c r="T4">
-        <v>48711720.93223177</v>
+        <v>48704774.57266961</v>
       </c>
       <c r="U4">
-        <v>50165199.98820709</v>
+        <v>50157201.63139033</v>
       </c>
       <c r="V4">
-        <v>51621290.3606284</v>
+        <v>51612042.23234838</v>
       </c>
       <c r="W4">
-        <v>53077566.23990644</v>
+        <v>53067019.63198383</v>
       </c>
       <c r="X4">
-        <v>54054839.82552203</v>
+        <v>54042892.45952515</v>
       </c>
       <c r="Y4">
-        <v>55419904.9001805</v>
+        <v>55406322.05974337</v>
       </c>
       <c r="Z4">
-        <v>56779876.46146756</v>
+        <v>56764906.0933453</v>
       </c>
       <c r="AA4">
-        <v>58139575.30948392</v>
+        <v>58123190.50753224</v>
       </c>
       <c r="AB4">
-        <v>59506600.9604283</v>
+        <v>59488301.93766306</v>
       </c>
       <c r="AC4">
-        <v>55727276.76993655</v>
+        <v>55706688.6694216</v>
       </c>
       <c r="AD4">
-        <v>57111418.36474621</v>
+        <v>57087929.96060394</v>
       </c>
       <c r="AE4">
-        <v>58502258.19725759</v>
+        <v>58475287.44812165</v>
       </c>
       <c r="AF4">
-        <v>59889462.64524389</v>
+        <v>59859036.4067578</v>
       </c>
       <c r="AG4">
-        <v>61283286.39896373</v>
+        <v>61248638.4123298</v>
       </c>
       <c r="AH4">
-        <v>61810537.17107636</v>
+        <v>61769972.32964342</v>
       </c>
       <c r="AI4">
-        <v>63277725.08783162</v>
+        <v>63228981.47715031</v>
       </c>
       <c r="AJ4">
-        <v>64783021.4928563</v>
+        <v>64723306.71676934</v>
       </c>
       <c r="AK4">
-        <v>66340669.24364278</v>
+        <v>66266369.12631977</v>
       </c>
       <c r="AL4">
-        <v>67969734.4870019</v>
+        <v>67876093.55349655</v>
       </c>
       <c r="AM4">
-        <v>69632250.72543541</v>
+        <v>69515161.82689965</v>
       </c>
       <c r="AN4">
-        <v>71325548.44323805</v>
+        <v>71182762.73654944</v>
       </c>
       <c r="AO4">
-        <v>73088735.38779737</v>
+        <v>72916091.85179111</v>
       </c>
       <c r="AP4">
-        <v>74908542.84152788</v>
+        <v>74702898.01869373</v>
       </c>
       <c r="AQ4">
-        <v>76593751.47858512</v>
+        <v>76362765.77533808</v>
       </c>
       <c r="AR4">
-        <v>78122263.74543364</v>
+        <v>77874393.97779937</v>
       </c>
       <c r="AS4">
-        <v>79599693.11173351</v>
+        <v>79338781.42090526</v>
       </c>
       <c r="AT4">
-        <v>81017560.69597231</v>
+        <v>80748242.16564383</v>
       </c>
       <c r="AU4">
-        <v>82371464.03102459</v>
+        <v>82098856.52180378</v>
       </c>
       <c r="AV4">
-        <v>84181570.86170025</v>
+        <v>83909916.01391362</v>
       </c>
       <c r="AW4">
-        <v>85657585.05491787</v>
+        <v>85392039.87648031</v>
       </c>
       <c r="AX4">
-        <v>87089072.64961916</v>
+        <v>86837224.07152571</v>
       </c>
       <c r="AY4">
-        <v>88160350.8780819</v>
+        <v>87931783.16741599</v>
       </c>
       <c r="AZ4">
-        <v>89129914.24689317</v>
+        <v>88931094.94911337</v>
       </c>
       <c r="BA4">
-        <v>90221879.11875957</v>
+        <v>90046641.48048916</v>
       </c>
       <c r="BB4">
-        <v>91431522.93456671</v>
+        <v>91273066.89342049</v>
       </c>
       <c r="BC4">
-        <v>92747167.03797171</v>
+        <v>92604726.61861598</v>
       </c>
       <c r="BD4">
-        <v>94068651.14252412</v>
+        <v>93941210.1412086</v>
       </c>
       <c r="BE4">
-        <v>95418702.01356381</v>
+        <v>95303669.86109439</v>
       </c>
       <c r="BF4">
-        <v>96840836.14526945</v>
+        <v>96733045.29855183</v>
       </c>
       <c r="BG4">
-        <v>98325807.30040307</v>
+        <v>98219398.37232184</v>
       </c>
       <c r="BH4">
-        <v>99981249.41260354</v>
+        <v>99870813.43665001</v>
       </c>
       <c r="BI4">
-        <v>101711091.4026038</v>
+        <v>101591306.1499378</v>
       </c>
       <c r="BJ4">
-        <v>103506365.2092482</v>
+        <v>103372581.3811799</v>
       </c>
       <c r="BK4">
-        <v>105353568.1237903</v>
+        <v>105202126.0560351</v>
       </c>
       <c r="BL4">
-        <v>107213615.7463594</v>
+        <v>107042059.6032638</v>
       </c>
       <c r="BM4">
-        <v>109137844.7219829</v>
+        <v>108946280.43827</v>
       </c>
       <c r="BN4">
-        <v>110997733.3698816</v>
+        <v>110789565.4307002</v>
       </c>
       <c r="BO4">
-        <v>112783444.3644895</v>
+        <v>112562816.1122977</v>
       </c>
       <c r="BP4">
-        <v>114525297.0710696</v>
+        <v>114294876.6313298</v>
       </c>
       <c r="BQ4">
-        <v>116298785.3147429</v>
+        <v>116060469.4723271</v>
       </c>
       <c r="BR4">
-        <v>118098133.9200696</v>
+        <v>117853824.4755594</v>
       </c>
       <c r="BS4">
-        <v>119872583.9680326</v>
+        <v>119624303.9699426</v>
       </c>
       <c r="BT4">
-        <v>121611370.5537384</v>
+        <v>121361792.8673275</v>
       </c>
       <c r="BU4">
-        <v>123285961.3980757</v>
+        <v>123039342.8116519</v>
       </c>
       <c r="BV4">
-        <v>124895403.7987749</v>
+        <v>124657646.7557334</v>
       </c>
       <c r="BW4">
-        <v>126512729.8202084</v>
+        <v>126286789.7455584</v>
       </c>
       <c r="BX4">
-        <v>128173391.296959</v>
+        <v>127957529.8222297</v>
       </c>
       <c r="BY4">
-        <v>129884554.6764545</v>
+        <v>129676526.754458</v>
       </c>
       <c r="BZ4">
-        <v>131610185.8319595</v>
+        <v>131409553.7709943</v>
       </c>
       <c r="CA4">
-        <v>133368396.6204674</v>
+        <v>133175370.2025949</v>
       </c>
       <c r="CB4">
-        <v>135190267.4459555</v>
+        <v>135004140.9641722</v>
       </c>
       <c r="CC4">
-        <v>137044838.3006425</v>
+        <v>136863594.6144193</v>
       </c>
       <c r="CD4">
-        <v>138945249.9949424</v>
+        <v>138765991.8299232</v>
       </c>
       <c r="CE4">
-        <v>140898224.5478988</v>
+        <v>140717555.9848295</v>
       </c>
       <c r="CF4">
-        <v>142934450.2980981</v>
+        <v>142748951.4372215</v>
       </c>
       <c r="CG4">
-        <v>145072210.7293862</v>
+        <v>144878886.0755009</v>
       </c>
       <c r="CH4">
-        <v>147239829.9406012</v>
+        <v>147036458.1567189</v>
       </c>
       <c r="CI4">
-        <v>149416526.9105604</v>
+        <v>149202094.565546</v>
       </c>
       <c r="CJ4">
-        <v>151577001.9284683</v>
+        <v>151351973.2390995</v>
       </c>
       <c r="CK4">
-        <v>153703065.4033803</v>
+        <v>153469269.9916436</v>
       </c>
       <c r="CL4">
-        <v>155865175.2537164</v>
+        <v>155624798.0566408</v>
       </c>
       <c r="CM4">
-        <v>157997008.508037</v>
+        <v>157751637.7472065</v>
       </c>
       <c r="CN4">
-        <v>160110623.3800583</v>
+        <v>159861305.4977292</v>
       </c>
       <c r="CO4">
-        <v>162209884.1729355</v>
+        <v>161957558.6036824</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694853.666359797</v>
+        <v>1694842.422828536</v>
       </c>
       <c r="E5">
-        <v>996078.7396666704</v>
+        <v>996058.7170140627</v>
       </c>
       <c r="F5">
-        <v>499377.2081997825</v>
+        <v>499338.5678753521</v>
       </c>
       <c r="G5">
-        <v>307102.8473515355</v>
+        <v>307032.5449510727</v>
       </c>
       <c r="H5">
-        <v>288013.1819077407</v>
+        <v>287909.1144771138</v>
       </c>
       <c r="I5">
-        <v>204749.7984785956</v>
+        <v>204571.0707677377</v>
       </c>
       <c r="J5">
-        <v>168193.345366961</v>
+        <v>167889.3557624036</v>
       </c>
       <c r="K5">
-        <v>217716.4840087777</v>
+        <v>217204.48804762</v>
       </c>
       <c r="L5">
-        <v>394514.5828514699</v>
+        <v>393758.4099068483</v>
       </c>
       <c r="M5">
-        <v>347340.8559885621</v>
+        <v>346176.7240561999</v>
       </c>
       <c r="N5">
-        <v>438745.9441879538</v>
+        <v>436981.0454273545</v>
       </c>
       <c r="O5">
-        <v>550394.5114003143</v>
+        <v>548157.5128325702</v>
       </c>
       <c r="P5">
-        <v>3554376.213600073</v>
+        <v>3551190.496510992</v>
       </c>
       <c r="Q5">
-        <v>3565499.327900733</v>
+        <v>3561188.392491937</v>
       </c>
       <c r="R5">
-        <v>3579201.990343019</v>
+        <v>3573502.149889336</v>
       </c>
       <c r="S5">
-        <v>11309845.12884541</v>
+        <v>11302473.26358078</v>
       </c>
       <c r="T5">
-        <v>11329190.00717198</v>
+        <v>11319854.40173377</v>
       </c>
       <c r="U5">
-        <v>11351341.41733307</v>
+        <v>11339755.3357315</v>
       </c>
       <c r="V5">
-        <v>11376114.72042023</v>
+        <v>11362010.2682678</v>
       </c>
       <c r="W5">
-        <v>11403219.35410222</v>
+        <v>11386358.30591198</v>
       </c>
       <c r="X5">
-        <v>10924429.45501431</v>
+        <v>10904607.19763739</v>
       </c>
       <c r="Y5">
-        <v>10955293.58064322</v>
+        <v>10932331.12215636</v>
       </c>
       <c r="Z5">
-        <v>10987913.90020877</v>
+        <v>10961631.74135297</v>
       </c>
       <c r="AA5">
-        <v>11022793.36206691</v>
+        <v>10992960.65076883</v>
       </c>
       <c r="AB5">
-        <v>11061228.59044493</v>
+        <v>11027482.04858387</v>
       </c>
       <c r="AC5">
-        <v>2094691.294164438</v>
+        <v>2056421.748825658</v>
       </c>
       <c r="AD5">
-        <v>2148852.029412314</v>
+        <v>2105062.517249172</v>
       </c>
       <c r="AE5">
-        <v>2218104.32687709</v>
+        <v>2167252.767360698</v>
       </c>
       <c r="AF5">
-        <v>2309239.456087968</v>
+        <v>2249089.691268899</v>
       </c>
       <c r="AG5">
-        <v>2430125.452156825</v>
+        <v>2357637.431107856</v>
       </c>
       <c r="AH5">
-        <v>884514.6760980516</v>
+        <v>795805.6997114373</v>
       </c>
       <c r="AI5">
-        <v>1089069.861074288</v>
+        <v>979473.6052559051</v>
       </c>
       <c r="AJ5">
-        <v>1345276.221368061</v>
+        <v>1209515.007350838</v>
       </c>
       <c r="AK5">
-        <v>1656311.446545147</v>
+        <v>1488783.001480259</v>
       </c>
       <c r="AL5">
-        <v>2021548.649634785</v>
+        <v>1816714.936540661</v>
       </c>
       <c r="AM5">
-        <v>2435779.524073499</v>
+        <v>2188634.847549841</v>
       </c>
       <c r="AN5">
-        <v>2888730.786281643</v>
+        <v>2595318.749875002</v>
       </c>
       <c r="AO5">
-        <v>3364979.315087686</v>
+        <v>3022919.86733635</v>
       </c>
       <c r="AP5">
-        <v>3844335.347985437</v>
+        <v>3453311.423682052</v>
       </c>
       <c r="AQ5">
-        <v>4302854.752101447</v>
+        <v>3864994.418393103</v>
       </c>
       <c r="AR5">
-        <v>4714610.477880841</v>
+        <v>4234691.849267863</v>
       </c>
       <c r="AS5">
-        <v>5054056.18032638</v>
+        <v>4539467.851423158</v>
       </c>
       <c r="AT5">
-        <v>5298833.703889483</v>
+        <v>4759248.872858274</v>
       </c>
       <c r="AU5">
-        <v>5432552.420747653</v>
+        <v>4879319.129851465</v>
       </c>
       <c r="AV5">
-        <v>6596596.336097633</v>
+        <v>6041899.745579837</v>
       </c>
       <c r="AW5">
-        <v>6818323.425453193</v>
+        <v>6274223.103756071</v>
       </c>
       <c r="AX5">
-        <v>6607396.077621077</v>
+        <v>6084866.09914704</v>
       </c>
       <c r="AY5">
-        <v>6307854.317631975</v>
+        <v>5815947.304900598</v>
       </c>
       <c r="AZ5">
-        <v>5944642.080708468</v>
+        <v>5489863.370774549</v>
       </c>
       <c r="BA5">
-        <v>5546400.988999229</v>
+        <v>5132331.042718295</v>
       </c>
       <c r="BB5">
-        <v>4976022.723612914</v>
+        <v>4603185.493213314</v>
       </c>
       <c r="BC5">
-        <v>4596548.180044462</v>
+        <v>4262505.034613641</v>
       </c>
       <c r="BD5">
-        <v>4266975.837415098</v>
+        <v>3966627.548723766</v>
       </c>
       <c r="BE5">
-        <v>4008465.233672715</v>
+        <v>3734550.573914518</v>
       </c>
       <c r="BF5">
-        <v>3835599.743566402</v>
+        <v>3579367.641360095</v>
       </c>
       <c r="BG5">
-        <v>3590487.727884719</v>
+        <v>3342485.178320701</v>
       </c>
       <c r="BH5">
-        <v>3601656.809527293</v>
+        <v>3352533.727371743</v>
       </c>
       <c r="BI5">
-        <v>3696430.325822274</v>
+        <v>3437644.195707174</v>
       </c>
       <c r="BJ5">
-        <v>3861905.178017057</v>
+        <v>3586231.917395309</v>
       </c>
       <c r="BK5">
-        <v>4082412.542065866</v>
+        <v>3784229.075154974</v>
       </c>
       <c r="BL5">
-        <v>4217546.41489193</v>
+        <v>3892915.728594976</v>
       </c>
       <c r="BM5">
-        <v>4499039.301665802</v>
+        <v>4145667.526546401</v>
       </c>
       <c r="BN5">
-        <v>4787901.758650227</v>
+        <v>4405035.293154928</v>
       </c>
       <c r="BO5">
-        <v>5070274.855712492</v>
+        <v>4658576.195038524</v>
       </c>
       <c r="BP5">
-        <v>5333656.231933703</v>
+        <v>4895065.683756585</v>
       </c>
       <c r="BQ5">
-        <v>5480704.71863717</v>
+        <v>5018279.831184159</v>
       </c>
       <c r="BR5">
-        <v>5675171.573880493</v>
+        <v>5192897.429054016</v>
       </c>
       <c r="BS5">
-        <v>5823698.293187786</v>
+        <v>5326269.09064183</v>
       </c>
       <c r="BT5">
-        <v>5921719.030703465</v>
+        <v>5414295.442914548</v>
       </c>
       <c r="BU5">
-        <v>5967238.14097973</v>
+        <v>5455184.52718936</v>
       </c>
       <c r="BV5">
-        <v>5876676.01409984</v>
+        <v>5365280.711531261</v>
       </c>
       <c r="BW5">
-        <v>5822282.517010846</v>
+        <v>5316466.679129945</v>
       </c>
       <c r="BX5">
-        <v>5726175.048816148</v>
+        <v>5230201.591682742</v>
       </c>
       <c r="BY5">
-        <v>5597449.276944037</v>
+        <v>5114651.730325663</v>
       </c>
       <c r="BZ5">
-        <v>5447389.003230974</v>
+        <v>4979947.554952023</v>
       </c>
       <c r="CA5">
-        <v>5200188.15522483</v>
+        <v>4748983.49496597</v>
       </c>
       <c r="CB5">
-        <v>5046029.968414631</v>
+        <v>4610601.472336113</v>
       </c>
       <c r="CC5">
-        <v>4908760.828577068</v>
+        <v>4487382.956043041</v>
       </c>
       <c r="CD5">
-        <v>4798905.539506151</v>
+        <v>4388777.381119873</v>
       </c>
       <c r="CE5">
-        <v>4724266.349241285</v>
+        <v>4321789.779594679</v>
       </c>
       <c r="CF5">
-        <v>4589599.719812208</v>
+        <v>4190708.219190218</v>
       </c>
       <c r="CG5">
-        <v>4595847.657759096</v>
+        <v>4196344.597698588</v>
       </c>
       <c r="CH5">
-        <v>4641379.69580953</v>
+        <v>4237251.071300178</v>
       </c>
       <c r="CI5">
-        <v>4721828.914842216</v>
+        <v>4309506.780043731</v>
       </c>
       <c r="CJ5">
-        <v>4830853.962735403</v>
+        <v>4407418.152046304</v>
       </c>
       <c r="CK5">
-        <v>4824339.927342254</v>
+        <v>4387654.08225618</v>
       </c>
       <c r="CL5">
-        <v>4966816.409419768</v>
+        <v>4515599.569581039</v>
       </c>
       <c r="CM5">
-        <v>5113341.63966175</v>
+        <v>4647179.829338152</v>
       </c>
       <c r="CN5">
-        <v>5255840.408471666</v>
+        <v>4775144.921169683</v>
       </c>
       <c r="CO5">
-        <v>5387083.273070386</v>
+        <v>4893004.17787875</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285179016776</v>
+      </c>
+      <c r="E2">
+        <v>564.6463444651679</v>
+      </c>
+      <c r="F2">
+        <v>1064.882093256647</v>
+      </c>
+      <c r="G2">
+        <v>1435.496983093893</v>
+      </c>
+      <c r="H2">
+        <v>2384.506573751589</v>
+      </c>
+      <c r="I2">
+        <v>2929.804702388439</v>
+      </c>
+      <c r="J2">
+        <v>3538.327499902405</v>
+      </c>
+      <c r="K2">
+        <v>4238.274925764103</v>
+      </c>
+      <c r="L2">
+        <v>4796.225257209863</v>
+      </c>
+      <c r="M2">
+        <v>5480.932253388848</v>
+      </c>
+      <c r="N2">
+        <v>5828.633905351194</v>
+      </c>
+      <c r="O2">
+        <v>6215.250594843829</v>
+      </c>
+      <c r="P2">
+        <v>6992.034533571246</v>
+      </c>
+      <c r="Q2">
+        <v>7780.8439084549</v>
+      </c>
+      <c r="R2">
+        <v>8582.093062748132</v>
+      </c>
+      <c r="S2">
+        <v>10569.03521185033</v>
+      </c>
+      <c r="T2">
+        <v>12553.75659154067</v>
+      </c>
+      <c r="U2">
+        <v>14542.4894905716</v>
+      </c>
+      <c r="V2">
+        <v>16542.8265709791</v>
+      </c>
+      <c r="W2">
+        <v>18555.65006260834</v>
+      </c>
+      <c r="X2">
+        <v>20410.19174784208</v>
+      </c>
+      <c r="Y2">
+        <v>22281.56546578442</v>
+      </c>
+      <c r="Z2">
+        <v>24166.16262795965</v>
+      </c>
+      <c r="AA2">
+        <v>26066.09491304754</v>
+      </c>
+      <c r="AB2">
+        <v>28004.42541786499</v>
+      </c>
+      <c r="AC2">
+        <v>28656.08295693992</v>
+      </c>
+      <c r="AD2">
+        <v>29375.55737417487</v>
+      </c>
+      <c r="AE2">
+        <v>30160.89117569225</v>
+      </c>
+      <c r="AF2">
+        <v>30943.78526553779</v>
+      </c>
+      <c r="AG2">
+        <v>31706.3477302627</v>
+      </c>
+      <c r="AH2">
+        <v>32283.59459204734</v>
+      </c>
+      <c r="AI2">
+        <v>32849.77957757802</v>
+      </c>
+      <c r="AJ2">
+        <v>33400.995857917</v>
+      </c>
+      <c r="AK2">
+        <v>33943.87808374387</v>
+      </c>
+      <c r="AL2">
+        <v>34543.63376826666</v>
+      </c>
+      <c r="AM2">
+        <v>35265.54188521225</v>
+      </c>
+      <c r="AN2">
+        <v>36121.71675583663</v>
+      </c>
+      <c r="AO2">
+        <v>37166.65862444459</v>
+      </c>
+      <c r="AP2">
+        <v>38452.23561298037</v>
+      </c>
+      <c r="AQ2">
+        <v>39864.13189748704</v>
+      </c>
+      <c r="AR2">
+        <v>41293.61117151563</v>
+      </c>
+      <c r="AS2">
+        <v>42726.81395265793</v>
+      </c>
+      <c r="AT2">
+        <v>44150.4874315282</v>
+      </c>
+      <c r="AU2">
+        <v>45553.26492193661</v>
+      </c>
+      <c r="AV2">
+        <v>46954.65110719943</v>
+      </c>
+      <c r="AW2">
+        <v>48343.0923528237</v>
+      </c>
+      <c r="AX2">
+        <v>49883.04984058568</v>
+      </c>
+      <c r="AY2">
+        <v>51268.49198543771</v>
+      </c>
+      <c r="AZ2">
+        <v>52441.41342488077</v>
+      </c>
+      <c r="BA2">
+        <v>53524.51526525938</v>
+      </c>
+      <c r="BB2">
+        <v>54593.23993701267</v>
+      </c>
+      <c r="BC2">
+        <v>55650.49034138814</v>
+      </c>
+      <c r="BD2">
+        <v>56668.42934542606</v>
+      </c>
+      <c r="BE2">
+        <v>57639.79132403641</v>
+      </c>
+      <c r="BF2">
+        <v>58585.55603468629</v>
+      </c>
+      <c r="BG2">
+        <v>59507.01025663454</v>
+      </c>
+      <c r="BH2">
+        <v>60460.58160519622</v>
+      </c>
+      <c r="BI2">
+        <v>61492.0438658183</v>
+      </c>
+      <c r="BJ2">
+        <v>62646.57292582202</v>
+      </c>
+      <c r="BK2">
+        <v>63955.04140646383</v>
+      </c>
+      <c r="BL2">
+        <v>65414.73031946769</v>
+      </c>
+      <c r="BM2">
+        <v>67030.0189116635</v>
+      </c>
+      <c r="BN2">
+        <v>68740.48280176296</v>
+      </c>
+      <c r="BO2">
+        <v>70483.03005758012</v>
+      </c>
+      <c r="BP2">
+        <v>72227.9287687787</v>
+      </c>
+      <c r="BQ2">
+        <v>73952.13721211063</v>
+      </c>
+      <c r="BR2">
+        <v>75665.89193224469</v>
+      </c>
+      <c r="BS2">
+        <v>77369.19430214296</v>
+      </c>
+      <c r="BT2">
+        <v>79056.09057071446</v>
+      </c>
+      <c r="BU2">
+        <v>80697.08631464992</v>
+      </c>
+      <c r="BV2">
+        <v>82220.88188281568</v>
+      </c>
+      <c r="BW2">
+        <v>83624.49496619981</v>
+      </c>
+      <c r="BX2">
+        <v>84957.48467536907</v>
+      </c>
+      <c r="BY2">
+        <v>86265.38777068057</v>
+      </c>
+      <c r="BZ2">
+        <v>87554.90878826905</v>
+      </c>
+      <c r="CA2">
+        <v>88803.51202147797</v>
+      </c>
+      <c r="CB2">
+        <v>90026.78753891091</v>
+      </c>
+      <c r="CC2">
+        <v>91241.21113889826</v>
+      </c>
+      <c r="CD2">
+        <v>92473.91857525865</v>
+      </c>
+      <c r="CE2">
+        <v>93761.40711851997</v>
+      </c>
+      <c r="CF2">
+        <v>95127.53635307551</v>
+      </c>
+      <c r="CG2">
+        <v>96620.08700569891</v>
+      </c>
+      <c r="CH2">
+        <v>98255.62319940902</v>
+      </c>
+      <c r="CI2">
+        <v>100030.3821632443</v>
+      </c>
+      <c r="CJ2">
+        <v>101919.2574672354</v>
+      </c>
+      <c r="CK2">
+        <v>103858.3779582169</v>
+      </c>
+      <c r="CL2">
+        <v>105827.0089730364</v>
+      </c>
+      <c r="CM2">
+        <v>107798.4823579912</v>
+      </c>
+      <c r="CN2">
+        <v>109760.8645494334</v>
+      </c>
+      <c r="CO2">
+        <v>111709.358581044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.49072146411909</v>
+      </c>
+      <c r="E3">
+        <v>35.65014952248963</v>
+      </c>
+      <c r="F3">
+        <v>67.9633496227292</v>
+      </c>
+      <c r="G3">
+        <v>91.57164269961589</v>
+      </c>
+      <c r="H3">
+        <v>154.1261618376213</v>
+      </c>
+      <c r="I3">
+        <v>189.554298055419</v>
+      </c>
+      <c r="J3">
+        <v>229.1163314143973</v>
+      </c>
+      <c r="K3">
+        <v>274.6655952377003</v>
+      </c>
+      <c r="L3">
+        <v>310.722732106233</v>
+      </c>
+      <c r="M3">
+        <v>355.2201871434586</v>
+      </c>
+      <c r="N3">
+        <v>376.9342514803036</v>
+      </c>
+      <c r="O3">
+        <v>401.4052728542041</v>
+      </c>
+      <c r="P3">
+        <v>451.995479185994</v>
+      </c>
+      <c r="Q3">
+        <v>503.3565410035399</v>
+      </c>
+      <c r="R3">
+        <v>555.5164446581948</v>
+      </c>
+      <c r="S3">
+        <v>687.2406694018356</v>
+      </c>
+      <c r="T3">
+        <v>818.7700346144065</v>
+      </c>
+      <c r="U3">
+        <v>950.5230625463986</v>
+      </c>
+      <c r="V3">
+        <v>1083.009685958696</v>
+      </c>
+      <c r="W3">
+        <v>1216.289162676926</v>
+      </c>
+      <c r="X3">
+        <v>1338.896186104415</v>
+      </c>
+      <c r="Y3">
+        <v>1462.589646112075</v>
+      </c>
+      <c r="Z3">
+        <v>1587.127241156448</v>
+      </c>
+      <c r="AA3">
+        <v>1712.650810441509</v>
+      </c>
+      <c r="AB3">
+        <v>1840.709298193593</v>
+      </c>
+      <c r="AC3">
+        <v>1882.334571973265</v>
+      </c>
+      <c r="AD3">
+        <v>1928.469495098795</v>
+      </c>
+      <c r="AE3">
+        <v>1978.982542475461</v>
+      </c>
+      <c r="AF3">
+        <v>2029.286513120081</v>
+      </c>
+      <c r="AG3">
+        <v>2078.179683995223</v>
+      </c>
+      <c r="AH3">
+        <v>2114.584660725168</v>
+      </c>
+      <c r="AI3">
+        <v>2150.199559183407</v>
+      </c>
+      <c r="AJ3">
+        <v>2184.761612786439</v>
+      </c>
+      <c r="AK3">
+        <v>2218.715898163484</v>
+      </c>
+      <c r="AL3">
+        <v>2256.44128503687</v>
+      </c>
+      <c r="AM3">
+        <v>2302.321163186129</v>
+      </c>
+      <c r="AN3">
+        <v>2357.168887214955</v>
+      </c>
+      <c r="AO3">
+        <v>2424.64412326062</v>
+      </c>
+      <c r="AP3">
+        <v>2508.229873437855</v>
+      </c>
+      <c r="AQ3">
+        <v>2600.249795313345</v>
+      </c>
+      <c r="AR3">
+        <v>2693.400664070618</v>
+      </c>
+      <c r="AS3">
+        <v>2786.752092164464</v>
+      </c>
+      <c r="AT3">
+        <v>2879.414495386625</v>
+      </c>
+      <c r="AU3">
+        <v>2970.624988890912</v>
+      </c>
+      <c r="AV3">
+        <v>3061.691273321499</v>
+      </c>
+      <c r="AW3">
+        <v>3151.835318616008</v>
+      </c>
+      <c r="AX3">
+        <v>3252.103247349909</v>
+      </c>
+      <c r="AY3">
+        <v>3341.944014497358</v>
+      </c>
+      <c r="AZ3">
+        <v>3417.462844468555</v>
+      </c>
+      <c r="BA3">
+        <v>3486.899302216676</v>
+      </c>
+      <c r="BB3">
+        <v>3555.314640790535</v>
+      </c>
+      <c r="BC3">
+        <v>3622.903185362634</v>
+      </c>
+      <c r="BD3">
+        <v>3687.795300098411</v>
+      </c>
+      <c r="BE3">
+        <v>3749.502791190085</v>
+      </c>
+      <c r="BF3">
+        <v>3809.434042320112</v>
+      </c>
+      <c r="BG3">
+        <v>3867.671198734289</v>
+      </c>
+      <c r="BH3">
+        <v>3928.002892434564</v>
+      </c>
+      <c r="BI3">
+        <v>3993.502759775333</v>
+      </c>
+      <c r="BJ3">
+        <v>4067.20436357387</v>
+      </c>
+      <c r="BK3">
+        <v>4151.180725559149</v>
+      </c>
+      <c r="BL3">
+        <v>4245.245980891204</v>
+      </c>
+      <c r="BM3">
+        <v>4349.693974849996</v>
+      </c>
+      <c r="BN3">
+        <v>4460.46714767604</v>
+      </c>
+      <c r="BO3">
+        <v>4573.328867026216</v>
+      </c>
+      <c r="BP3">
+        <v>4686.282707223416</v>
+      </c>
+      <c r="BQ3">
+        <v>4797.776625350444</v>
+      </c>
+      <c r="BR3">
+        <v>4908.498072004822</v>
+      </c>
+      <c r="BS3">
+        <v>5018.447349889101</v>
+      </c>
+      <c r="BT3">
+        <v>5127.2249129574</v>
+      </c>
+      <c r="BU3">
+        <v>5232.850467467734</v>
+      </c>
+      <c r="BV3">
+        <v>5330.532183107423</v>
+      </c>
+      <c r="BW3">
+        <v>5420.069867484129</v>
+      </c>
+      <c r="BX3">
+        <v>5504.79150396582</v>
+      </c>
+      <c r="BY3">
+        <v>5587.754845364425</v>
+      </c>
+      <c r="BZ3">
+        <v>5669.40996801261</v>
+      </c>
+      <c r="CA3">
+        <v>5748.239035702331</v>
+      </c>
+      <c r="CB3">
+        <v>5825.288695857717</v>
+      </c>
+      <c r="CC3">
+        <v>5901.665166419918</v>
+      </c>
+      <c r="CD3">
+        <v>5979.190496836832</v>
+      </c>
+      <c r="CE3">
+        <v>6060.315433869371</v>
+      </c>
+      <c r="CF3">
+        <v>6146.6371732449</v>
+      </c>
+      <c r="CG3">
+        <v>6241.364089358961</v>
+      </c>
+      <c r="CH3">
+        <v>6345.608420022287</v>
+      </c>
+      <c r="CI3">
+        <v>6459.117404373176</v>
+      </c>
+      <c r="CJ3">
+        <v>6580.205044851498</v>
+      </c>
+      <c r="CK3">
+        <v>6704.577715735756</v>
+      </c>
+      <c r="CL3">
+        <v>6830.842873415865</v>
+      </c>
+      <c r="CM3">
+        <v>6957.209749461806</v>
+      </c>
+      <c r="CN3">
+        <v>7082.877050088363</v>
+      </c>
+      <c r="CO3">
+        <v>7207.522744205651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474419.01758953</v>
+      </c>
+      <c r="E4">
+        <v>53251708.00391703</v>
+      </c>
+      <c r="F4">
+        <v>82628031.91870412</v>
+      </c>
+      <c r="G4">
+        <v>112095878.9156699</v>
+      </c>
+      <c r="H4">
+        <v>138928908.0977203</v>
+      </c>
+      <c r="I4">
+        <v>165248767.0675538</v>
+      </c>
+      <c r="J4">
+        <v>194277187.3474494</v>
+      </c>
+      <c r="K4">
+        <v>227126478.8683679</v>
+      </c>
+      <c r="L4">
+        <v>259753917.7330362</v>
+      </c>
+      <c r="M4">
+        <v>294463258.6417193</v>
+      </c>
+      <c r="N4">
+        <v>332029494.0029554</v>
+      </c>
+      <c r="O4">
+        <v>366886291.2812411</v>
+      </c>
+      <c r="P4">
+        <v>405605147.346603</v>
+      </c>
+      <c r="Q4">
+        <v>445657304.2762727</v>
+      </c>
+      <c r="R4">
+        <v>487031438.2825624</v>
+      </c>
+      <c r="S4">
+        <v>534289312.2998521</v>
+      </c>
+      <c r="T4">
+        <v>582994086.8725216</v>
+      </c>
+      <c r="U4">
+        <v>633151288.503912</v>
+      </c>
+      <c r="V4">
+        <v>684763330.7362604</v>
+      </c>
+      <c r="W4">
+        <v>737830350.3682443</v>
+      </c>
+      <c r="X4">
+        <v>791873242.8277694</v>
+      </c>
+      <c r="Y4">
+        <v>847279564.8875128</v>
+      </c>
+      <c r="Z4">
+        <v>904044470.9808581</v>
+      </c>
+      <c r="AA4">
+        <v>962167661.4883903</v>
+      </c>
+      <c r="AB4">
+        <v>1021655963.426053</v>
+      </c>
+      <c r="AC4">
+        <v>1077362652.095475</v>
+      </c>
+      <c r="AD4">
+        <v>1134450582.056079</v>
+      </c>
+      <c r="AE4">
+        <v>1192925869.5042</v>
+      </c>
+      <c r="AF4">
+        <v>1252784905.910958</v>
+      </c>
+      <c r="AG4">
+        <v>1314033544.323288</v>
+      </c>
+      <c r="AH4">
+        <v>1375803516.652932</v>
+      </c>
+      <c r="AI4">
+        <v>1439032498.130082</v>
+      </c>
+      <c r="AJ4">
+        <v>1503755804.846851</v>
+      </c>
+      <c r="AK4">
+        <v>1570022173.973171</v>
+      </c>
+      <c r="AL4">
+        <v>1637898267.526668</v>
+      </c>
+      <c r="AM4">
+        <v>1707413429.353568</v>
+      </c>
+      <c r="AN4">
+        <v>1778596192.090117</v>
+      </c>
+      <c r="AO4">
+        <v>1851512283.941908</v>
+      </c>
+      <c r="AP4">
+        <v>1926215181.960602</v>
+      </c>
+      <c r="AQ4">
+        <v>2002577947.73594</v>
+      </c>
+      <c r="AR4">
+        <v>2080452341.713739</v>
+      </c>
+      <c r="AS4">
+        <v>2159791123.134645</v>
+      </c>
+      <c r="AT4">
+        <v>2240539365.300288</v>
+      </c>
+      <c r="AU4">
+        <v>2322638221.822092</v>
+      </c>
+      <c r="AV4">
+        <v>2406548137.836006</v>
+      </c>
+      <c r="AW4">
+        <v>2491940177.712486</v>
+      </c>
+      <c r="AX4">
+        <v>2578777401.784011</v>
+      </c>
+      <c r="AY4">
+        <v>2666709184.951427</v>
+      </c>
+      <c r="AZ4">
+        <v>2755640279.900541</v>
+      </c>
+      <c r="BA4">
+        <v>2845686921.38103</v>
+      </c>
+      <c r="BB4">
+        <v>2936959988.274451</v>
+      </c>
+      <c r="BC4">
+        <v>3029564714.893067</v>
+      </c>
+      <c r="BD4">
+        <v>3123505925.034276</v>
+      </c>
+      <c r="BE4">
+        <v>3218809594.89537</v>
+      </c>
+      <c r="BF4">
+        <v>3315542640.193922</v>
+      </c>
+      <c r="BG4">
+        <v>3413762038.566244</v>
+      </c>
+      <c r="BH4">
+        <v>3513632852.002894</v>
+      </c>
+      <c r="BI4">
+        <v>3615224158.152832</v>
+      </c>
+      <c r="BJ4">
+        <v>3718596739.534011</v>
+      </c>
+      <c r="BK4">
+        <v>3823798865.590046</v>
+      </c>
+      <c r="BL4">
+        <v>3930840925.19331</v>
+      </c>
+      <c r="BM4">
+        <v>4039787205.63158</v>
+      </c>
+      <c r="BN4">
+        <v>4150576771.062281</v>
+      </c>
+      <c r="BO4">
+        <v>4263139587.174578</v>
+      </c>
+      <c r="BP4">
+        <v>4377434463.805908</v>
+      </c>
+      <c r="BQ4">
+        <v>4493494933.278235</v>
+      </c>
+      <c r="BR4">
+        <v>4611348757.753795</v>
+      </c>
+      <c r="BS4">
+        <v>4730973061.723738</v>
+      </c>
+      <c r="BT4">
+        <v>4852334854.591065</v>
+      </c>
+      <c r="BU4">
+        <v>4975374197.402718</v>
+      </c>
+      <c r="BV4">
+        <v>5100031844.158451</v>
+      </c>
+      <c r="BW4">
+        <v>5226318633.90401</v>
+      </c>
+      <c r="BX4">
+        <v>5354276163.726239</v>
+      </c>
+      <c r="BY4">
+        <v>5483952690.480698</v>
+      </c>
+      <c r="BZ4">
+        <v>5615362244.251692</v>
+      </c>
+      <c r="CA4">
+        <v>5748537614.454287</v>
+      </c>
+      <c r="CB4">
+        <v>5883541755.418459</v>
+      </c>
+      <c r="CC4">
+        <v>6020405350.032878</v>
+      </c>
+      <c r="CD4">
+        <v>6159171341.862802</v>
+      </c>
+      <c r="CE4">
+        <v>6299888897.847631</v>
+      </c>
+      <c r="CF4">
+        <v>6442637849.284853</v>
+      </c>
+      <c r="CG4">
+        <v>6587516735.360353</v>
+      </c>
+      <c r="CH4">
+        <v>6734553193.517073</v>
+      </c>
+      <c r="CI4">
+        <v>6883755288.082619</v>
+      </c>
+      <c r="CJ4">
+        <v>7035107261.321718</v>
+      </c>
+      <c r="CK4">
+        <v>7188576531.313362</v>
+      </c>
+      <c r="CL4">
+        <v>7344201329.370003</v>
+      </c>
+      <c r="CM4">
+        <v>7501952967.117209</v>
+      </c>
+      <c r="CN4">
+        <v>7661814272.614939</v>
+      </c>
+      <c r="CO4">
+        <v>7823771831.218621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694842.422828536</v>
+      </c>
+      <c r="E5">
+        <v>2690901.139842599</v>
+      </c>
+      <c r="F5">
+        <v>3190239.707717951</v>
+      </c>
+      <c r="G5">
+        <v>3497272.252669023</v>
+      </c>
+      <c r="H5">
+        <v>3785181.367146137</v>
+      </c>
+      <c r="I5">
+        <v>3989752.437913875</v>
+      </c>
+      <c r="J5">
+        <v>4157641.793676279</v>
+      </c>
+      <c r="K5">
+        <v>4374846.281723899</v>
+      </c>
+      <c r="L5">
+        <v>4768604.691630747</v>
+      </c>
+      <c r="M5">
+        <v>5114781.415686947</v>
+      </c>
+      <c r="N5">
+        <v>5551762.461114301</v>
+      </c>
+      <c r="O5">
+        <v>6099919.973946871</v>
+      </c>
+      <c r="P5">
+        <v>9651110.470457863</v>
+      </c>
+      <c r="Q5">
+        <v>13212298.8629498</v>
+      </c>
+      <c r="R5">
+        <v>16785801.01283913</v>
+      </c>
+      <c r="S5">
+        <v>28088274.27641992</v>
+      </c>
+      <c r="T5">
+        <v>39408128.67815368</v>
+      </c>
+      <c r="U5">
+        <v>50747884.01388517</v>
+      </c>
+      <c r="V5">
+        <v>62109894.28215297</v>
+      </c>
+      <c r="W5">
+        <v>73496252.58806495</v>
+      </c>
+      <c r="X5">
+        <v>84400859.78570235</v>
+      </c>
+      <c r="Y5">
+        <v>95333190.90785871</v>
+      </c>
+      <c r="Z5">
+        <v>106294822.6492117</v>
+      </c>
+      <c r="AA5">
+        <v>117287783.2999805</v>
+      </c>
+      <c r="AB5">
+        <v>128315265.3485644</v>
+      </c>
+      <c r="AC5">
+        <v>130371687.09739</v>
+      </c>
+      <c r="AD5">
+        <v>132476749.6146392</v>
+      </c>
+      <c r="AE5">
+        <v>134644002.3819999</v>
+      </c>
+      <c r="AF5">
+        <v>136893092.0732688</v>
+      </c>
+      <c r="AG5">
+        <v>139250729.5043766</v>
+      </c>
+      <c r="AH5">
+        <v>140046535.2040881</v>
+      </c>
+      <c r="AI5">
+        <v>141026008.809344</v>
+      </c>
+      <c r="AJ5">
+        <v>142235523.8166948</v>
+      </c>
+      <c r="AK5">
+        <v>143724306.818175</v>
+      </c>
+      <c r="AL5">
+        <v>145541021.7547157</v>
+      </c>
+      <c r="AM5">
+        <v>147729656.6022656</v>
+      </c>
+      <c r="AN5">
+        <v>150324975.3521406</v>
+      </c>
+      <c r="AO5">
+        <v>153347895.2194769</v>
+      </c>
+      <c r="AP5">
+        <v>156801206.643159</v>
+      </c>
+      <c r="AQ5">
+        <v>160666201.0615521</v>
+      </c>
+      <c r="AR5">
+        <v>164900892.91082</v>
+      </c>
+      <c r="AS5">
+        <v>169440360.7622431</v>
+      </c>
+      <c r="AT5">
+        <v>174199609.6351014</v>
+      </c>
+      <c r="AU5">
+        <v>179078928.7649529</v>
+      </c>
+      <c r="AV5">
+        <v>185120828.5105327</v>
+      </c>
+      <c r="AW5">
+        <v>191395051.6142888</v>
+      </c>
+      <c r="AX5">
+        <v>197479917.7134358</v>
+      </c>
+      <c r="AY5">
+        <v>203295865.0183364</v>
+      </c>
+      <c r="AZ5">
+        <v>208785728.389111</v>
+      </c>
+      <c r="BA5">
+        <v>213918059.4318292</v>
+      </c>
+      <c r="BB5">
+        <v>218521244.9250426</v>
+      </c>
+      <c r="BC5">
+        <v>222783749.9596562</v>
+      </c>
+      <c r="BD5">
+        <v>226750377.50838</v>
+      </c>
+      <c r="BE5">
+        <v>230484928.0822945</v>
+      </c>
+      <c r="BF5">
+        <v>234064295.7236546</v>
+      </c>
+      <c r="BG5">
+        <v>237406780.9019753</v>
+      </c>
+      <c r="BH5">
+        <v>240759314.6293471</v>
+      </c>
+      <c r="BI5">
+        <v>244196958.8250542</v>
+      </c>
+      <c r="BJ5">
+        <v>247783190.7424495</v>
+      </c>
+      <c r="BK5">
+        <v>251567419.8176045</v>
+      </c>
+      <c r="BL5">
+        <v>255460335.5461995</v>
+      </c>
+      <c r="BM5">
+        <v>259606003.0727459</v>
+      </c>
+      <c r="BN5">
+        <v>264011038.3659008</v>
+      </c>
+      <c r="BO5">
+        <v>268669614.5609393</v>
+      </c>
+      <c r="BP5">
+        <v>273564680.2446959</v>
+      </c>
+      <c r="BQ5">
+        <v>278582960.0758801</v>
+      </c>
+      <c r="BR5">
+        <v>283775857.5049341</v>
+      </c>
+      <c r="BS5">
+        <v>289102126.5955759</v>
+      </c>
+      <c r="BT5">
+        <v>294516422.0384905</v>
+      </c>
+      <c r="BU5">
+        <v>299971606.5656798</v>
+      </c>
+      <c r="BV5">
+        <v>305336887.2772111</v>
+      </c>
+      <c r="BW5">
+        <v>310653353.9563411</v>
+      </c>
+      <c r="BX5">
+        <v>315883555.5480238</v>
+      </c>
+      <c r="BY5">
+        <v>320998207.2783495</v>
+      </c>
+      <c r="BZ5">
+        <v>325978154.8333015</v>
+      </c>
+      <c r="CA5">
+        <v>330727138.3282675</v>
+      </c>
+      <c r="CB5">
+        <v>335337739.8006036</v>
+      </c>
+      <c r="CC5">
+        <v>339825122.7566466</v>
+      </c>
+      <c r="CD5">
+        <v>344213900.1377665</v>
+      </c>
+      <c r="CE5">
+        <v>348535689.9173611</v>
+      </c>
+      <c r="CF5">
+        <v>352726398.1365514</v>
+      </c>
+      <c r="CG5">
+        <v>356922742.7342499</v>
+      </c>
+      <c r="CH5">
+        <v>361159993.8055501</v>
+      </c>
+      <c r="CI5">
+        <v>365469500.5855938</v>
+      </c>
+      <c r="CJ5">
+        <v>369876918.7376401</v>
+      </c>
+      <c r="CK5">
+        <v>374264572.8198963</v>
+      </c>
+      <c r="CL5">
+        <v>378780172.3894774</v>
+      </c>
+      <c r="CM5">
+        <v>383427352.2188155</v>
+      </c>
+      <c r="CN5">
+        <v>388202497.1399852</v>
+      </c>
+      <c r="CO5">
+        <v>393095501.3178639</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_target.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_target.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285179016776</v>
+        <v>261.9472601157704</v>
       </c>
       <c r="E2">
-        <v>302.6178265634903</v>
+        <v>302.5639887107566</v>
       </c>
       <c r="F2">
-        <v>500.2357487914789</v>
+        <v>500.2023363438742</v>
       </c>
       <c r="G2">
-        <v>370.6148898372463</v>
+        <v>370.5884671989111</v>
       </c>
       <c r="H2">
-        <v>949.0095906576961</v>
+        <v>948.9804198016928</v>
       </c>
       <c r="I2">
-        <v>545.2981286368497</v>
+        <v>545.2755347290993</v>
       </c>
       <c r="J2">
-        <v>608.5227975139658</v>
+        <v>608.5010607342086</v>
       </c>
       <c r="K2">
-        <v>699.9474258616972</v>
+        <v>699.9261148700035</v>
       </c>
       <c r="L2">
-        <v>557.9503314457606</v>
+        <v>557.9217329717125</v>
       </c>
       <c r="M2">
-        <v>684.7069961789849</v>
+        <v>684.6807776182037</v>
       </c>
       <c r="N2">
-        <v>347.701651962346</v>
+        <v>345.995981890112</v>
       </c>
       <c r="O2">
-        <v>386.6166894926352</v>
+        <v>385.0603337186643</v>
       </c>
       <c r="P2">
-        <v>776.7839387274169</v>
+        <v>775.0154421910808</v>
       </c>
       <c r="Q2">
-        <v>788.8093748836536</v>
+        <v>787.0117014926246</v>
       </c>
       <c r="R2">
-        <v>801.2491542932328</v>
+        <v>799.4229796377775</v>
       </c>
       <c r="S2">
-        <v>1986.942149102201</v>
+        <v>1984.696218830632</v>
       </c>
       <c r="T2">
-        <v>1984.721379690337</v>
+        <v>1982.442297090386</v>
       </c>
       <c r="U2">
-        <v>1988.732899030932</v>
+        <v>1986.420290742699</v>
       </c>
       <c r="V2">
-        <v>2000.337080407494</v>
+        <v>1997.990768678728</v>
       </c>
       <c r="W2">
-        <v>2012.823491629247</v>
+        <v>2010.443442626172</v>
       </c>
       <c r="X2">
-        <v>1854.54168523374</v>
+        <v>1852.160396650794</v>
       </c>
       <c r="Y2">
-        <v>1871.373717942339</v>
+        <v>1868.959290692276</v>
       </c>
       <c r="Z2">
-        <v>1884.597162175224</v>
+        <v>1882.149877821343</v>
       </c>
       <c r="AA2">
-        <v>1899.932285087896</v>
+        <v>1897.452137837778</v>
       </c>
       <c r="AB2">
-        <v>1938.330504817447</v>
+        <v>1935.817034158502</v>
       </c>
       <c r="AC2">
-        <v>651.6575390749269</v>
+        <v>649.5595519816766</v>
       </c>
       <c r="AD2">
-        <v>719.4744172349498</v>
+        <v>717.3415804283553</v>
       </c>
       <c r="AE2">
-        <v>785.3338015173871</v>
+        <v>783.1655701001372</v>
       </c>
       <c r="AF2">
-        <v>782.8940898455319</v>
+        <v>780.6904419204735</v>
       </c>
       <c r="AG2">
-        <v>762.5624647249127</v>
+        <v>760.3227101122749</v>
       </c>
       <c r="AH2">
-        <v>577.2468617846356</v>
+        <v>575.0494976233389</v>
       </c>
       <c r="AI2">
-        <v>566.1849855306841</v>
+        <v>563.9471190001067</v>
       </c>
       <c r="AJ2">
-        <v>551.2162803389825</v>
+        <v>548.9351530170825</v>
       </c>
       <c r="AK2">
-        <v>542.8822258268709</v>
+        <v>540.5542117695577</v>
       </c>
       <c r="AL2">
-        <v>599.7556845227906</v>
+        <v>597.3760571290352</v>
       </c>
       <c r="AM2">
-        <v>721.9081169455866</v>
+        <v>719.472735345341</v>
       </c>
       <c r="AN2">
-        <v>856.1748706243823</v>
+        <v>853.6815407230381</v>
       </c>
       <c r="AO2">
-        <v>1044.941868607959</v>
+        <v>1042.386257759659</v>
       </c>
       <c r="AP2">
-        <v>1285.57698853579</v>
+        <v>1282.955745338023</v>
       </c>
       <c r="AQ2">
-        <v>1411.896284506661</v>
+        <v>1409.217511958914</v>
       </c>
       <c r="AR2">
-        <v>1429.479274028591</v>
+        <v>1426.750154508179</v>
       </c>
       <c r="AS2">
-        <v>1433.202781142306</v>
+        <v>1430.427037491827</v>
       </c>
       <c r="AT2">
-        <v>1423.673478870265</v>
+        <v>1420.855555489697</v>
       </c>
       <c r="AU2">
-        <v>1402.777490408406</v>
+        <v>1399.92225426181</v>
       </c>
       <c r="AV2">
-        <v>1401.386185262825</v>
+        <v>1398.450656134508</v>
       </c>
       <c r="AW2">
-        <v>1388.441245624266</v>
+        <v>1385.460462595768</v>
       </c>
       <c r="AX2">
-        <v>1539.957487761985</v>
+        <v>1536.938225159456</v>
       </c>
       <c r="AY2">
-        <v>1385.44214485203</v>
+        <v>1382.408268594471</v>
       </c>
       <c r="AZ2">
-        <v>1172.921439443066</v>
+        <v>1169.879556539524</v>
       </c>
       <c r="BA2">
-        <v>1083.10184037861</v>
+        <v>1080.045123244832</v>
       </c>
       <c r="BB2">
-        <v>1068.724671753281</v>
+        <v>1065.650227718244</v>
       </c>
       <c r="BC2">
-        <v>1057.250404375478</v>
+        <v>1054.149022954803</v>
       </c>
       <c r="BD2">
-        <v>1017.93900403792</v>
+        <v>1014.809838125084</v>
       </c>
       <c r="BE2">
-        <v>971.3619786103524</v>
+        <v>968.2026380942182</v>
       </c>
       <c r="BF2">
-        <v>945.764710649875</v>
+        <v>942.5701053724224</v>
       </c>
       <c r="BG2">
-        <v>921.4542219482505</v>
+        <v>918.224132523563</v>
       </c>
       <c r="BH2">
-        <v>953.571348561674</v>
+        <v>950.2921474186548</v>
       </c>
       <c r="BI2">
-        <v>1031.462260622078</v>
+        <v>1028.128748219551</v>
       </c>
       <c r="BJ2">
-        <v>1154.529060003726</v>
+        <v>1151.136692951455</v>
       </c>
       <c r="BK2">
-        <v>1308.468480641807</v>
+        <v>1305.013662483725</v>
       </c>
       <c r="BL2">
-        <v>1459.688913003863</v>
+        <v>1456.173228916637</v>
       </c>
       <c r="BM2">
-        <v>1615.288592195808</v>
+        <v>1611.706014339155</v>
       </c>
       <c r="BN2">
-        <v>1710.463890099458</v>
+        <v>1706.818118166855</v>
       </c>
       <c r="BO2">
-        <v>1742.547255817165</v>
+        <v>1738.842705773938</v>
       </c>
       <c r="BP2">
-        <v>1744.898711198582</v>
+        <v>1741.138146589046</v>
       </c>
       <c r="BQ2">
-        <v>1724.208443331919</v>
+        <v>1720.394599891012</v>
       </c>
       <c r="BR2">
-        <v>1713.754720134064</v>
+        <v>1709.885051815342</v>
       </c>
       <c r="BS2">
-        <v>1703.302369898266</v>
+        <v>1699.378799323011</v>
       </c>
       <c r="BT2">
-        <v>1686.896268571487</v>
+        <v>1682.921396084226</v>
       </c>
       <c r="BU2">
-        <v>1640.995743935461</v>
+        <v>1636.973863702272</v>
       </c>
       <c r="BV2">
-        <v>1523.795568165762</v>
+        <v>1519.733955186857</v>
       </c>
       <c r="BW2">
-        <v>1403.613083384132</v>
+        <v>1399.510371875165</v>
       </c>
       <c r="BX2">
-        <v>1332.989709169252</v>
+        <v>1328.843774611234</v>
       </c>
       <c r="BY2">
-        <v>1307.903095311504</v>
+        <v>1303.71129968473</v>
       </c>
       <c r="BZ2">
-        <v>1289.521017588491</v>
+        <v>1285.282722475192</v>
       </c>
       <c r="CA2">
-        <v>1248.60323320893</v>
+        <v>1244.319814282709</v>
       </c>
       <c r="CB2">
-        <v>1223.275517432934</v>
+        <v>1218.941737216264</v>
       </c>
       <c r="CC2">
-        <v>1214.423599987342</v>
+        <v>1210.037369366776</v>
       </c>
       <c r="CD2">
-        <v>1232.707436360388</v>
+        <v>1228.265790683964</v>
       </c>
       <c r="CE2">
-        <v>1287.488543261323</v>
+        <v>1282.988047062695</v>
       </c>
       <c r="CF2">
-        <v>1366.129234555535</v>
+        <v>1361.567700080812</v>
       </c>
       <c r="CG2">
-        <v>1492.550652623392</v>
+        <v>1487.920072553806</v>
       </c>
       <c r="CH2">
-        <v>1635.536193710113</v>
+        <v>1630.83442391674</v>
       </c>
       <c r="CI2">
-        <v>1774.758963835321</v>
+        <v>1769.985121914693</v>
       </c>
       <c r="CJ2">
-        <v>1888.875303991036</v>
+        <v>1884.030054728068</v>
       </c>
       <c r="CK2">
-        <v>1939.120490981501</v>
+        <v>1934.209127088575</v>
       </c>
       <c r="CL2">
-        <v>1968.631014819546</v>
+        <v>1963.649051935321</v>
       </c>
       <c r="CM2">
-        <v>1971.473384954767</v>
+        <v>1966.42255875822</v>
       </c>
       <c r="CN2">
-        <v>1962.382191442228</v>
+        <v>1957.263611647243</v>
       </c>
       <c r="CO2">
-        <v>1948.494031610534</v>
+        <v>1943.308654079435</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072146411909</v>
+        <v>16.48537994071701</v>
       </c>
       <c r="E3">
-        <v>19.15942805837055</v>
+        <v>19.15588859399648</v>
       </c>
       <c r="F3">
-        <v>32.31320010023956</v>
+        <v>32.31100312858626</v>
       </c>
       <c r="G3">
-        <v>23.60829307688669</v>
+        <v>23.60655540050413</v>
       </c>
       <c r="H3">
-        <v>62.55451913800535</v>
+        <v>62.55260067489163</v>
       </c>
       <c r="I3">
-        <v>35.42813621779777</v>
+        <v>35.42665019044442</v>
       </c>
       <c r="J3">
-        <v>39.56203335897827</v>
+        <v>39.56060362599244</v>
       </c>
       <c r="K3">
-        <v>45.54926382330304</v>
+        <v>45.54786229946754</v>
       </c>
       <c r="L3">
-        <v>36.05713686853272</v>
+        <v>36.05525634446104</v>
       </c>
       <c r="M3">
-        <v>44.49745503722564</v>
+        <v>44.49573099536902</v>
       </c>
       <c r="N3">
-        <v>21.71406433684495</v>
+        <v>21.65578131220333</v>
       </c>
       <c r="O3">
-        <v>24.47102137390051</v>
+        <v>24.41718188005988</v>
       </c>
       <c r="P3">
-        <v>50.59020633178992</v>
+        <v>50.5242714488494</v>
       </c>
       <c r="Q3">
-        <v>51.36106181754582</v>
+        <v>51.29375605704692</v>
       </c>
       <c r="R3">
-        <v>52.15990365465497</v>
+        <v>52.0912714841408</v>
       </c>
       <c r="S3">
-        <v>131.7242247436408</v>
+        <v>131.6286176596253</v>
       </c>
       <c r="T3">
-        <v>131.5293652125709</v>
+        <v>131.4321979938107</v>
       </c>
       <c r="U3">
-        <v>131.7530279319921</v>
+        <v>131.6542760188144</v>
       </c>
       <c r="V3">
-        <v>132.4866234122969</v>
+        <v>132.3862751175026</v>
       </c>
       <c r="W3">
-        <v>133.2794767182308</v>
+        <v>133.1775298227022</v>
       </c>
       <c r="X3">
-        <v>122.6070234274887</v>
+        <v>122.5055677995854</v>
       </c>
       <c r="Y3">
-        <v>123.6934600076597</v>
+        <v>123.5903982285513</v>
       </c>
       <c r="Z3">
-        <v>124.5375950443734</v>
+        <v>124.4329456475609</v>
       </c>
       <c r="AA3">
-        <v>125.5235692850606</v>
+        <v>125.4173318969397</v>
       </c>
       <c r="AB3">
-        <v>128.058487752084</v>
+        <v>127.9506320850926</v>
       </c>
       <c r="AC3">
-        <v>41.62527377967215</v>
+        <v>41.54529308764833</v>
       </c>
       <c r="AD3">
-        <v>46.1349231255296</v>
+        <v>46.05321322465353</v>
       </c>
       <c r="AE3">
-        <v>50.51304737666609</v>
+        <v>50.42957245384891</v>
       </c>
       <c r="AF3">
-        <v>50.30397064462063</v>
+        <v>50.21872930495939</v>
       </c>
       <c r="AG3">
-        <v>48.89317087514117</v>
+        <v>48.80611778482755</v>
       </c>
       <c r="AH3">
-        <v>36.40497672994503</v>
+        <v>36.32126612024565</v>
       </c>
       <c r="AI3">
-        <v>35.61489845823971</v>
+        <v>35.52908136002673</v>
       </c>
       <c r="AJ3">
-        <v>34.56205360303139</v>
+        <v>34.47394864636341</v>
       </c>
       <c r="AK3">
-        <v>33.95428537704544</v>
+        <v>33.86365411476731</v>
       </c>
       <c r="AL3">
-        <v>37.72538687338606</v>
+        <v>37.63191844202888</v>
       </c>
       <c r="AM3">
-        <v>45.87987814925886</v>
+        <v>45.78328948997114</v>
       </c>
       <c r="AN3">
-        <v>54.84772402882607</v>
+        <v>54.74787087438729</v>
       </c>
       <c r="AO3">
-        <v>67.47523604566508</v>
+        <v>67.37183335999802</v>
       </c>
       <c r="AP3">
-        <v>83.58575017723471</v>
+        <v>83.47857743551138</v>
       </c>
       <c r="AQ3">
-        <v>92.01992187549008</v>
+        <v>91.90951222374906</v>
       </c>
       <c r="AR3">
-        <v>93.15086875727332</v>
+        <v>93.03774333772027</v>
       </c>
       <c r="AS3">
-        <v>93.35142809384509</v>
+        <v>93.23583167448541</v>
       </c>
       <c r="AT3">
-        <v>92.6624032221612</v>
+        <v>92.54462798708104</v>
       </c>
       <c r="AU3">
-        <v>91.2104935042875</v>
+        <v>91.09085939610169</v>
       </c>
       <c r="AV3">
-        <v>91.06628443058594</v>
+        <v>90.9419665988315</v>
       </c>
       <c r="AW3">
-        <v>90.14404529451006</v>
+        <v>90.01741143165387</v>
       </c>
       <c r="AX3">
-        <v>100.2679287339001</v>
+        <v>100.1394232405479</v>
       </c>
       <c r="AY3">
-        <v>89.84076714744948</v>
+        <v>89.71196023986533</v>
       </c>
       <c r="AZ3">
-        <v>75.51882997119617</v>
+        <v>75.3901562326037</v>
       </c>
       <c r="BA3">
-        <v>69.43645774812144</v>
+        <v>69.30746779660005</v>
       </c>
       <c r="BB3">
-        <v>68.41533857385916</v>
+        <v>68.28592923381343</v>
       </c>
       <c r="BC3">
-        <v>67.58854457209915</v>
+        <v>67.45811036657426</v>
       </c>
       <c r="BD3">
-        <v>64.8921147357763</v>
+        <v>64.76060006265529</v>
       </c>
       <c r="BE3">
-        <v>61.70749109167433</v>
+        <v>61.57473887750071</v>
       </c>
       <c r="BF3">
-        <v>59.93125113002684</v>
+        <v>59.79692666911349</v>
       </c>
       <c r="BG3">
-        <v>58.23715641417738</v>
+        <v>58.10129179348895</v>
       </c>
       <c r="BH3">
-        <v>60.33169370027453</v>
+        <v>60.19339297786455</v>
       </c>
       <c r="BI3">
-        <v>65.49986734076957</v>
+        <v>65.35878861400248</v>
       </c>
       <c r="BJ3">
-        <v>73.7016037985363</v>
+        <v>73.55744830521527</v>
       </c>
       <c r="BK3">
-        <v>83.97636198528008</v>
+        <v>83.82889322690545</v>
       </c>
       <c r="BL3">
-        <v>94.06525533205544</v>
+        <v>93.91463059785508</v>
       </c>
       <c r="BM3">
-        <v>104.4479939587921</v>
+        <v>104.2938170638595</v>
       </c>
       <c r="BN3">
-        <v>110.7731728260436</v>
+        <v>110.6156872451901</v>
       </c>
       <c r="BO3">
-        <v>112.8617193501766</v>
+        <v>112.7012156515391</v>
       </c>
       <c r="BP3">
-        <v>112.9538401971992</v>
+        <v>112.790500177682</v>
       </c>
       <c r="BQ3">
-        <v>111.4939181270279</v>
+        <v>111.3280095658753</v>
       </c>
       <c r="BR3">
-        <v>110.7214466543775</v>
+        <v>110.552802181812</v>
       </c>
       <c r="BS3">
-        <v>109.9492778842794</v>
+        <v>109.7780238838776</v>
       </c>
       <c r="BT3">
-        <v>108.7775630682989</v>
+        <v>108.6038705076534</v>
       </c>
       <c r="BU3">
-        <v>105.6255545103345</v>
+        <v>105.4497058113002</v>
       </c>
       <c r="BV3">
-        <v>97.6817156396892</v>
+        <v>97.50425933660502</v>
       </c>
       <c r="BW3">
-        <v>89.53768437670492</v>
+        <v>89.35853073153038</v>
       </c>
       <c r="BX3">
-        <v>84.72163648169118</v>
+        <v>84.5406455705249</v>
       </c>
       <c r="BY3">
-        <v>82.9633413986047</v>
+        <v>82.78033953157525</v>
       </c>
       <c r="BZ3">
-        <v>81.65512264818544</v>
+        <v>81.47006774864033</v>
       </c>
       <c r="CA3">
-        <v>78.82906768972056</v>
+        <v>78.64212013388078</v>
       </c>
       <c r="CB3">
-        <v>77.04966015538668</v>
+        <v>76.86047559725566</v>
       </c>
       <c r="CC3">
-        <v>76.37647056220109</v>
+        <v>76.18491157753446</v>
       </c>
       <c r="CD3">
-        <v>77.52533041691404</v>
+        <v>77.33120199929022</v>
       </c>
       <c r="CE3">
-        <v>81.12493703253995</v>
+        <v>80.92801321884137</v>
       </c>
       <c r="CF3">
-        <v>86.32173937552861</v>
+        <v>86.12196143883682</v>
       </c>
       <c r="CG3">
-        <v>94.72691611406138</v>
+        <v>94.52375759076634</v>
       </c>
       <c r="CH3">
-        <v>104.2443306633259</v>
+        <v>104.0376505774693</v>
       </c>
       <c r="CI3">
-        <v>113.5089843508897</v>
+        <v>113.2987247389465</v>
       </c>
       <c r="CJ3">
-        <v>121.0876404783223</v>
+        <v>120.8738451686777</v>
       </c>
       <c r="CK3">
-        <v>124.3726708842577</v>
+        <v>124.1557684743615</v>
       </c>
       <c r="CL3">
-        <v>126.2651576801094</v>
+        <v>126.0448535639804</v>
       </c>
       <c r="CM3">
-        <v>126.3668760459404</v>
+        <v>126.1432844499989</v>
       </c>
       <c r="CN3">
-        <v>125.667300626557</v>
+        <v>125.4404945632334</v>
       </c>
       <c r="CO3">
-        <v>124.6456941172885</v>
+        <v>124.4157364543022</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.01758953</v>
+        <v>804667.33313765</v>
       </c>
       <c r="E4">
-        <v>26777288.9863275</v>
+        <v>548773.4186240316</v>
       </c>
       <c r="F4">
-        <v>29376323.9147871</v>
+        <v>355170.5958998415</v>
       </c>
       <c r="G4">
-        <v>29467846.9969658</v>
+        <v>291722.0081874892</v>
       </c>
       <c r="H4">
-        <v>26833029.18205039</v>
+        <v>328267.7049006624</v>
       </c>
       <c r="I4">
-        <v>26319858.96983352</v>
+        <v>256559.8038241108</v>
       </c>
       <c r="J4">
-        <v>29028420.27989551</v>
+        <v>250378.0558730347</v>
       </c>
       <c r="K4">
-        <v>32849291.52091852</v>
+        <v>238935.2576288409</v>
       </c>
       <c r="L4">
-        <v>32627438.86466835</v>
+        <v>308103.666886966</v>
       </c>
       <c r="M4">
-        <v>34709340.90868309</v>
+        <v>284240.9508959503</v>
       </c>
       <c r="N4">
-        <v>37566235.36123612</v>
+        <v>313626.5506931784</v>
       </c>
       <c r="O4">
-        <v>34856797.27828567</v>
+        <v>398887.0435879411</v>
       </c>
       <c r="P4">
-        <v>38718856.06536195</v>
+        <v>1825415.694048615</v>
       </c>
       <c r="Q4">
-        <v>40052156.92966959</v>
+        <v>1847736.208985496</v>
       </c>
       <c r="R4">
-        <v>41374134.00628979</v>
+        <v>1861351.298623473</v>
       </c>
       <c r="S4">
-        <v>47257874.01728962</v>
+        <v>5740126.69156991</v>
       </c>
       <c r="T4">
-        <v>48704774.57266961</v>
+        <v>5746619.971284762</v>
       </c>
       <c r="U4">
-        <v>50157201.63139033</v>
+        <v>5757465.447605299</v>
       </c>
       <c r="V4">
-        <v>51612042.23234838</v>
+        <v>5770248.073185341</v>
       </c>
       <c r="W4">
-        <v>53067019.63198383</v>
+        <v>5783195.104729916</v>
       </c>
       <c r="X4">
-        <v>54042892.45952515</v>
+        <v>5464783.399510065</v>
       </c>
       <c r="Y4">
-        <v>55406322.05974337</v>
+        <v>5481541.292777673</v>
       </c>
       <c r="Z4">
-        <v>56764906.0933453</v>
+        <v>5494589.064771223</v>
       </c>
       <c r="AA4">
-        <v>58123190.50753224</v>
+        <v>5507461.857238632</v>
       </c>
       <c r="AB4">
-        <v>59488301.93766306</v>
+        <v>5525718.330629811</v>
       </c>
       <c r="AC4">
-        <v>55706688.6694216</v>
+        <v>1047410.104021442</v>
       </c>
       <c r="AD4">
-        <v>57087929.96060394</v>
+        <v>1075141.058681817</v>
       </c>
       <c r="AE4">
-        <v>58475287.44812165</v>
+        <v>1107984.704381109</v>
       </c>
       <c r="AF4">
-        <v>59859036.4067578</v>
+        <v>1138556.974744394</v>
       </c>
       <c r="AG4">
-        <v>61248638.4123298</v>
+        <v>1174398.599423405</v>
       </c>
       <c r="AH4">
-        <v>61769972.32964342</v>
+        <v>429249.0876799672</v>
       </c>
       <c r="AI4">
-        <v>63228981.47715031</v>
+        <v>502932.2918043279</v>
       </c>
       <c r="AJ4">
-        <v>64723306.71676934</v>
+        <v>605254.1206968505</v>
       </c>
       <c r="AK4">
-        <v>66266369.12631977</v>
+        <v>746691.5644386065</v>
       </c>
       <c r="AL4">
-        <v>67876093.55349655</v>
+        <v>941130.6546395225</v>
       </c>
       <c r="AM4">
-        <v>69515161.82689965</v>
+        <v>1180552.640787453</v>
       </c>
       <c r="AN4">
-        <v>71182762.73654944</v>
+        <v>1443042.366401693</v>
       </c>
       <c r="AO4">
-        <v>72916091.85179111</v>
+        <v>1757035.902029319</v>
       </c>
       <c r="AP4">
-        <v>74702898.01869373</v>
+        <v>2112540.498714413</v>
       </c>
       <c r="AQ4">
-        <v>76362765.77533808</v>
+        <v>2369177.425773608</v>
       </c>
       <c r="AR4">
-        <v>77874393.97779937</v>
+        <v>2520981.270217111</v>
       </c>
       <c r="AS4">
-        <v>79338781.42090526</v>
+        <v>2634389.869815728</v>
       </c>
       <c r="AT4">
-        <v>80748242.16564383</v>
+        <v>2702893.06608657</v>
       </c>
       <c r="AU4">
-        <v>82098856.52180378</v>
+        <v>2723046.858443829</v>
       </c>
       <c r="AV4">
-        <v>83909916.01391362</v>
+        <v>3150914.165208343</v>
       </c>
       <c r="AW4">
-        <v>85392039.87648031</v>
+        <v>3213607.550776357</v>
       </c>
       <c r="AX4">
-        <v>86837224.07152571</v>
+        <v>3243901.26492493</v>
       </c>
       <c r="AY4">
-        <v>87931783.16741599</v>
+        <v>2986198.380688281</v>
       </c>
       <c r="AZ4">
-        <v>88931094.94911337</v>
+        <v>2653121.572973472</v>
       </c>
       <c r="BA4">
-        <v>90046641.48048916</v>
+        <v>2409231.714288162</v>
       </c>
       <c r="BB4">
-        <v>91273066.89342049</v>
+        <v>2173221.483980998</v>
       </c>
       <c r="BC4">
-        <v>92604726.61861598</v>
+        <v>2028823.268243772</v>
       </c>
       <c r="BD4">
-        <v>93941210.1412086</v>
+        <v>1889396.763030408</v>
       </c>
       <c r="BE4">
-        <v>95303669.86109439</v>
+        <v>1771858.60444219</v>
       </c>
       <c r="BF4">
-        <v>96733045.29855183</v>
+        <v>1708288.410428838</v>
       </c>
       <c r="BG4">
-        <v>98219398.37232184</v>
+        <v>1623053.620671756</v>
       </c>
       <c r="BH4">
-        <v>99870813.43665001</v>
+        <v>1677341.964232802</v>
       </c>
       <c r="BI4">
-        <v>101591306.1499378</v>
+        <v>1787229.932270513</v>
       </c>
       <c r="BJ4">
-        <v>103372581.3811799</v>
+        <v>1945971.070894751</v>
       </c>
       <c r="BK4">
-        <v>105202126.0560351</v>
+        <v>2143478.707504166</v>
       </c>
       <c r="BL4">
-        <v>107042059.6032638</v>
+        <v>2303879.071499889</v>
       </c>
       <c r="BM4">
-        <v>108946280.43827</v>
+        <v>2521687.75856017</v>
       </c>
       <c r="BN4">
-        <v>110789565.4307002</v>
+        <v>2692467.347291242</v>
       </c>
       <c r="BO4">
-        <v>112562816.1122977</v>
+        <v>2808824.689236945</v>
       </c>
       <c r="BP4">
-        <v>114294876.6313298</v>
+        <v>2892797.816690787</v>
       </c>
       <c r="BQ4">
-        <v>116060469.4723271</v>
+        <v>2912849.162493796</v>
       </c>
       <c r="BR4">
-        <v>117853824.4755594</v>
+        <v>2958354.396222868</v>
       </c>
       <c r="BS4">
-        <v>119624303.9699426</v>
+        <v>2984997.046727164</v>
       </c>
       <c r="BT4">
-        <v>121361792.8673275</v>
+        <v>2984827.397530069</v>
       </c>
       <c r="BU4">
-        <v>123039342.8116519</v>
+        <v>2936917.179884498</v>
       </c>
       <c r="BV4">
-        <v>124657646.7557334</v>
+        <v>2776290.953905126</v>
       </c>
       <c r="BW4">
-        <v>126286789.7455584</v>
+        <v>2627660.282614395</v>
       </c>
       <c r="BX4">
-        <v>127957529.8222297</v>
+        <v>2510220.941512253</v>
       </c>
       <c r="BY4">
-        <v>129676526.754458</v>
+        <v>2429356.318376297</v>
       </c>
       <c r="BZ4">
-        <v>131409553.7709943</v>
+        <v>2358827.487441089</v>
       </c>
       <c r="CA4">
-        <v>133175370.2025949</v>
+        <v>2242553.748060904</v>
       </c>
       <c r="CB4">
-        <v>135004140.9641722</v>
+        <v>2180196.953476584</v>
       </c>
       <c r="CC4">
-        <v>136863594.6144193</v>
+        <v>2142029.955253863</v>
       </c>
       <c r="CD4">
-        <v>138765991.8299232</v>
+        <v>2137814.399179856</v>
       </c>
       <c r="CE4">
-        <v>140717555.9848295</v>
+        <v>2172567.868519884</v>
       </c>
       <c r="CF4">
-        <v>142748951.4372215</v>
+        <v>2194893.332653814</v>
       </c>
       <c r="CG4">
-        <v>144878886.0755009</v>
+        <v>2300262.199498622</v>
       </c>
       <c r="CH4">
-        <v>147036458.1567189</v>
+        <v>2428021.047357148</v>
       </c>
       <c r="CI4">
-        <v>149202094.565546</v>
+        <v>2562895.405699617</v>
       </c>
       <c r="CJ4">
-        <v>151351973.2390995</v>
+        <v>2686270.526118353</v>
       </c>
       <c r="CK4">
-        <v>153469269.9916436</v>
+        <v>2711962.759836148</v>
       </c>
       <c r="CL4">
-        <v>155624798.0566408</v>
+        <v>2775342.748827957</v>
       </c>
       <c r="CM4">
-        <v>157751637.7472065</v>
+        <v>2816596.649316364</v>
       </c>
       <c r="CN4">
-        <v>159861305.4977292</v>
+        <v>2844446.994332203</v>
       </c>
       <c r="CO4">
-        <v>161957558.6036824</v>
+        <v>2861625.685305608</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694842.422828536</v>
+        <v>1694840.45682091</v>
       </c>
       <c r="E5">
-        <v>996058.7170140627</v>
+        <v>996057.426042231</v>
       </c>
       <c r="F5">
-        <v>499338.5678753521</v>
+        <v>499337.7778114414</v>
       </c>
       <c r="G5">
-        <v>307032.5449510727</v>
+        <v>307031.928060804</v>
       </c>
       <c r="H5">
-        <v>287909.1144771138</v>
+        <v>287908.438765206</v>
       </c>
       <c r="I5">
-        <v>204571.0707677377</v>
+        <v>204570.5488036484</v>
       </c>
       <c r="J5">
-        <v>167889.3557624036</v>
+        <v>167888.8563199483</v>
       </c>
       <c r="K5">
-        <v>217204.48804762</v>
+        <v>217203.993761473</v>
       </c>
       <c r="L5">
-        <v>393758.4099068483</v>
+        <v>393757.7368674414</v>
       </c>
       <c r="M5">
-        <v>346176.7240561999</v>
+        <v>346176.1085835647</v>
       </c>
       <c r="N5">
-        <v>436981.0454273545</v>
+        <v>436952.3092296945</v>
       </c>
       <c r="O5">
-        <v>548157.5128325702</v>
+        <v>548131.1735723102</v>
       </c>
       <c r="P5">
-        <v>3551190.496510992</v>
+        <v>3551159.484222659</v>
       </c>
       <c r="Q5">
-        <v>3561188.392491937</v>
+        <v>3561156.832931607</v>
       </c>
       <c r="R5">
-        <v>3573502.149889336</v>
+        <v>3573470.057923737</v>
       </c>
       <c r="S5">
-        <v>11302473.26358078</v>
+        <v>11302431.22684754</v>
       </c>
       <c r="T5">
-        <v>11319854.40173377</v>
+        <v>11319811.74194161</v>
       </c>
       <c r="U5">
-        <v>11339755.3357315</v>
+        <v>11339712.04433066</v>
       </c>
       <c r="V5">
-        <v>11362010.2682678</v>
+        <v>11361966.34109045</v>
       </c>
       <c r="W5">
-        <v>11386358.30591198</v>
+        <v>11386313.74201523</v>
       </c>
       <c r="X5">
-        <v>10904607.19763739</v>
+        <v>10904562.72372494</v>
       </c>
       <c r="Y5">
-        <v>10932331.12215636</v>
+        <v>10932285.98065002</v>
       </c>
       <c r="Z5">
-        <v>10961631.74135297</v>
+        <v>10961585.93838769</v>
       </c>
       <c r="AA5">
-        <v>10992960.65076883</v>
+        <v>10992914.18603518</v>
       </c>
       <c r="AB5">
-        <v>11027482.04858387</v>
+        <v>11027434.9115518</v>
       </c>
       <c r="AC5">
-        <v>2056421.748825658</v>
+        <v>2056384.747383401</v>
       </c>
       <c r="AD5">
-        <v>2105062.517249172</v>
+        <v>2105024.789666791</v>
       </c>
       <c r="AE5">
-        <v>2167252.767360698</v>
+        <v>2167214.300251266</v>
       </c>
       <c r="AF5">
-        <v>2249089.691268899</v>
+        <v>2249050.482265182</v>
       </c>
       <c r="AG5">
-        <v>2357637.431107856</v>
+        <v>2357597.462367317</v>
       </c>
       <c r="AH5">
-        <v>795805.6997114373</v>
+        <v>795766.8687228297</v>
       </c>
       <c r="AI5">
-        <v>979473.6052559051</v>
+        <v>979433.9048889864</v>
       </c>
       <c r="AJ5">
-        <v>1209515.007350838</v>
+        <v>1209474.371854779</v>
       </c>
       <c r="AK5">
-        <v>1488783.001480259</v>
+        <v>1488741.345503815</v>
       </c>
       <c r="AL5">
-        <v>1816714.936540661</v>
+        <v>1816672.150310802</v>
       </c>
       <c r="AM5">
-        <v>2188634.847549841</v>
+        <v>2188590.823855672</v>
       </c>
       <c r="AN5">
-        <v>2595318.749875002</v>
+        <v>2595273.436631936</v>
       </c>
       <c r="AO5">
-        <v>3022919.86733635</v>
+        <v>3022873.166054485</v>
       </c>
       <c r="AP5">
-        <v>3453311.423682052</v>
+        <v>3453263.259402147</v>
       </c>
       <c r="AQ5">
-        <v>3864994.418393103</v>
+        <v>3864944.973449129</v>
       </c>
       <c r="AR5">
-        <v>4234691.849267863</v>
+        <v>4234641.287971873</v>
       </c>
       <c r="AS5">
-        <v>4539467.851423158</v>
+        <v>4539416.262696594</v>
       </c>
       <c r="AT5">
-        <v>4759248.872858274</v>
+        <v>4759196.363539335</v>
       </c>
       <c r="AU5">
-        <v>4879319.129851465</v>
+        <v>4879265.817540782</v>
       </c>
       <c r="AV5">
-        <v>6041899.745579837</v>
+        <v>6041844.577064086</v>
       </c>
       <c r="AW5">
-        <v>6274223.103756071</v>
+        <v>6274166.942412208</v>
       </c>
       <c r="AX5">
-        <v>6084866.09914704</v>
+        <v>6084809.134472951</v>
       </c>
       <c r="AY5">
-        <v>5815947.304900598</v>
+        <v>5815890.076196501</v>
       </c>
       <c r="AZ5">
-        <v>5489863.370774549</v>
+        <v>5489806.030553171</v>
       </c>
       <c r="BA5">
-        <v>5132331.042718295</v>
+        <v>5132273.441652678</v>
       </c>
       <c r="BB5">
-        <v>4603185.493213314</v>
+        <v>4603127.583709054</v>
       </c>
       <c r="BC5">
-        <v>4262505.034613641</v>
+        <v>4262446.594121135</v>
       </c>
       <c r="BD5">
-        <v>3966627.548723766</v>
+        <v>3966568.554248278</v>
       </c>
       <c r="BE5">
-        <v>3734550.573914518</v>
+        <v>3734490.966343449</v>
       </c>
       <c r="BF5">
-        <v>3579367.641360095</v>
+        <v>3579307.300189406</v>
       </c>
       <c r="BG5">
-        <v>3342485.178320701</v>
+        <v>3342424.107075614</v>
       </c>
       <c r="BH5">
-        <v>3352533.727371743</v>
+        <v>3352471.599732502</v>
       </c>
       <c r="BI5">
-        <v>3437644.195707174</v>
+        <v>3437580.888931773</v>
       </c>
       <c r="BJ5">
-        <v>3586231.917395309</v>
+        <v>3586167.324429759</v>
       </c>
       <c r="BK5">
-        <v>3784229.075154974</v>
+        <v>3784163.11132592</v>
       </c>
       <c r="BL5">
-        <v>3892915.728594976</v>
+        <v>3892848.450340471</v>
       </c>
       <c r="BM5">
-        <v>4145667.526546401</v>
+        <v>4145598.786349179</v>
       </c>
       <c r="BN5">
-        <v>4405035.293154928</v>
+        <v>4404965.172882991</v>
       </c>
       <c r="BO5">
-        <v>4658576.195038524</v>
+        <v>4658504.793663933</v>
       </c>
       <c r="BP5">
-        <v>4895065.683756585</v>
+        <v>4894993.064443241</v>
       </c>
       <c r="BQ5">
-        <v>5018279.831184159</v>
+        <v>5018206.092437045</v>
       </c>
       <c r="BR5">
-        <v>5192897.429054016</v>
+        <v>5192822.509433377</v>
       </c>
       <c r="BS5">
-        <v>5326269.09064183</v>
+        <v>5326193.03677862</v>
       </c>
       <c r="BT5">
-        <v>5414295.442914548</v>
+        <v>5414218.316924422</v>
       </c>
       <c r="BU5">
-        <v>5455184.52718936</v>
+        <v>5455106.429111414</v>
       </c>
       <c r="BV5">
-        <v>5365280.711531261</v>
+        <v>5365201.831384294</v>
       </c>
       <c r="BW5">
-        <v>5316466.679129945</v>
+        <v>5316386.982723551</v>
       </c>
       <c r="BX5">
-        <v>5230201.591682742</v>
+        <v>5230121.03506932</v>
       </c>
       <c r="BY5">
-        <v>5114651.730325663</v>
+        <v>5114570.257354852</v>
       </c>
       <c r="BZ5">
-        <v>4979947.554952023</v>
+        <v>4979865.153119462</v>
       </c>
       <c r="CA5">
-        <v>4748983.49496597</v>
+        <v>4748900.2149123</v>
       </c>
       <c r="CB5">
-        <v>4610601.472336113</v>
+        <v>4610517.188849273</v>
       </c>
       <c r="CC5">
-        <v>4487382.956043041</v>
+        <v>4487297.621159471</v>
       </c>
       <c r="CD5">
-        <v>4388777.381119873</v>
+        <v>4388690.926500589</v>
       </c>
       <c r="CE5">
-        <v>4321789.779594679</v>
+        <v>4321702.125775508</v>
       </c>
       <c r="CF5">
-        <v>4190708.219190218</v>
+        <v>4190619.334042283</v>
       </c>
       <c r="CG5">
-        <v>4196344.597698588</v>
+        <v>4196254.29026139</v>
       </c>
       <c r="CH5">
-        <v>4237251.071300178</v>
+        <v>4237159.290565004</v>
       </c>
       <c r="CI5">
-        <v>4309506.780043731</v>
+        <v>4309413.503480581</v>
       </c>
       <c r="CJ5">
-        <v>4407418.152046304</v>
+        <v>4407323.392132547</v>
       </c>
       <c r="CK5">
-        <v>4387654.08225618</v>
+        <v>4387557.972752748</v>
       </c>
       <c r="CL5">
-        <v>4515599.569581039</v>
+        <v>4515501.997046259</v>
       </c>
       <c r="CM5">
-        <v>4647179.829338152</v>
+        <v>4647080.832134205</v>
       </c>
       <c r="CN5">
-        <v>4775144.921169683</v>
+        <v>4775044.524368168</v>
       </c>
       <c r="CO5">
-        <v>4893004.17787875</v>
+        <v>4892902.403715617</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285179016776</v>
+        <v>261.9472601157704</v>
       </c>
       <c r="E2">
-        <v>564.6463444651679</v>
+        <v>564.511248826527</v>
       </c>
       <c r="F2">
-        <v>1064.882093256647</v>
+        <v>1064.713585170401</v>
       </c>
       <c r="G2">
-        <v>1435.496983093893</v>
+        <v>1435.302052369312</v>
       </c>
       <c r="H2">
-        <v>2384.506573751589</v>
+        <v>2384.282472171005</v>
       </c>
       <c r="I2">
-        <v>2929.804702388439</v>
+        <v>2929.558006900104</v>
       </c>
       <c r="J2">
-        <v>3538.327499902405</v>
+        <v>3538.059067634313</v>
       </c>
       <c r="K2">
-        <v>4238.274925764103</v>
+        <v>4237.985182504317</v>
       </c>
       <c r="L2">
-        <v>4796.225257209863</v>
+        <v>4795.906915476029</v>
       </c>
       <c r="M2">
-        <v>5480.932253388848</v>
+        <v>5480.587693094233</v>
       </c>
       <c r="N2">
-        <v>5828.633905351194</v>
+        <v>5826.583674984346</v>
       </c>
       <c r="O2">
-        <v>6215.250594843829</v>
+        <v>6211.64400870301</v>
       </c>
       <c r="P2">
-        <v>6992.034533571246</v>
+        <v>6986.659450894091</v>
       </c>
       <c r="Q2">
-        <v>7780.8439084549</v>
+        <v>7773.671152386715</v>
       </c>
       <c r="R2">
-        <v>8582.093062748132</v>
+        <v>8573.094132024493</v>
       </c>
       <c r="S2">
-        <v>10569.03521185033</v>
+        <v>10557.79035085512</v>
       </c>
       <c r="T2">
-        <v>12553.75659154067</v>
+        <v>12540.23264794551</v>
       </c>
       <c r="U2">
-        <v>14542.4894905716</v>
+        <v>14526.65293868821</v>
       </c>
       <c r="V2">
-        <v>16542.8265709791</v>
+        <v>16524.64370736694</v>
       </c>
       <c r="W2">
-        <v>18555.65006260834</v>
+        <v>18535.08714999311</v>
       </c>
       <c r="X2">
-        <v>20410.19174784208</v>
+        <v>20387.2475466439</v>
       </c>
       <c r="Y2">
-        <v>22281.56546578442</v>
+        <v>22256.20683733618</v>
       </c>
       <c r="Z2">
-        <v>24166.16262795965</v>
+        <v>24138.35671515752</v>
       </c>
       <c r="AA2">
-        <v>26066.09491304754</v>
+        <v>26035.8088529953</v>
       </c>
       <c r="AB2">
-        <v>28004.42541786499</v>
+        <v>27971.6258871538</v>
       </c>
       <c r="AC2">
-        <v>28656.08295693992</v>
+        <v>28621.18543913548</v>
       </c>
       <c r="AD2">
-        <v>29375.55737417487</v>
+        <v>29338.52701956384</v>
       </c>
       <c r="AE2">
-        <v>30160.89117569225</v>
+        <v>30121.69258966397</v>
       </c>
       <c r="AF2">
-        <v>30943.78526553779</v>
+        <v>30902.38303158445</v>
       </c>
       <c r="AG2">
-        <v>31706.3477302627</v>
+        <v>31662.70574169672</v>
       </c>
       <c r="AH2">
-        <v>32283.59459204734</v>
+        <v>32237.75523932006</v>
       </c>
       <c r="AI2">
-        <v>32849.77957757802</v>
+        <v>32801.70235832017</v>
       </c>
       <c r="AJ2">
-        <v>33400.995857917</v>
+        <v>33350.63751133725</v>
       </c>
       <c r="AK2">
-        <v>33943.87808374387</v>
+        <v>33891.19172310681</v>
       </c>
       <c r="AL2">
-        <v>34543.63376826666</v>
+        <v>34488.56778023584</v>
       </c>
       <c r="AM2">
-        <v>35265.54188521225</v>
+        <v>35208.04051558118</v>
       </c>
       <c r="AN2">
-        <v>36121.71675583663</v>
+        <v>36061.72205630422</v>
       </c>
       <c r="AO2">
-        <v>37166.65862444459</v>
+        <v>37104.10831406388</v>
       </c>
       <c r="AP2">
-        <v>38452.23561298037</v>
+        <v>38387.06405940191</v>
       </c>
       <c r="AQ2">
-        <v>39864.13189748704</v>
+        <v>39796.28157136082</v>
       </c>
       <c r="AR2">
-        <v>41293.61117151563</v>
+        <v>41223.031725869</v>
       </c>
       <c r="AS2">
-        <v>42726.81395265793</v>
+        <v>42653.45876336082</v>
       </c>
       <c r="AT2">
-        <v>44150.4874315282</v>
+        <v>44074.31431885052</v>
       </c>
       <c r="AU2">
-        <v>45553.26492193661</v>
+        <v>45474.23657311233</v>
       </c>
       <c r="AV2">
-        <v>46954.65110719943</v>
+        <v>46872.68722924684</v>
       </c>
       <c r="AW2">
-        <v>48343.0923528237</v>
+        <v>48258.14769184261</v>
       </c>
       <c r="AX2">
-        <v>49883.04984058568</v>
+        <v>49795.08591700206</v>
       </c>
       <c r="AY2">
-        <v>51268.49198543771</v>
+        <v>51177.49418559654</v>
       </c>
       <c r="AZ2">
-        <v>52441.41342488077</v>
+        <v>52347.37374213606</v>
       </c>
       <c r="BA2">
-        <v>53524.51526525938</v>
+        <v>53427.4188653809</v>
       </c>
       <c r="BB2">
-        <v>54593.23993701267</v>
+        <v>54493.06909309914</v>
       </c>
       <c r="BC2">
-        <v>55650.49034138814</v>
+        <v>55547.21811605394</v>
       </c>
       <c r="BD2">
-        <v>56668.42934542606</v>
+        <v>56562.02795417902</v>
       </c>
       <c r="BE2">
-        <v>57639.79132403641</v>
+        <v>57530.23059227324</v>
       </c>
       <c r="BF2">
-        <v>58585.55603468629</v>
+        <v>58472.80069764567</v>
       </c>
       <c r="BG2">
-        <v>59507.01025663454</v>
+        <v>59391.02483016923</v>
       </c>
       <c r="BH2">
-        <v>60460.58160519622</v>
+        <v>60341.31697758789</v>
       </c>
       <c r="BI2">
-        <v>61492.0438658183</v>
+        <v>61369.44572580744</v>
       </c>
       <c r="BJ2">
-        <v>62646.57292582202</v>
+        <v>62520.5824187589</v>
       </c>
       <c r="BK2">
-        <v>63955.04140646383</v>
+        <v>63825.59608124262</v>
       </c>
       <c r="BL2">
-        <v>65414.73031946769</v>
+        <v>65281.76931015926</v>
       </c>
       <c r="BM2">
-        <v>67030.0189116635</v>
+        <v>66893.47532449842</v>
       </c>
       <c r="BN2">
-        <v>68740.48280176296</v>
+        <v>68600.29344266528</v>
       </c>
       <c r="BO2">
-        <v>70483.03005758012</v>
+        <v>70339.13614843921</v>
       </c>
       <c r="BP2">
-        <v>72227.9287687787</v>
+        <v>72080.27429502826</v>
       </c>
       <c r="BQ2">
-        <v>73952.13721211063</v>
+        <v>73800.66889491926</v>
       </c>
       <c r="BR2">
-        <v>75665.89193224469</v>
+        <v>75510.55394673461</v>
       </c>
       <c r="BS2">
-        <v>77369.19430214296</v>
+        <v>77209.93274605762</v>
       </c>
       <c r="BT2">
-        <v>79056.09057071446</v>
+        <v>78892.85414214185</v>
       </c>
       <c r="BU2">
-        <v>80697.08631464992</v>
+        <v>80529.82800584412</v>
       </c>
       <c r="BV2">
-        <v>82220.88188281568</v>
+        <v>82049.56196103097</v>
       </c>
       <c r="BW2">
-        <v>83624.49496619981</v>
+        <v>83449.07233290613</v>
       </c>
       <c r="BX2">
-        <v>84957.48467536907</v>
+        <v>84777.91610751736</v>
       </c>
       <c r="BY2">
-        <v>86265.38777068057</v>
+        <v>86081.62740720209</v>
       </c>
       <c r="BZ2">
-        <v>87554.90878826905</v>
+        <v>87366.91012967729</v>
       </c>
       <c r="CA2">
-        <v>88803.51202147797</v>
+        <v>88611.22994395999</v>
       </c>
       <c r="CB2">
-        <v>90026.78753891091</v>
+        <v>89830.17168117625</v>
       </c>
       <c r="CC2">
-        <v>91241.21113889826</v>
+        <v>91040.20905054302</v>
       </c>
       <c r="CD2">
-        <v>92473.91857525865</v>
+        <v>92268.47484122698</v>
       </c>
       <c r="CE2">
-        <v>93761.40711851997</v>
+        <v>93551.46288828968</v>
       </c>
       <c r="CF2">
-        <v>95127.53635307551</v>
+        <v>94913.03058837049</v>
       </c>
       <c r="CG2">
-        <v>96620.08700569891</v>
+        <v>96400.9506609243</v>
       </c>
       <c r="CH2">
-        <v>98255.62319940902</v>
+        <v>98031.78508484103</v>
       </c>
       <c r="CI2">
-        <v>100030.3821632443</v>
+        <v>99801.77020675573</v>
       </c>
       <c r="CJ2">
-        <v>101919.2574672354</v>
+        <v>101685.8002614838</v>
       </c>
       <c r="CK2">
-        <v>103858.3779582169</v>
+        <v>103620.0093885724</v>
       </c>
       <c r="CL2">
-        <v>105827.0089730364</v>
+        <v>105583.6584405077</v>
       </c>
       <c r="CM2">
-        <v>107798.4823579912</v>
+        <v>107550.0809992659</v>
       </c>
       <c r="CN2">
-        <v>109760.8645494334</v>
+        <v>109507.3446109131</v>
       </c>
       <c r="CO2">
-        <v>111709.358581044</v>
+        <v>111450.6532649926</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072146411909</v>
+        <v>16.48537994071701</v>
       </c>
       <c r="E3">
-        <v>35.65014952248963</v>
+        <v>35.64126853471349</v>
       </c>
       <c r="F3">
-        <v>67.9633496227292</v>
+        <v>67.95227166329974</v>
       </c>
       <c r="G3">
-        <v>91.57164269961589</v>
+        <v>91.55882706380388</v>
       </c>
       <c r="H3">
-        <v>154.1261618376213</v>
+        <v>154.1114277386955</v>
       </c>
       <c r="I3">
-        <v>189.554298055419</v>
+        <v>189.5380779291399</v>
       </c>
       <c r="J3">
-        <v>229.1163314143973</v>
+        <v>229.0986815551324</v>
       </c>
       <c r="K3">
-        <v>274.6655952377003</v>
+        <v>274.6465438545999</v>
       </c>
       <c r="L3">
-        <v>310.722732106233</v>
+        <v>310.701800199061</v>
       </c>
       <c r="M3">
-        <v>355.2201871434586</v>
+        <v>355.19753119443</v>
       </c>
       <c r="N3">
-        <v>376.9342514803036</v>
+        <v>376.8533125066333</v>
       </c>
       <c r="O3">
-        <v>401.4052728542041</v>
+        <v>401.2704943866932</v>
       </c>
       <c r="P3">
-        <v>451.995479185994</v>
+        <v>451.7947658355426</v>
       </c>
       <c r="Q3">
-        <v>503.3565410035399</v>
+        <v>503.0885218925895</v>
       </c>
       <c r="R3">
-        <v>555.5164446581948</v>
+        <v>555.1797933767302</v>
       </c>
       <c r="S3">
-        <v>687.2406694018356</v>
+        <v>686.8084110363556</v>
       </c>
       <c r="T3">
-        <v>818.7700346144065</v>
+        <v>818.2406090301663</v>
       </c>
       <c r="U3">
-        <v>950.5230625463986</v>
+        <v>949.8948850489808</v>
       </c>
       <c r="V3">
-        <v>1083.009685958696</v>
+        <v>1082.281160166483</v>
       </c>
       <c r="W3">
-        <v>1216.289162676926</v>
+        <v>1215.458689989186</v>
       </c>
       <c r="X3">
-        <v>1338.896186104415</v>
+        <v>1337.964257788771</v>
       </c>
       <c r="Y3">
-        <v>1462.589646112075</v>
+        <v>1461.554656017322</v>
       </c>
       <c r="Z3">
-        <v>1587.127241156448</v>
+        <v>1585.987601664883</v>
       </c>
       <c r="AA3">
-        <v>1712.650810441509</v>
+        <v>1711.404933561823</v>
       </c>
       <c r="AB3">
-        <v>1840.709298193593</v>
+        <v>1839.355565646915</v>
       </c>
       <c r="AC3">
-        <v>1882.334571973265</v>
+        <v>1880.900858734564</v>
       </c>
       <c r="AD3">
-        <v>1928.469495098795</v>
+        <v>1926.954071959217</v>
       </c>
       <c r="AE3">
-        <v>1978.982542475461</v>
+        <v>1977.383644413066</v>
       </c>
       <c r="AF3">
-        <v>2029.286513120081</v>
+        <v>2027.602373718026</v>
       </c>
       <c r="AG3">
-        <v>2078.179683995223</v>
+        <v>2076.408491502853</v>
       </c>
       <c r="AH3">
-        <v>2114.584660725168</v>
+        <v>2112.729757623099</v>
       </c>
       <c r="AI3">
-        <v>2150.199559183407</v>
+        <v>2148.258838983126</v>
       </c>
       <c r="AJ3">
-        <v>2184.761612786439</v>
+        <v>2182.732787629489</v>
       </c>
       <c r="AK3">
-        <v>2218.715898163484</v>
+        <v>2216.596441744256</v>
       </c>
       <c r="AL3">
-        <v>2256.44128503687</v>
+        <v>2254.228360186285</v>
       </c>
       <c r="AM3">
-        <v>2302.321163186129</v>
+        <v>2300.011649676257</v>
       </c>
       <c r="AN3">
-        <v>2357.168887214955</v>
+        <v>2354.759520550644</v>
       </c>
       <c r="AO3">
-        <v>2424.64412326062</v>
+        <v>2422.131353910642</v>
       </c>
       <c r="AP3">
-        <v>2508.229873437855</v>
+        <v>2505.609931346154</v>
       </c>
       <c r="AQ3">
-        <v>2600.249795313345</v>
+        <v>2597.519443569903</v>
       </c>
       <c r="AR3">
-        <v>2693.400664070618</v>
+        <v>2690.557186907623</v>
       </c>
       <c r="AS3">
-        <v>2786.752092164464</v>
+        <v>2783.793018582108</v>
       </c>
       <c r="AT3">
-        <v>2879.414495386625</v>
+        <v>2876.337646569189</v>
       </c>
       <c r="AU3">
-        <v>2970.624988890912</v>
+        <v>2967.428505965291</v>
       </c>
       <c r="AV3">
-        <v>3061.691273321499</v>
+        <v>3058.370472564123</v>
       </c>
       <c r="AW3">
-        <v>3151.835318616008</v>
+        <v>3148.387883995777</v>
       </c>
       <c r="AX3">
-        <v>3252.103247349909</v>
+        <v>3248.527307236324</v>
       </c>
       <c r="AY3">
-        <v>3341.944014497358</v>
+        <v>3338.23926747619</v>
       </c>
       <c r="AZ3">
-        <v>3417.462844468555</v>
+        <v>3413.629423708793</v>
       </c>
       <c r="BA3">
-        <v>3486.899302216676</v>
+        <v>3482.936891505393</v>
       </c>
       <c r="BB3">
-        <v>3555.314640790535</v>
+        <v>3551.222820739207</v>
       </c>
       <c r="BC3">
-        <v>3622.903185362634</v>
+        <v>3618.680931105781</v>
       </c>
       <c r="BD3">
-        <v>3687.795300098411</v>
+        <v>3683.441531168436</v>
       </c>
       <c r="BE3">
-        <v>3749.502791190085</v>
+        <v>3745.016270045937</v>
       </c>
       <c r="BF3">
-        <v>3809.434042320112</v>
+        <v>3804.81319671505</v>
       </c>
       <c r="BG3">
-        <v>3867.671198734289</v>
+        <v>3862.914488508539</v>
       </c>
       <c r="BH3">
-        <v>3928.002892434564</v>
+        <v>3923.107881486404</v>
       </c>
       <c r="BI3">
-        <v>3993.502759775333</v>
+        <v>3988.466670100407</v>
       </c>
       <c r="BJ3">
-        <v>4067.20436357387</v>
+        <v>4062.024118405622</v>
       </c>
       <c r="BK3">
-        <v>4151.180725559149</v>
+        <v>4145.853011632527</v>
       </c>
       <c r="BL3">
-        <v>4245.245980891204</v>
+        <v>4239.767642230382</v>
       </c>
       <c r="BM3">
-        <v>4349.693974849996</v>
+        <v>4344.061459294242</v>
       </c>
       <c r="BN3">
-        <v>4460.46714767604</v>
+        <v>4454.677146539432</v>
       </c>
       <c r="BO3">
-        <v>4573.328867026216</v>
+        <v>4567.378362190972</v>
       </c>
       <c r="BP3">
-        <v>4686.282707223416</v>
+        <v>4680.168862368653</v>
       </c>
       <c r="BQ3">
-        <v>4797.776625350444</v>
+        <v>4791.496871934529</v>
       </c>
       <c r="BR3">
-        <v>4908.498072004822</v>
+        <v>4902.049674116341</v>
       </c>
       <c r="BS3">
-        <v>5018.447349889101</v>
+        <v>5011.827698000218</v>
       </c>
       <c r="BT3">
-        <v>5127.2249129574</v>
+        <v>5120.431568507872</v>
       </c>
       <c r="BU3">
-        <v>5232.850467467734</v>
+        <v>5225.881274319172</v>
       </c>
       <c r="BV3">
-        <v>5330.532183107423</v>
+        <v>5323.385533655777</v>
       </c>
       <c r="BW3">
-        <v>5420.069867484129</v>
+        <v>5412.744064387308</v>
       </c>
       <c r="BX3">
-        <v>5504.79150396582</v>
+        <v>5497.284709957833</v>
       </c>
       <c r="BY3">
-        <v>5587.754845364425</v>
+        <v>5580.065049489408</v>
       </c>
       <c r="BZ3">
-        <v>5669.40996801261</v>
+        <v>5661.535117238049</v>
       </c>
       <c r="CA3">
-        <v>5748.239035702331</v>
+        <v>5740.17723737193</v>
       </c>
       <c r="CB3">
-        <v>5825.288695857717</v>
+        <v>5817.037712969185</v>
       </c>
       <c r="CC3">
-        <v>5901.665166419918</v>
+        <v>5893.22262454672</v>
       </c>
       <c r="CD3">
-        <v>5979.190496836832</v>
+        <v>5970.55382654601</v>
       </c>
       <c r="CE3">
-        <v>6060.315433869371</v>
+        <v>6051.481839764851</v>
       </c>
       <c r="CF3">
-        <v>6146.6371732449</v>
+        <v>6137.603801203688</v>
       </c>
       <c r="CG3">
-        <v>6241.364089358961</v>
+        <v>6232.127558794455</v>
       </c>
       <c r="CH3">
-        <v>6345.608420022287</v>
+        <v>6336.165209371924</v>
       </c>
       <c r="CI3">
-        <v>6459.117404373176</v>
+        <v>6449.46393411087</v>
       </c>
       <c r="CJ3">
-        <v>6580.205044851498</v>
+        <v>6570.337779279548</v>
       </c>
       <c r="CK3">
-        <v>6704.577715735756</v>
+        <v>6694.493547753909</v>
       </c>
       <c r="CL3">
-        <v>6830.842873415865</v>
+        <v>6820.53840131789</v>
       </c>
       <c r="CM3">
-        <v>6957.209749461806</v>
+        <v>6946.681685767889</v>
       </c>
       <c r="CN3">
-        <v>7082.877050088363</v>
+        <v>7072.122180331122</v>
       </c>
       <c r="CO3">
-        <v>7207.522744205651</v>
+        <v>7196.537916785424</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.01758953</v>
+        <v>804667.33313765</v>
       </c>
       <c r="E4">
-        <v>53251708.00391703</v>
+        <v>1353440.751761682</v>
       </c>
       <c r="F4">
-        <v>82628031.91870412</v>
+        <v>1708611.347661523</v>
       </c>
       <c r="G4">
-        <v>112095878.9156699</v>
+        <v>2000333.355849012</v>
       </c>
       <c r="H4">
-        <v>138928908.0977203</v>
+        <v>2328601.060749675</v>
       </c>
       <c r="I4">
-        <v>165248767.0675538</v>
+        <v>2585160.864573786</v>
       </c>
       <c r="J4">
-        <v>194277187.3474494</v>
+        <v>2835538.92044682</v>
       </c>
       <c r="K4">
-        <v>227126478.8683679</v>
+        <v>3074474.178075661</v>
       </c>
       <c r="L4">
-        <v>259753917.7330362</v>
+        <v>3382577.844962627</v>
       </c>
       <c r="M4">
-        <v>294463258.6417193</v>
+        <v>3666818.795858577</v>
       </c>
       <c r="N4">
-        <v>332029494.0029554</v>
+        <v>3980445.346551755</v>
       </c>
       <c r="O4">
-        <v>366886291.2812411</v>
+        <v>4379332.390139696</v>
       </c>
       <c r="P4">
-        <v>405605147.346603</v>
+        <v>6204748.084188311</v>
       </c>
       <c r="Q4">
-        <v>445657304.2762727</v>
+        <v>8052484.293173807</v>
       </c>
       <c r="R4">
-        <v>487031438.2825624</v>
+        <v>9913835.591797281</v>
       </c>
       <c r="S4">
-        <v>534289312.2998521</v>
+        <v>15653962.28336719</v>
       </c>
       <c r="T4">
-        <v>582994086.8725216</v>
+        <v>21400582.25465195</v>
       </c>
       <c r="U4">
-        <v>633151288.503912</v>
+        <v>27158047.70225725</v>
       </c>
       <c r="V4">
-        <v>684763330.7362604</v>
+        <v>32928295.77544259</v>
       </c>
       <c r="W4">
-        <v>737830350.3682443</v>
+        <v>38711490.88017251</v>
       </c>
       <c r="X4">
-        <v>791873242.8277694</v>
+        <v>44176274.27968257</v>
       </c>
       <c r="Y4">
-        <v>847279564.8875128</v>
+        <v>49657815.57246024</v>
       </c>
       <c r="Z4">
-        <v>904044470.9808581</v>
+        <v>55152404.63723146</v>
       </c>
       <c r="AA4">
-        <v>962167661.4883903</v>
+        <v>60659866.49447009</v>
       </c>
       <c r="AB4">
-        <v>1021655963.426053</v>
+        <v>66185584.8250999</v>
       </c>
       <c r="AC4">
-        <v>1077362652.095475</v>
+        <v>67232994.92912135</v>
       </c>
       <c r="AD4">
-        <v>1134450582.056079</v>
+        <v>68308135.98780316</v>
       </c>
       <c r="AE4">
-        <v>1192925869.5042</v>
+        <v>69416120.69218427</v>
       </c>
       <c r="AF4">
-        <v>1252784905.910958</v>
+        <v>70554677.66692866</v>
       </c>
       <c r="AG4">
-        <v>1314033544.323288</v>
+        <v>71729076.26635207</v>
       </c>
       <c r="AH4">
-        <v>1375803516.652932</v>
+        <v>72158325.35403204</v>
       </c>
       <c r="AI4">
-        <v>1439032498.130082</v>
+        <v>72661257.64583637</v>
       </c>
       <c r="AJ4">
-        <v>1503755804.846851</v>
+        <v>73266511.76653323</v>
       </c>
       <c r="AK4">
-        <v>1570022173.973171</v>
+        <v>74013203.33097184</v>
       </c>
       <c r="AL4">
-        <v>1637898267.526668</v>
+        <v>74954333.98561136</v>
       </c>
       <c r="AM4">
-        <v>1707413429.353568</v>
+        <v>76134886.62639882</v>
       </c>
       <c r="AN4">
-        <v>1778596192.090117</v>
+        <v>77577928.9928005</v>
       </c>
       <c r="AO4">
-        <v>1851512283.941908</v>
+        <v>79334964.89482982</v>
       </c>
       <c r="AP4">
-        <v>1926215181.960602</v>
+        <v>81447505.39354424</v>
       </c>
       <c r="AQ4">
-        <v>2002577947.73594</v>
+        <v>83816682.81931785</v>
       </c>
       <c r="AR4">
-        <v>2080452341.713739</v>
+        <v>86337664.08953495</v>
       </c>
       <c r="AS4">
-        <v>2159791123.134645</v>
+        <v>88972053.95935068</v>
       </c>
       <c r="AT4">
-        <v>2240539365.300288</v>
+        <v>91674947.02543725</v>
       </c>
       <c r="AU4">
-        <v>2322638221.822092</v>
+        <v>94397993.88388108</v>
       </c>
       <c r="AV4">
-        <v>2406548137.836006</v>
+        <v>97548908.04908942</v>
       </c>
       <c r="AW4">
-        <v>2491940177.712486</v>
+        <v>100762515.5998658</v>
       </c>
       <c r="AX4">
-        <v>2578777401.784011</v>
+        <v>104006416.8647907</v>
       </c>
       <c r="AY4">
-        <v>2666709184.951427</v>
+        <v>106992615.245479</v>
       </c>
       <c r="AZ4">
-        <v>2755640279.900541</v>
+        <v>109645736.8184525</v>
       </c>
       <c r="BA4">
-        <v>2845686921.38103</v>
+        <v>112054968.5327406</v>
       </c>
       <c r="BB4">
-        <v>2936959988.274451</v>
+        <v>114228190.0167216</v>
       </c>
       <c r="BC4">
-        <v>3029564714.893067</v>
+        <v>116257013.2849654</v>
       </c>
       <c r="BD4">
-        <v>3123505925.034276</v>
+        <v>118146410.0479958</v>
       </c>
       <c r="BE4">
-        <v>3218809594.89537</v>
+        <v>119918268.652438</v>
       </c>
       <c r="BF4">
-        <v>3315542640.193922</v>
+        <v>121626557.0628668</v>
       </c>
       <c r="BG4">
-        <v>3413762038.566244</v>
+        <v>123249610.6835386</v>
       </c>
       <c r="BH4">
-        <v>3513632852.002894</v>
+        <v>124926952.6477714</v>
       </c>
       <c r="BI4">
-        <v>3615224158.152832</v>
+        <v>126714182.5800419</v>
       </c>
       <c r="BJ4">
-        <v>3718596739.534011</v>
+        <v>128660153.6509366</v>
       </c>
       <c r="BK4">
-        <v>3823798865.590046</v>
+        <v>130803632.3584408</v>
       </c>
       <c r="BL4">
-        <v>3930840925.19331</v>
+        <v>133107511.4299407</v>
       </c>
       <c r="BM4">
-        <v>4039787205.63158</v>
+        <v>135629199.1885009</v>
       </c>
       <c r="BN4">
-        <v>4150576771.062281</v>
+        <v>138321666.5357921</v>
       </c>
       <c r="BO4">
-        <v>4263139587.174578</v>
+        <v>141130491.2250291</v>
       </c>
       <c r="BP4">
-        <v>4377434463.805908</v>
+        <v>144023289.0417198</v>
       </c>
       <c r="BQ4">
-        <v>4493494933.278235</v>
+        <v>146936138.2042136</v>
       </c>
       <c r="BR4">
-        <v>4611348757.753795</v>
+        <v>149894492.6004365</v>
       </c>
       <c r="BS4">
-        <v>4730973061.723738</v>
+        <v>152879489.6471636</v>
       </c>
       <c r="BT4">
-        <v>4852334854.591065</v>
+        <v>155864317.0446937</v>
       </c>
       <c r="BU4">
-        <v>4975374197.402718</v>
+        <v>158801234.2245782</v>
       </c>
       <c r="BV4">
-        <v>5100031844.158451</v>
+        <v>161577525.1784833</v>
       </c>
       <c r="BW4">
-        <v>5226318633.90401</v>
+        <v>164205185.4610977</v>
       </c>
       <c r="BX4">
-        <v>5354276163.726239</v>
+        <v>166715406.40261</v>
       </c>
       <c r="BY4">
-        <v>5483952690.480698</v>
+        <v>169144762.7209863</v>
       </c>
       <c r="BZ4">
-        <v>5615362244.251692</v>
+        <v>171503590.2084274</v>
       </c>
       <c r="CA4">
-        <v>5748537614.454287</v>
+        <v>173746143.9564883</v>
       </c>
       <c r="CB4">
-        <v>5883541755.418459</v>
+        <v>175926340.9099649</v>
       </c>
       <c r="CC4">
-        <v>6020405350.032878</v>
+        <v>178068370.8652188</v>
       </c>
       <c r="CD4">
-        <v>6159171341.862802</v>
+        <v>180206185.2643986</v>
       </c>
       <c r="CE4">
-        <v>6299888897.847631</v>
+        <v>182378753.1329185</v>
       </c>
       <c r="CF4">
-        <v>6442637849.284853</v>
+        <v>184573646.4655723</v>
       </c>
       <c r="CG4">
-        <v>6587516735.360353</v>
+        <v>186873908.6650709</v>
       </c>
       <c r="CH4">
-        <v>6734553193.517073</v>
+        <v>189301929.7124281</v>
       </c>
       <c r="CI4">
-        <v>6883755288.082619</v>
+        <v>191864825.1181277</v>
       </c>
       <c r="CJ4">
-        <v>7035107261.321718</v>
+        <v>194551095.644246</v>
       </c>
       <c r="CK4">
-        <v>7188576531.313362</v>
+        <v>197263058.4040822</v>
       </c>
       <c r="CL4">
-        <v>7344201329.370003</v>
+        <v>200038401.1529101</v>
       </c>
       <c r="CM4">
-        <v>7501952967.117209</v>
+        <v>202854997.8022265</v>
       </c>
       <c r="CN4">
-        <v>7661814272.614939</v>
+        <v>205699444.7965587</v>
       </c>
       <c r="CO4">
-        <v>7823771831.218621</v>
+        <v>208561070.4818643</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694842.422828536</v>
+        <v>1694840.45682091</v>
       </c>
       <c r="E5">
-        <v>2690901.139842599</v>
+        <v>2690897.882863141</v>
       </c>
       <c r="F5">
-        <v>3190239.707717951</v>
+        <v>3190235.660674582</v>
       </c>
       <c r="G5">
-        <v>3497272.252669023</v>
+        <v>3497267.588735386</v>
       </c>
       <c r="H5">
-        <v>3785181.367146137</v>
+        <v>3785176.027500592</v>
       </c>
       <c r="I5">
-        <v>3989752.437913875</v>
+        <v>3989746.576304241</v>
       </c>
       <c r="J5">
-        <v>4157641.793676279</v>
+        <v>4157635.432624189</v>
       </c>
       <c r="K5">
-        <v>4374846.281723899</v>
+        <v>4374839.426385662</v>
       </c>
       <c r="L5">
-        <v>4768604.691630747</v>
+        <v>4768597.163253103</v>
       </c>
       <c r="M5">
-        <v>5114781.415686947</v>
+        <v>5114773.271836668</v>
       </c>
       <c r="N5">
-        <v>5551762.461114301</v>
+        <v>5551725.581066363</v>
       </c>
       <c r="O5">
-        <v>6099919.973946871</v>
+        <v>6099856.754638673</v>
       </c>
       <c r="P5">
-        <v>9651110.470457863</v>
+        <v>9651016.238861332</v>
       </c>
       <c r="Q5">
-        <v>13212298.8629498</v>
+        <v>13212173.07179294</v>
       </c>
       <c r="R5">
-        <v>16785801.01283913</v>
+        <v>16785643.12971668</v>
       </c>
       <c r="S5">
-        <v>28088274.27641992</v>
+        <v>28088074.35656421</v>
       </c>
       <c r="T5">
-        <v>39408128.67815368</v>
+        <v>39407886.09850582</v>
       </c>
       <c r="U5">
-        <v>50747884.01388517</v>
+        <v>50747598.14283648</v>
       </c>
       <c r="V5">
-        <v>62109894.28215297</v>
+        <v>62109564.48392694</v>
       </c>
       <c r="W5">
-        <v>73496252.58806495</v>
+        <v>73495878.22594216</v>
       </c>
       <c r="X5">
-        <v>84400859.78570235</v>
+        <v>84400440.94966711</v>
       </c>
       <c r="Y5">
-        <v>95333190.90785871</v>
+        <v>95332726.93031713</v>
       </c>
       <c r="Z5">
-        <v>106294822.6492117</v>
+        <v>106294312.8687048</v>
       </c>
       <c r="AA5">
-        <v>117287783.2999805</v>
+        <v>117287227.05474</v>
       </c>
       <c r="AB5">
-        <v>128315265.3485644</v>
+        <v>128314661.9662918</v>
       </c>
       <c r="AC5">
-        <v>130371687.09739</v>
+        <v>130371046.7136752</v>
       </c>
       <c r="AD5">
-        <v>132476749.6146392</v>
+        <v>132476071.503342</v>
       </c>
       <c r="AE5">
-        <v>134644002.3819999</v>
+        <v>134643285.8035933</v>
       </c>
       <c r="AF5">
-        <v>136893092.0732688</v>
+        <v>136892336.2858585</v>
       </c>
       <c r="AG5">
-        <v>139250729.5043766</v>
+        <v>139249933.7482258</v>
       </c>
       <c r="AH5">
-        <v>140046535.2040881</v>
+        <v>140045700.6169486</v>
       </c>
       <c r="AI5">
-        <v>141026008.809344</v>
+        <v>141025134.5218376</v>
       </c>
       <c r="AJ5">
-        <v>142235523.8166948</v>
+        <v>142234608.8936924</v>
       </c>
       <c r="AK5">
-        <v>143724306.818175</v>
+        <v>143723350.2391962</v>
       </c>
       <c r="AL5">
-        <v>145541021.7547157</v>
+        <v>145540022.389507</v>
       </c>
       <c r="AM5">
-        <v>147729656.6022656</v>
+        <v>147728613.2133627</v>
       </c>
       <c r="AN5">
-        <v>150324975.3521406</v>
+        <v>150323886.6499946</v>
       </c>
       <c r="AO5">
-        <v>153347895.2194769</v>
+        <v>153346759.8160491</v>
       </c>
       <c r="AP5">
-        <v>156801206.643159</v>
+        <v>156800023.0754513</v>
       </c>
       <c r="AQ5">
-        <v>160666201.0615521</v>
+        <v>160664968.0489004</v>
       </c>
       <c r="AR5">
-        <v>164900892.91082</v>
+        <v>164899609.3368723</v>
       </c>
       <c r="AS5">
-        <v>169440360.7622431</v>
+        <v>169439025.5995689</v>
       </c>
       <c r="AT5">
-        <v>174199609.6351014</v>
+        <v>174198221.9631082</v>
       </c>
       <c r="AU5">
-        <v>179078928.7649529</v>
+        <v>179077487.780649</v>
       </c>
       <c r="AV5">
-        <v>185120828.5105327</v>
+        <v>185119332.3577131</v>
       </c>
       <c r="AW5">
-        <v>191395051.6142888</v>
+        <v>191393499.3001253</v>
       </c>
       <c r="AX5">
-        <v>197479917.7134358</v>
+        <v>197478308.4345983</v>
       </c>
       <c r="AY5">
-        <v>203295865.0183364</v>
+        <v>203294198.5107948</v>
       </c>
       <c r="AZ5">
-        <v>208785728.389111</v>
+        <v>208784004.5413479</v>
       </c>
       <c r="BA5">
-        <v>213918059.4318292</v>
+        <v>213916277.9830006</v>
       </c>
       <c r="BB5">
-        <v>218521244.9250426</v>
+        <v>218519405.5667097</v>
       </c>
       <c r="BC5">
-        <v>222783749.9596562</v>
+        <v>222781852.1608308</v>
       </c>
       <c r="BD5">
-        <v>226750377.50838</v>
+        <v>226748420.7150791</v>
       </c>
       <c r="BE5">
-        <v>230484928.0822945</v>
+        <v>230482911.6814225</v>
       </c>
       <c r="BF5">
-        <v>234064295.7236546</v>
+        <v>234062218.9816119</v>
       </c>
       <c r="BG5">
-        <v>237406780.9019753</v>
+        <v>237404643.0886875</v>
       </c>
       <c r="BH5">
-        <v>240759314.6293471</v>
+        <v>240757114.68842</v>
       </c>
       <c r="BI5">
-        <v>244196958.8250542</v>
+        <v>244194695.5773518</v>
       </c>
       <c r="BJ5">
-        <v>247783190.7424495</v>
+        <v>247780862.9017816</v>
       </c>
       <c r="BK5">
-        <v>251567419.8176045</v>
+        <v>251565026.0131075</v>
       </c>
       <c r="BL5">
-        <v>255460335.5461995</v>
+        <v>255457874.463448</v>
       </c>
       <c r="BM5">
-        <v>259606003.0727459</v>
+        <v>259603473.2497971</v>
       </c>
       <c r="BN5">
-        <v>264011038.3659008</v>
+        <v>264008438.4226801</v>
       </c>
       <c r="BO5">
-        <v>268669614.5609393</v>
+        <v>268666943.2163441</v>
       </c>
       <c r="BP5">
-        <v>273564680.2446959</v>
+        <v>273561936.2807873</v>
       </c>
       <c r="BQ5">
-        <v>278582960.0758801</v>
+        <v>278580142.3732243</v>
       </c>
       <c r="BR5">
-        <v>283775857.5049341</v>
+        <v>283772964.8826577</v>
       </c>
       <c r="BS5">
-        <v>289102126.5955759</v>
+        <v>289099157.9194363</v>
       </c>
       <c r="BT5">
-        <v>294516422.0384905</v>
+        <v>294513376.2363607</v>
       </c>
       <c r="BU5">
-        <v>299971606.5656798</v>
+        <v>299968482.6654721</v>
       </c>
       <c r="BV5">
-        <v>305336887.2772111</v>
+        <v>305333684.4968565</v>
       </c>
       <c r="BW5">
-        <v>310653353.9563411</v>
+        <v>310650071.47958</v>
       </c>
       <c r="BX5">
-        <v>315883555.5480238</v>
+        <v>315880192.5146493</v>
       </c>
       <c r="BY5">
-        <v>320998207.2783495</v>
+        <v>320994762.7720042</v>
       </c>
       <c r="BZ5">
-        <v>325978154.8333015</v>
+        <v>325974627.9251236</v>
       </c>
       <c r="CA5">
-        <v>330727138.3282675</v>
+        <v>330723528.1400359</v>
       </c>
       <c r="CB5">
-        <v>335337739.8006036</v>
+        <v>335334045.3288852</v>
       </c>
       <c r="CC5">
-        <v>339825122.7566466</v>
+        <v>339821342.9500447</v>
       </c>
       <c r="CD5">
-        <v>344213900.1377665</v>
+        <v>344210033.8765453</v>
       </c>
       <c r="CE5">
-        <v>348535689.9173611</v>
+        <v>348531736.0023208</v>
       </c>
       <c r="CF5">
-        <v>352726398.1365514</v>
+        <v>352722355.3363631</v>
       </c>
       <c r="CG5">
-        <v>356922742.7342499</v>
+        <v>356918609.6266245</v>
       </c>
       <c r="CH5">
-        <v>361159993.8055501</v>
+        <v>361155768.9171895</v>
       </c>
       <c r="CI5">
-        <v>365469500.5855938</v>
+        <v>365465182.4206701</v>
       </c>
       <c r="CJ5">
-        <v>369876918.7376401</v>
+        <v>369872505.8128026</v>
       </c>
       <c r="CK5">
-        <v>374264572.8198963</v>
+        <v>374260063.7855554</v>
       </c>
       <c r="CL5">
-        <v>378780172.3894774</v>
+        <v>378775565.7826016</v>
       </c>
       <c r="CM5">
-        <v>383427352.2188155</v>
+        <v>383422646.6147358</v>
       </c>
       <c r="CN5">
-        <v>388202497.1399852</v>
+        <v>388197691.1391039</v>
       </c>
       <c r="CO5">
-        <v>393095501.3178639</v>
+        <v>393090593.5428196</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_target.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_target.xlsx
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>261.9472601157704</v>
+        <v>1072.353295692877</v>
       </c>
       <c r="E2">
-        <v>302.5639887107566</v>
+        <v>1397.697139652291</v>
       </c>
       <c r="F2">
-        <v>500.2023363438742</v>
+        <v>1396.973433067987</v>
       </c>
       <c r="G2">
-        <v>370.5884671989111</v>
+        <v>1327.492088360183</v>
       </c>
       <c r="H2">
-        <v>948.9804198016928</v>
+        <v>1780.456358358066</v>
       </c>
       <c r="I2">
-        <v>545.2755347290993</v>
+        <v>1284.475738561879</v>
       </c>
       <c r="J2">
-        <v>608.5010607342086</v>
+        <v>2324.134751137541</v>
       </c>
       <c r="K2">
-        <v>699.9261148700035</v>
+        <v>2310.501438880546</v>
       </c>
       <c r="L2">
-        <v>557.9217329717125</v>
+        <v>2055.882519252133</v>
       </c>
       <c r="M2">
-        <v>684.6807776182037</v>
+        <v>1894.954773564368</v>
       </c>
       <c r="N2">
-        <v>345.995981890112</v>
+        <v>4053.663396661204</v>
       </c>
       <c r="O2">
-        <v>385.0603337186643</v>
+        <v>2460.661291829873</v>
       </c>
       <c r="P2">
-        <v>775.0154421910808</v>
+        <v>4931.980183032959</v>
       </c>
       <c r="Q2">
-        <v>787.0117014926246</v>
+        <v>5322.359150345249</v>
       </c>
       <c r="R2">
-        <v>799.4229796377775</v>
+        <v>5717.164701191091</v>
       </c>
       <c r="S2">
-        <v>1984.696218830632</v>
+        <v>12500.7967691967</v>
       </c>
       <c r="T2">
-        <v>1982.442297090386</v>
+        <v>13384.21711129678</v>
       </c>
       <c r="U2">
-        <v>1986.420290742699</v>
+        <v>14276.68982207636</v>
       </c>
       <c r="V2">
-        <v>1997.990768678728</v>
+        <v>15184.32047184844</v>
       </c>
       <c r="W2">
-        <v>2010.443442626172</v>
+        <v>16103.81892782887</v>
       </c>
       <c r="X2">
-        <v>1852.160396650794</v>
+        <v>16174.79653299817</v>
       </c>
       <c r="Y2">
-        <v>1868.959290692276</v>
+        <v>17052.8668005696</v>
       </c>
       <c r="Z2">
-        <v>1882.149877821343</v>
+        <v>17936.98394912974</v>
       </c>
       <c r="AA2">
-        <v>1897.452137837778</v>
+        <v>18837.15245291548</v>
       </c>
       <c r="AB2">
-        <v>1935.817034158502</v>
+        <v>19759.57681052468</v>
       </c>
       <c r="AC2">
-        <v>649.5595519816766</v>
+        <v>9182.643992807822</v>
       </c>
       <c r="AD2">
-        <v>717.3415804283553</v>
+        <v>9422.79001479549</v>
       </c>
       <c r="AE2">
-        <v>783.1655701001372</v>
+        <v>9726.074610849671</v>
       </c>
       <c r="AF2">
-        <v>780.6904419204735</v>
+        <v>10020.70939338066</v>
       </c>
       <c r="AG2">
-        <v>760.3227101122749</v>
+        <v>10362.57723724886</v>
       </c>
       <c r="AH2">
-        <v>575.0494976233389</v>
+        <v>6553.840174639036</v>
       </c>
       <c r="AI2">
-        <v>563.9471190001067</v>
+        <v>6600.574288609554</v>
       </c>
       <c r="AJ2">
-        <v>548.9351530170825</v>
+        <v>6876.339667999569</v>
       </c>
       <c r="AK2">
-        <v>540.5542117695577</v>
+        <v>7375.668891228064</v>
       </c>
       <c r="AL2">
-        <v>597.3760571290352</v>
+        <v>7861.478383229634</v>
       </c>
       <c r="AM2">
-        <v>719.472735345341</v>
+        <v>10424.22417717936</v>
       </c>
       <c r="AN2">
-        <v>853.6815407230381</v>
+        <v>11609.24781623173</v>
       </c>
       <c r="AO2">
-        <v>1042.386257759659</v>
+        <v>13240.36108505516</v>
       </c>
       <c r="AP2">
-        <v>1282.955745338023</v>
+        <v>15329.27190049173</v>
       </c>
       <c r="AQ2">
-        <v>1409.217511958914</v>
+        <v>16807.50362316085</v>
       </c>
       <c r="AR2">
-        <v>1426.750154508179</v>
+        <v>20921.45366436756</v>
       </c>
       <c r="AS2">
-        <v>1430.427037491827</v>
+        <v>21725.05877381691</v>
       </c>
       <c r="AT2">
-        <v>1420.855555489697</v>
+        <v>22382.96842953373</v>
       </c>
       <c r="AU2">
-        <v>1399.92225426181</v>
+        <v>22901.2024131225</v>
       </c>
       <c r="AV2">
-        <v>1398.450656134508</v>
+        <v>23411.84356741013</v>
       </c>
       <c r="AW2">
-        <v>1385.460462595768</v>
+        <v>24494.70588558148</v>
       </c>
       <c r="AX2">
-        <v>1536.938225159456</v>
+        <v>24206.82933943601</v>
       </c>
       <c r="AY2">
-        <v>1382.408268594471</v>
+        <v>22737.69448334201</v>
       </c>
       <c r="AZ2">
-        <v>1169.879556539524</v>
+        <v>20422.01095973736</v>
       </c>
       <c r="BA2">
-        <v>1080.045123244832</v>
+        <v>19261.99357411212</v>
       </c>
       <c r="BB2">
-        <v>1065.650227718244</v>
+        <v>18325.20099287451</v>
       </c>
       <c r="BC2">
-        <v>1054.149022954803</v>
+        <v>18165.28904411239</v>
       </c>
       <c r="BD2">
-        <v>1014.809838125084</v>
+        <v>17627.27345452206</v>
       </c>
       <c r="BE2">
-        <v>968.2026380942182</v>
+        <v>16849.75129916162</v>
       </c>
       <c r="BF2">
-        <v>942.5701053724224</v>
+        <v>16579.6787759805</v>
       </c>
       <c r="BG2">
-        <v>918.224132523563</v>
+        <v>16248.65427598019</v>
       </c>
       <c r="BH2">
-        <v>950.2921474186548</v>
+        <v>16834.70116931557</v>
       </c>
       <c r="BI2">
-        <v>1028.128748219551</v>
+        <v>17735.88539407593</v>
       </c>
       <c r="BJ2">
-        <v>1151.136692951455</v>
+        <v>18959.76542546902</v>
       </c>
       <c r="BK2">
-        <v>1305.013662483725</v>
+        <v>20268.93728606598</v>
       </c>
       <c r="BL2">
-        <v>1456.173228916637</v>
+        <v>21273.40708385155</v>
       </c>
       <c r="BM2">
-        <v>1611.706014339155</v>
+        <v>22748.09489719626</v>
       </c>
       <c r="BN2">
-        <v>1706.818118166855</v>
+        <v>24218.51473238775</v>
       </c>
       <c r="BO2">
-        <v>1738.842705773938</v>
+        <v>25540.09074452576</v>
       </c>
       <c r="BP2">
-        <v>1741.138146589046</v>
+        <v>26349.2174405098</v>
       </c>
       <c r="BQ2">
-        <v>1720.394599891012</v>
+        <v>26553.94912410972</v>
       </c>
       <c r="BR2">
-        <v>1709.885051815342</v>
+        <v>26824.38371329296</v>
       </c>
       <c r="BS2">
-        <v>1699.378799323011</v>
+        <v>26979.24334883914</v>
       </c>
       <c r="BT2">
-        <v>1682.921396084226</v>
+        <v>26869.28381477186</v>
       </c>
       <c r="BU2">
-        <v>1636.973863702272</v>
+        <v>26253.52813344256</v>
       </c>
       <c r="BV2">
-        <v>1519.733955186857</v>
+        <v>24945.19672044406</v>
       </c>
       <c r="BW2">
-        <v>1399.510371875165</v>
+        <v>23779.23130667259</v>
       </c>
       <c r="BX2">
-        <v>1328.843774611234</v>
+        <v>22914.24935074091</v>
       </c>
       <c r="BY2">
-        <v>1303.71129968473</v>
+        <v>22363.7466492057</v>
       </c>
       <c r="BZ2">
-        <v>1285.282722475192</v>
+        <v>21937.57150778365</v>
       </c>
       <c r="CA2">
-        <v>1244.319814282709</v>
+        <v>21293.13932812133</v>
       </c>
       <c r="CB2">
-        <v>1218.941737216264</v>
+        <v>20879.51984457877</v>
       </c>
       <c r="CC2">
-        <v>1210.037369366776</v>
+        <v>20636.35252830249</v>
       </c>
       <c r="CD2">
-        <v>1228.265790683964</v>
+        <v>20619.35971575858</v>
       </c>
       <c r="CE2">
-        <v>1282.988047062695</v>
+        <v>20833.4933330472</v>
       </c>
       <c r="CF2">
-        <v>1361.567700080812</v>
+        <v>20958.62828268552</v>
       </c>
       <c r="CG2">
-        <v>1487.920072553806</v>
+        <v>21418.59507675398</v>
       </c>
       <c r="CH2">
-        <v>1630.83442391674</v>
+        <v>21887.72609386534</v>
       </c>
       <c r="CI2">
-        <v>1769.985121914693</v>
+        <v>22334.54513001398</v>
       </c>
       <c r="CJ2">
-        <v>1884.030054728068</v>
+        <v>22760.83205556858</v>
       </c>
       <c r="CK2">
-        <v>1934.209127088575</v>
+        <v>22704.21659156795</v>
       </c>
       <c r="CL2">
-        <v>1963.649051935321</v>
+        <v>22874.66084419687</v>
       </c>
       <c r="CM2">
-        <v>1966.42255875822</v>
+        <v>22837.84596830064</v>
       </c>
       <c r="CN2">
-        <v>1957.263611647243</v>
+        <v>22629.4197853574</v>
       </c>
       <c r="CO2">
-        <v>1943.308654079435</v>
+        <v>22315.08907968201</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.48537994071701</v>
+        <v>70.90986674581129</v>
       </c>
       <c r="E3">
-        <v>19.15588859399648</v>
+        <v>92.70278889285014</v>
       </c>
       <c r="F3">
-        <v>32.31100312858626</v>
+        <v>92.53592100340813</v>
       </c>
       <c r="G3">
-        <v>23.60655540050413</v>
+        <v>87.86820869455813</v>
       </c>
       <c r="H3">
-        <v>62.55260067489163</v>
+        <v>118.388925745917</v>
       </c>
       <c r="I3">
-        <v>35.42665019044442</v>
+        <v>85.06524538016033</v>
       </c>
       <c r="J3">
-        <v>39.56060362599244</v>
+        <v>154.780099737735</v>
       </c>
       <c r="K3">
-        <v>45.54786229946754</v>
+        <v>153.7122243550158</v>
       </c>
       <c r="L3">
-        <v>36.05525634446104</v>
+        <v>136.6564609713427</v>
       </c>
       <c r="M3">
-        <v>44.49573099536902</v>
+        <v>125.7707567801391</v>
       </c>
       <c r="N3">
-        <v>21.65578131220333</v>
+        <v>270.6692715567877</v>
       </c>
       <c r="O3">
-        <v>24.41718188005988</v>
+        <v>163.8156462334101</v>
       </c>
       <c r="P3">
-        <v>50.5242714488494</v>
+        <v>329.677715304205</v>
       </c>
       <c r="Q3">
-        <v>51.29375605704692</v>
+        <v>355.8526101404896</v>
       </c>
       <c r="R3">
-        <v>52.0912714841408</v>
+        <v>382.3278022505818</v>
       </c>
       <c r="S3">
-        <v>131.6286176596253</v>
+        <v>837.7508057712646</v>
       </c>
       <c r="T3">
-        <v>131.4321979938107</v>
+        <v>897.037996010989</v>
       </c>
       <c r="U3">
-        <v>131.6542760188144</v>
+        <v>956.9337222135771</v>
       </c>
       <c r="V3">
-        <v>132.3862751175026</v>
+        <v>1017.849514237551</v>
       </c>
       <c r="W3">
-        <v>133.1775298227022</v>
+        <v>1079.577564087102</v>
       </c>
       <c r="X3">
-        <v>122.5055677995854</v>
+        <v>1084.341377639399</v>
       </c>
       <c r="Y3">
-        <v>123.5903982285513</v>
+        <v>1143.349922388241</v>
       </c>
       <c r="Z3">
-        <v>124.4329456475609</v>
+        <v>1202.796528868457</v>
       </c>
       <c r="AA3">
-        <v>125.4173318969397</v>
+        <v>1263.360230132066</v>
       </c>
       <c r="AB3">
-        <v>127.9506320850926</v>
+        <v>1325.467575459357</v>
       </c>
       <c r="AC3">
-        <v>41.54529308764833</v>
+        <v>615.3812509588719</v>
       </c>
       <c r="AD3">
-        <v>46.05321322465353</v>
+        <v>631.6942100371178</v>
       </c>
       <c r="AE3">
-        <v>50.42957245384891</v>
+        <v>652.3583946594392</v>
       </c>
       <c r="AF3">
-        <v>50.21872930495939</v>
+        <v>672.4466331771896</v>
       </c>
       <c r="AG3">
-        <v>48.80611778482755</v>
+        <v>695.8042002309783</v>
       </c>
       <c r="AH3">
-        <v>36.32126612024565</v>
+        <v>440.3269770709375</v>
       </c>
       <c r="AI3">
-        <v>35.52908136002673</v>
+        <v>443.7194790981236</v>
       </c>
       <c r="AJ3">
-        <v>34.47394864636341</v>
+        <v>462.9866902673468</v>
       </c>
       <c r="AK3">
-        <v>33.86365411476731</v>
+        <v>497.8119438349752</v>
       </c>
       <c r="AL3">
-        <v>37.63191844202888</v>
+        <v>531.8087384324228</v>
       </c>
       <c r="AM3">
-        <v>45.78328948997114</v>
+        <v>706.1509465488102</v>
       </c>
       <c r="AN3">
-        <v>54.74787087438729</v>
+        <v>789.1546943031275</v>
       </c>
       <c r="AO3">
-        <v>67.37183335999802</v>
+        <v>903.8689122249721</v>
       </c>
       <c r="AP3">
-        <v>83.47857743551138</v>
+        <v>1051.513319496475</v>
       </c>
       <c r="AQ3">
-        <v>91.90951222374906</v>
+        <v>1157.25626700361</v>
       </c>
       <c r="AR3">
-        <v>93.03774333772027</v>
+        <v>1438.379504481532</v>
       </c>
       <c r="AS3">
-        <v>93.23583167448541</v>
+        <v>1496.946607049313</v>
       </c>
       <c r="AT3">
-        <v>92.54462798708104</v>
+        <v>1545.356302632162</v>
       </c>
       <c r="AU3">
-        <v>91.09085939610169</v>
+        <v>1583.960914434408</v>
       </c>
       <c r="AV3">
-        <v>90.9419665988315</v>
+        <v>1622.155401877041</v>
       </c>
       <c r="AW3">
-        <v>90.01741143165387</v>
+        <v>1698.105296397427</v>
       </c>
       <c r="AX3">
-        <v>100.1394232405479</v>
+        <v>1678.899678677636</v>
       </c>
       <c r="AY3">
-        <v>89.71196023986533</v>
+        <v>1574.272945242734</v>
       </c>
       <c r="AZ3">
-        <v>75.3901562326037</v>
+        <v>1407.894077857799</v>
       </c>
       <c r="BA3">
-        <v>69.30746779660005</v>
+        <v>1324.548481347712</v>
       </c>
       <c r="BB3">
-        <v>68.28592923381343</v>
+        <v>1261.972953841737</v>
       </c>
       <c r="BC3">
-        <v>67.45811036657426</v>
+        <v>1250.879212009992</v>
       </c>
       <c r="BD3">
-        <v>64.76060006265529</v>
+        <v>1212.067286627216</v>
       </c>
       <c r="BE3">
-        <v>61.57473887750071</v>
+        <v>1155.501388498199</v>
       </c>
       <c r="BF3">
-        <v>59.79692666911349</v>
+        <v>1135.65433021046</v>
       </c>
       <c r="BG3">
-        <v>58.10129179348895</v>
+        <v>1114.993747448319</v>
       </c>
       <c r="BH3">
-        <v>60.19339297786455</v>
+        <v>1157.425772695816</v>
       </c>
       <c r="BI3">
-        <v>65.35878861400248</v>
+        <v>1222.780155232459</v>
       </c>
       <c r="BJ3">
-        <v>73.55744830521527</v>
+        <v>1311.65406242482</v>
       </c>
       <c r="BK3">
-        <v>83.82889322690545</v>
+        <v>1406.680198322039</v>
       </c>
       <c r="BL3">
-        <v>93.91463059785508</v>
+        <v>1481.521057679078</v>
       </c>
       <c r="BM3">
-        <v>104.2938170638595</v>
+        <v>1588.548405672345</v>
       </c>
       <c r="BN3">
-        <v>110.6156872451901</v>
+        <v>1695.162885959202</v>
       </c>
       <c r="BO3">
-        <v>112.7012156515391</v>
+        <v>1790.75127784951</v>
       </c>
       <c r="BP3">
-        <v>112.790500177682</v>
+        <v>1848.64173724604</v>
       </c>
       <c r="BQ3">
-        <v>111.3280095658753</v>
+        <v>1863.269441931584</v>
       </c>
       <c r="BR3">
-        <v>110.552802181812</v>
+        <v>1881.510785984512</v>
       </c>
       <c r="BS3">
-        <v>109.7780238838776</v>
+        <v>1891.223491687849</v>
       </c>
       <c r="BT3">
-        <v>108.6038705076534</v>
+        <v>1881.507657980245</v>
       </c>
       <c r="BU3">
-        <v>105.4497058113002</v>
+        <v>1834.801140574446</v>
       </c>
       <c r="BV3">
-        <v>97.50425933660502</v>
+        <v>1738.913582565373</v>
       </c>
       <c r="BW3">
-        <v>89.35853073153038</v>
+        <v>1652.274664963902</v>
       </c>
       <c r="BX3">
-        <v>84.5406455705249</v>
+        <v>1587.727057409325</v>
       </c>
       <c r="BY3">
-        <v>82.78033953157525</v>
+        <v>1546.159924726287</v>
       </c>
       <c r="BZ3">
-        <v>81.47006774864033</v>
+        <v>1513.66369664124</v>
       </c>
       <c r="CA3">
-        <v>78.64212013388078</v>
+        <v>1466.457800274224</v>
       </c>
       <c r="CB3">
-        <v>76.86047559725566</v>
+        <v>1434.900925705009</v>
       </c>
       <c r="CC3">
-        <v>76.18491157753446</v>
+        <v>1415.618618993366</v>
       </c>
       <c r="CD3">
-        <v>77.33120199929022</v>
+        <v>1412.508813482332</v>
       </c>
       <c r="CE3">
-        <v>80.92801321884137</v>
+        <v>1425.76899697071</v>
       </c>
       <c r="CF3">
-        <v>86.12196143883682</v>
+        <v>1433.455096864492</v>
       </c>
       <c r="CG3">
-        <v>94.52375759076634</v>
+        <v>1463.51258689473</v>
       </c>
       <c r="CH3">
-        <v>104.0376505774693</v>
+        <v>1493.713960723263</v>
       </c>
       <c r="CI3">
-        <v>113.2987247389465</v>
+        <v>1521.785676090082</v>
       </c>
       <c r="CJ3">
-        <v>120.8738451686777</v>
+        <v>1547.816483848863</v>
       </c>
       <c r="CK3">
-        <v>124.1557684743615</v>
+        <v>1540.557940847774</v>
       </c>
       <c r="CL3">
-        <v>126.0448535639804</v>
+        <v>1547.548442157464</v>
       </c>
       <c r="CM3">
-        <v>126.1432844499989</v>
+        <v>1539.733370438822</v>
       </c>
       <c r="CN3">
-        <v>125.4404945632334</v>
+        <v>1519.804559922819</v>
       </c>
       <c r="CO3">
-        <v>124.4157364543022</v>
+        <v>1492.440557311992</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>804667.33313765</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>548773.4186240316</v>
+        <v>1458847.879811725</v>
       </c>
       <c r="F4">
-        <v>355170.5958998415</v>
+        <v>1273552.690059891</v>
       </c>
       <c r="G4">
-        <v>291722.0081874892</v>
+        <v>1477271.487194401</v>
       </c>
       <c r="H4">
-        <v>328267.7049006624</v>
+        <v>1623372.793654721</v>
       </c>
       <c r="I4">
-        <v>256559.8038241108</v>
+        <v>1542884.02783523</v>
       </c>
       <c r="J4">
-        <v>250378.0558730347</v>
+        <v>1677431.625865404</v>
       </c>
       <c r="K4">
-        <v>238935.2576288409</v>
+        <v>1538631.721325026</v>
       </c>
       <c r="L4">
-        <v>308103.666886966</v>
+        <v>1528319.5471378</v>
       </c>
       <c r="M4">
-        <v>284240.9508959503</v>
+        <v>2038432.693862041</v>
       </c>
       <c r="N4">
-        <v>313626.5506931784</v>
+        <v>1934421.818324195</v>
       </c>
       <c r="O4">
-        <v>398887.0435879411</v>
+        <v>1916171.638708076</v>
       </c>
       <c r="P4">
-        <v>1825415.694048615</v>
+        <v>9931654.514407182</v>
       </c>
       <c r="Q4">
-        <v>1847736.208985496</v>
+        <v>9980654.25222942</v>
       </c>
       <c r="R4">
-        <v>1861351.298623473</v>
+        <v>10017936.35338721</v>
       </c>
       <c r="S4">
-        <v>5740126.69156991</v>
+        <v>31272200.37157086</v>
       </c>
       <c r="T4">
-        <v>5746619.971284762</v>
+        <v>31332293.29759934</v>
       </c>
       <c r="U4">
-        <v>5757465.447605299</v>
+        <v>31401336.88072637</v>
       </c>
       <c r="V4">
-        <v>5770248.073185341</v>
+        <v>31477758.26124451</v>
       </c>
       <c r="W4">
-        <v>5783195.104729916</v>
+        <v>31559837.91464659</v>
       </c>
       <c r="X4">
-        <v>5464783.399510065</v>
+        <v>32494228.80907048</v>
       </c>
       <c r="Y4">
-        <v>5481541.292777673</v>
+        <v>32584830.90567621</v>
       </c>
       <c r="Z4">
-        <v>5494589.064771223</v>
+        <v>32669896.38626789</v>
       </c>
       <c r="AA4">
-        <v>5507461.857238632</v>
+        <v>32759142.3239444</v>
       </c>
       <c r="AB4">
-        <v>5525718.330629811</v>
+        <v>32853588.4361467</v>
       </c>
       <c r="AC4">
-        <v>1047410.104021442</v>
+        <v>8868047.515292749</v>
       </c>
       <c r="AD4">
-        <v>1075141.058681817</v>
+        <v>8969124.206327606</v>
       </c>
       <c r="AE4">
-        <v>1107984.704381109</v>
+        <v>9083297.496024758</v>
       </c>
       <c r="AF4">
-        <v>1138556.974744394</v>
+        <v>9178009.083549401</v>
       </c>
       <c r="AG4">
-        <v>1174398.599423405</v>
+        <v>9296330.098986339</v>
       </c>
       <c r="AH4">
-        <v>429249.0876799672</v>
+        <v>1872502.069539842</v>
       </c>
       <c r="AI4">
-        <v>502932.2918043279</v>
+        <v>1885944.959972447</v>
       </c>
       <c r="AJ4">
-        <v>605254.1206968505</v>
+        <v>2000232.973536851</v>
       </c>
       <c r="AK4">
-        <v>746691.5644386065</v>
+        <v>2233393.756449416</v>
       </c>
       <c r="AL4">
-        <v>941130.6546395225</v>
+        <v>2521038.428849104</v>
       </c>
       <c r="AM4">
-        <v>1180552.640787453</v>
+        <v>6325585.589478768</v>
       </c>
       <c r="AN4">
-        <v>1443042.366401693</v>
+        <v>6882483.491789619</v>
       </c>
       <c r="AO4">
-        <v>1757035.902029319</v>
+        <v>7525360.792225271</v>
       </c>
       <c r="AP4">
-        <v>2112540.498714413</v>
+        <v>8248608.739370863</v>
       </c>
       <c r="AQ4">
-        <v>2369177.425773608</v>
+        <v>8722674.831494769</v>
       </c>
       <c r="AR4">
-        <v>2520981.270217111</v>
+        <v>13962433.43358589</v>
       </c>
       <c r="AS4">
-        <v>2634389.869815728</v>
+        <v>14094290.82215852</v>
       </c>
       <c r="AT4">
-        <v>2702893.06608657</v>
+        <v>14126227.98508593</v>
       </c>
       <c r="AU4">
-        <v>2723046.858443829</v>
+        <v>14057027.28736257</v>
       </c>
       <c r="AV4">
-        <v>3150914.165208343</v>
+        <v>13919022.38434367</v>
       </c>
       <c r="AW4">
-        <v>3213607.550776357</v>
+        <v>15028898.17555788</v>
       </c>
       <c r="AX4">
-        <v>3243901.26492493</v>
+        <v>14634380.14306224</v>
       </c>
       <c r="AY4">
-        <v>2986198.380688281</v>
+        <v>14012141.39552013</v>
       </c>
       <c r="AZ4">
-        <v>2653121.572973472</v>
+        <v>13255497.42751282</v>
       </c>
       <c r="BA4">
-        <v>2409231.714288162</v>
+        <v>12725793.84752581</v>
       </c>
       <c r="BB4">
-        <v>2173221.483980998</v>
+        <v>11467029.56397685</v>
       </c>
       <c r="BC4">
-        <v>2028823.268243772</v>
+        <v>11167012.97079963</v>
       </c>
       <c r="BD4">
-        <v>1889396.763030408</v>
+        <v>10899252.69534926</v>
       </c>
       <c r="BE4">
-        <v>1771858.60444219</v>
+        <v>10722181.0948092</v>
       </c>
       <c r="BF4">
-        <v>1708288.410428838</v>
+        <v>10581143.08348109</v>
       </c>
       <c r="BG4">
-        <v>1623053.620671756</v>
+        <v>9950965.867268667</v>
       </c>
       <c r="BH4">
-        <v>1677341.964232802</v>
+        <v>9913847.559291635</v>
       </c>
       <c r="BI4">
-        <v>1787229.932270513</v>
+        <v>10041234.5995217</v>
       </c>
       <c r="BJ4">
-        <v>1945971.070894751</v>
+        <v>10267506.27395537</v>
       </c>
       <c r="BK4">
-        <v>2143478.707504166</v>
+        <v>10524092.08574258</v>
       </c>
       <c r="BL4">
-        <v>2303879.071499889</v>
+        <v>10660267.46069381</v>
       </c>
       <c r="BM4">
-        <v>2521687.75856017</v>
+        <v>10908220.69373715</v>
       </c>
       <c r="BN4">
-        <v>2692467.347291242</v>
+        <v>11095571.14765784</v>
       </c>
       <c r="BO4">
-        <v>2808824.689236945</v>
+        <v>11203573.10313645</v>
       </c>
       <c r="BP4">
-        <v>2892797.816690787</v>
+        <v>11213802.61976189</v>
       </c>
       <c r="BQ4">
-        <v>2912849.162493796</v>
+        <v>11134949.95304617</v>
       </c>
       <c r="BR4">
-        <v>2958354.396222868</v>
+        <v>11043051.89096798</v>
       </c>
       <c r="BS4">
-        <v>2984997.046727164</v>
+        <v>10921242.64591032</v>
       </c>
       <c r="BT4">
-        <v>2984827.397530069</v>
+        <v>10751022.9011605</v>
       </c>
       <c r="BU4">
-        <v>2936917.179884498</v>
+        <v>10505600.86917984</v>
       </c>
       <c r="BV4">
-        <v>2776290.953905126</v>
+        <v>10055924.003053</v>
       </c>
       <c r="BW4">
-        <v>2627660.282614395</v>
+        <v>9751528.722538084</v>
       </c>
       <c r="BX4">
-        <v>2510220.941512253</v>
+        <v>9583585.583487131</v>
       </c>
       <c r="BY4">
-        <v>2429356.318376297</v>
+        <v>9539774.100804593</v>
       </c>
       <c r="BZ4">
-        <v>2358827.487441089</v>
+        <v>9462152.724646589</v>
       </c>
       <c r="CA4">
-        <v>2242553.748060904</v>
+        <v>9163260.761253489</v>
       </c>
       <c r="CB4">
-        <v>2180196.953476584</v>
+        <v>9069047.780975645</v>
       </c>
       <c r="CC4">
-        <v>2142029.955253863</v>
+        <v>8974392.173170254</v>
       </c>
       <c r="CD4">
-        <v>2137814.399179856</v>
+        <v>8872611.750577969</v>
       </c>
       <c r="CE4">
-        <v>2172567.868519884</v>
+        <v>8737503.493983716</v>
       </c>
       <c r="CF4">
-        <v>2194893.332653814</v>
+        <v>8383743.956635363</v>
       </c>
       <c r="CG4">
-        <v>2300262.199498622</v>
+        <v>8481266.163928756</v>
       </c>
       <c r="CH4">
-        <v>2428021.047357148</v>
+        <v>8593782.248925449</v>
       </c>
       <c r="CI4">
-        <v>2562895.405699617</v>
+        <v>8704831.471569879</v>
       </c>
       <c r="CJ4">
-        <v>2686270.526118353</v>
+        <v>8802255.007536121</v>
       </c>
       <c r="CK4">
-        <v>2711962.759836148</v>
+        <v>8303927.135069317</v>
       </c>
       <c r="CL4">
-        <v>2775342.748827957</v>
+        <v>8334734.458819671</v>
       </c>
       <c r="CM4">
-        <v>2816596.649316364</v>
+        <v>8329804.463663815</v>
       </c>
       <c r="CN4">
-        <v>2844446.994332203</v>
+        <v>8300928.112968404</v>
       </c>
       <c r="CO4">
-        <v>2861625.685305608</v>
+        <v>8259803.84992429</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694840.45682091</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>996057.426042231</v>
+        <v>1439681.332914339</v>
       </c>
       <c r="F5">
-        <v>499337.7778114414</v>
+        <v>1345819.442124946</v>
       </c>
       <c r="G5">
-        <v>307031.928060804</v>
+        <v>1297235.110396892</v>
       </c>
       <c r="H5">
-        <v>287908.438765206</v>
+        <v>1244835.438951651</v>
       </c>
       <c r="I5">
-        <v>204570.5488036484</v>
+        <v>1555390.171832525</v>
       </c>
       <c r="J5">
-        <v>167888.8563199483</v>
+        <v>1711378.352999566</v>
       </c>
       <c r="K5">
-        <v>217203.993761473</v>
+        <v>1489427.804313139</v>
       </c>
       <c r="L5">
-        <v>393757.7368674414</v>
+        <v>1378421.313648296</v>
       </c>
       <c r="M5">
-        <v>346176.1085835647</v>
+        <v>1542530.337653843</v>
       </c>
       <c r="N5">
-        <v>436952.3092296945</v>
+        <v>1621888.435414487</v>
       </c>
       <c r="O5">
-        <v>548131.1735723102</v>
+        <v>2112186.074530119</v>
       </c>
       <c r="P5">
-        <v>3551159.484222659</v>
+        <v>16307860.74407582</v>
       </c>
       <c r="Q5">
-        <v>3561156.832931607</v>
+        <v>16331663.81041027</v>
       </c>
       <c r="R5">
-        <v>3573470.057923737</v>
+        <v>16360964.29365876</v>
       </c>
       <c r="S5">
-        <v>11302431.22684754</v>
+        <v>54198422.2297067</v>
       </c>
       <c r="T5">
-        <v>11319811.74194161</v>
+        <v>54240685.5167898</v>
       </c>
       <c r="U5">
-        <v>11339712.04433066</v>
+        <v>54290559.05243728</v>
       </c>
       <c r="V5">
-        <v>11361966.34109045</v>
+        <v>54349253.00350692</v>
       </c>
       <c r="W5">
-        <v>11386313.74201523</v>
+        <v>54418733.13188171</v>
       </c>
       <c r="X5">
-        <v>10904562.72372494</v>
+        <v>57299359.22208967</v>
       </c>
       <c r="Y5">
-        <v>10932285.98065002</v>
+        <v>57399129.64576985</v>
       </c>
       <c r="Z5">
-        <v>10961585.93838769</v>
+        <v>57521412.36845963</v>
       </c>
       <c r="AA5">
-        <v>10992914.18603518</v>
+        <v>57674116.58640803</v>
       </c>
       <c r="AB5">
-        <v>11027434.9115518</v>
+        <v>57868006.431367</v>
       </c>
       <c r="AC5">
-        <v>2056384.747383401</v>
+        <v>16399524.66760156</v>
       </c>
       <c r="AD5">
-        <v>2105024.789666791</v>
+        <v>16721976.14396262</v>
       </c>
       <c r="AE5">
-        <v>2167214.300251266</v>
+        <v>17139320.04193318</v>
       </c>
       <c r="AF5">
-        <v>2249050.482265182</v>
+        <v>17676412.76303544</v>
       </c>
       <c r="AG5">
-        <v>2357597.462367317</v>
+        <v>18359928.11962161</v>
       </c>
       <c r="AH5">
-        <v>795766.8687228297</v>
+        <v>5239858.392005256</v>
       </c>
       <c r="AI5">
-        <v>979433.9048889864</v>
+        <v>6095325.192119308</v>
       </c>
       <c r="AJ5">
-        <v>1209474.371854779</v>
+        <v>7120864.497617668</v>
       </c>
       <c r="AK5">
-        <v>1488741.345503815</v>
+        <v>8577573.339046007</v>
       </c>
       <c r="AL5">
-        <v>1816672.150310802</v>
+        <v>10256586.96540048</v>
       </c>
       <c r="AM5">
-        <v>2188590.823855672</v>
+        <v>18010119.9165682</v>
       </c>
       <c r="AN5">
-        <v>2595273.436631936</v>
+        <v>19974166.46763948</v>
       </c>
       <c r="AO5">
-        <v>3022873.166054485</v>
+        <v>21975825.14040709</v>
       </c>
       <c r="AP5">
-        <v>3453263.259402147</v>
+        <v>23917405.23220355</v>
       </c>
       <c r="AQ5">
-        <v>3864944.973449129</v>
+        <v>25687331.14076381</v>
       </c>
       <c r="AR5">
-        <v>4234641.287971873</v>
+        <v>35384731.4896768</v>
       </c>
       <c r="AS5">
-        <v>4539416.262696594</v>
+        <v>36513899.9710618</v>
       </c>
       <c r="AT5">
-        <v>4759196.363539335</v>
+        <v>37200642.62478638</v>
       </c>
       <c r="AU5">
-        <v>4879265.817540782</v>
+        <v>37398500.15177321</v>
       </c>
       <c r="AV5">
-        <v>6041844.577064086</v>
+        <v>37098456.48001546</v>
       </c>
       <c r="AW5">
-        <v>6274166.942412208</v>
+        <v>38729563.35864035</v>
       </c>
       <c r="AX5">
-        <v>6084809.134472951</v>
+        <v>37558846.74406372</v>
       </c>
       <c r="AY5">
-        <v>5815890.076196501</v>
+        <v>36077838.8383347</v>
       </c>
       <c r="AZ5">
-        <v>5489806.030553171</v>
+        <v>34396065.18049342</v>
       </c>
       <c r="BA5">
-        <v>5132273.441652678</v>
+        <v>32629559.09774077</v>
       </c>
       <c r="BB5">
-        <v>4603127.583709054</v>
+        <v>29494478.79120391</v>
       </c>
       <c r="BC5">
-        <v>4262446.594121135</v>
+        <v>27886394.91405413</v>
       </c>
       <c r="BD5">
-        <v>3966568.554248278</v>
+        <v>26492814.5068025</v>
       </c>
       <c r="BE5">
-        <v>3734490.966343449</v>
+        <v>25374904.70900187</v>
       </c>
       <c r="BF5">
-        <v>3579307.300189406</v>
+        <v>24566603.42698487</v>
       </c>
       <c r="BG5">
-        <v>3342424.107075614</v>
+        <v>23302105.11235838</v>
       </c>
       <c r="BH5">
-        <v>3352471.599732502</v>
+        <v>23101869.90008068</v>
       </c>
       <c r="BI5">
-        <v>3437580.888931773</v>
+        <v>23151614.93986202</v>
       </c>
       <c r="BJ5">
-        <v>3586167.324429759</v>
+        <v>23393720.1878674</v>
       </c>
       <c r="BK5">
-        <v>3784163.11132592</v>
+        <v>23763676.37891538</v>
       </c>
       <c r="BL5">
-        <v>3892848.450340471</v>
+        <v>24090984.26828923</v>
       </c>
       <c r="BM5">
-        <v>4145598.786349179</v>
+        <v>24525076.16051556</v>
       </c>
       <c r="BN5">
-        <v>4404965.172882991</v>
+        <v>24906060.99810737</v>
       </c>
       <c r="BO5">
-        <v>4658504.793663933</v>
+        <v>25188517.38322826</v>
       </c>
       <c r="BP5">
-        <v>4894993.064443241</v>
+        <v>25337911.21881606</v>
       </c>
       <c r="BQ5">
-        <v>5018206.092437045</v>
+        <v>25356019.29739169</v>
       </c>
       <c r="BR5">
-        <v>5192822.509433377</v>
+        <v>25184609.41426183</v>
       </c>
       <c r="BS5">
-        <v>5326193.03677862</v>
+        <v>24849756.62299469</v>
       </c>
       <c r="BT5">
-        <v>5414218.316924422</v>
+        <v>24363703.97513099</v>
       </c>
       <c r="BU5">
-        <v>5455106.429111414</v>
+        <v>23746915.01788508</v>
       </c>
       <c r="BV5">
-        <v>5365201.831384294</v>
+        <v>22806099.26538843</v>
       </c>
       <c r="BW5">
-        <v>5316386.982723551</v>
+        <v>22009877.84054744</v>
       </c>
       <c r="BX5">
-        <v>5230121.03506932</v>
+        <v>21168658.48440616</v>
       </c>
       <c r="BY5">
-        <v>5114570.257354852</v>
+        <v>20310394.83640302</v>
       </c>
       <c r="BZ5">
-        <v>4979865.153119462</v>
+        <v>19458783.17730562</v>
       </c>
       <c r="CA5">
-        <v>4748900.2149123</v>
+        <v>18240757.43435353</v>
       </c>
       <c r="CB5">
-        <v>4610517.188849273</v>
+        <v>17449126.58317991</v>
       </c>
       <c r="CC5">
-        <v>4487297.621159471</v>
+        <v>16696782.48159987</v>
       </c>
       <c r="CD5">
-        <v>4388690.926500589</v>
+        <v>15980781.63466892</v>
       </c>
       <c r="CE5">
-        <v>4321702.125775508</v>
+        <v>15292373.15102489</v>
       </c>
       <c r="CF5">
-        <v>4190619.334042283</v>
+        <v>13947982.81363601</v>
       </c>
       <c r="CG5">
-        <v>4196254.29026139</v>
+        <v>13272858.14454277</v>
       </c>
       <c r="CH5">
-        <v>4237159.290565004</v>
+        <v>12580004.12745772</v>
       </c>
       <c r="CI5">
-        <v>4309413.503480581</v>
+        <v>11853991.42663704</v>
       </c>
       <c r="CJ5">
-        <v>4407323.392132547</v>
+        <v>11081965.82726746</v>
       </c>
       <c r="CK5">
-        <v>4387557.972752748</v>
+        <v>9202451.884658711</v>
       </c>
       <c r="CL5">
-        <v>4515501.997046259</v>
+        <v>8315505.029517814</v>
       </c>
       <c r="CM5">
-        <v>4647080.832134205</v>
+        <v>7368757.651194031</v>
       </c>
       <c r="CN5">
-        <v>4775044.524368168</v>
+        <v>6366756.003047271</v>
       </c>
       <c r="CO5">
-        <v>4892902.403715617</v>
+        <v>5317975.356508483</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>261.9472601157704</v>
+        <v>1072.353295692877</v>
       </c>
       <c r="E2">
-        <v>564.511248826527</v>
+        <v>2470.050435345168</v>
       </c>
       <c r="F2">
-        <v>1064.713585170401</v>
+        <v>3867.023868413155</v>
       </c>
       <c r="G2">
-        <v>1435.302052369312</v>
+        <v>5194.515956773338</v>
       </c>
       <c r="H2">
-        <v>2384.282472171005</v>
+        <v>6974.972315131404</v>
       </c>
       <c r="I2">
-        <v>2929.558006900104</v>
+        <v>8259.448053693282</v>
       </c>
       <c r="J2">
-        <v>3538.059067634313</v>
+        <v>10583.58280483082</v>
       </c>
       <c r="K2">
-        <v>4237.985182504317</v>
+        <v>12894.08424371137</v>
       </c>
       <c r="L2">
-        <v>4795.906915476029</v>
+        <v>14949.9667629635</v>
       </c>
       <c r="M2">
-        <v>5480.587693094233</v>
+        <v>16844.92153652787</v>
       </c>
       <c r="N2">
-        <v>5826.583674984346</v>
+        <v>20898.58493318907</v>
       </c>
       <c r="O2">
-        <v>6211.64400870301</v>
+        <v>23359.24622501895</v>
       </c>
       <c r="P2">
-        <v>6986.659450894091</v>
+        <v>28291.22640805191</v>
       </c>
       <c r="Q2">
-        <v>7773.671152386715</v>
+        <v>33613.58555839716</v>
       </c>
       <c r="R2">
-        <v>8573.094132024493</v>
+        <v>39330.75025958825</v>
       </c>
       <c r="S2">
-        <v>10557.79035085512</v>
+        <v>51831.54702878495</v>
       </c>
       <c r="T2">
-        <v>12540.23264794551</v>
+        <v>65215.76414008172</v>
       </c>
       <c r="U2">
-        <v>14526.65293868821</v>
+        <v>79492.45396215808</v>
       </c>
       <c r="V2">
-        <v>16524.64370736694</v>
+        <v>94676.77443400651</v>
       </c>
       <c r="W2">
-        <v>18535.08714999311</v>
+        <v>110780.5933618354</v>
       </c>
       <c r="X2">
-        <v>20387.2475466439</v>
+        <v>126955.3898948336</v>
       </c>
       <c r="Y2">
-        <v>22256.20683733618</v>
+        <v>144008.2566954032</v>
       </c>
       <c r="Z2">
-        <v>24138.35671515752</v>
+        <v>161945.2406445329</v>
       </c>
       <c r="AA2">
-        <v>26035.8088529953</v>
+        <v>180782.3930974484</v>
       </c>
       <c r="AB2">
-        <v>27971.6258871538</v>
+        <v>200541.969907973</v>
       </c>
       <c r="AC2">
-        <v>28621.18543913548</v>
+        <v>209724.6139007809</v>
       </c>
       <c r="AD2">
-        <v>29338.52701956384</v>
+        <v>219147.4039155764</v>
       </c>
       <c r="AE2">
-        <v>30121.69258966397</v>
+        <v>228873.478526426</v>
       </c>
       <c r="AF2">
-        <v>30902.38303158445</v>
+        <v>238894.1879198067</v>
       </c>
       <c r="AG2">
-        <v>31662.70574169672</v>
+        <v>249256.7651570556</v>
       </c>
       <c r="AH2">
-        <v>32237.75523932006</v>
+        <v>255810.6053316946</v>
       </c>
       <c r="AI2">
-        <v>32801.70235832017</v>
+        <v>262411.1796203041</v>
       </c>
       <c r="AJ2">
-        <v>33350.63751133725</v>
+        <v>269287.5192883037</v>
       </c>
       <c r="AK2">
-        <v>33891.19172310681</v>
+        <v>276663.1881795318</v>
       </c>
       <c r="AL2">
-        <v>34488.56778023584</v>
+        <v>284524.6665627614</v>
       </c>
       <c r="AM2">
-        <v>35208.04051558118</v>
+        <v>294948.8907399408</v>
       </c>
       <c r="AN2">
-        <v>36061.72205630422</v>
+        <v>306558.1385561725</v>
       </c>
       <c r="AO2">
-        <v>37104.10831406388</v>
+        <v>319798.4996412277</v>
       </c>
       <c r="AP2">
-        <v>38387.06405940191</v>
+        <v>335127.7715417194</v>
       </c>
       <c r="AQ2">
-        <v>39796.28157136082</v>
+        <v>351935.2751648803</v>
       </c>
       <c r="AR2">
-        <v>41223.031725869</v>
+        <v>372856.7288292479</v>
       </c>
       <c r="AS2">
-        <v>42653.45876336082</v>
+        <v>394581.7876030648</v>
       </c>
       <c r="AT2">
-        <v>44074.31431885052</v>
+        <v>416964.7560325985</v>
       </c>
       <c r="AU2">
-        <v>45474.23657311233</v>
+        <v>439865.958445721</v>
       </c>
       <c r="AV2">
-        <v>46872.68722924684</v>
+        <v>463277.8020131311</v>
       </c>
       <c r="AW2">
-        <v>48258.14769184261</v>
+        <v>487772.5078987126</v>
       </c>
       <c r="AX2">
-        <v>49795.08591700206</v>
+        <v>511979.3372381487</v>
       </c>
       <c r="AY2">
-        <v>51177.49418559654</v>
+        <v>534717.0317214907</v>
       </c>
       <c r="AZ2">
-        <v>52347.37374213606</v>
+        <v>555139.042681228</v>
       </c>
       <c r="BA2">
-        <v>53427.4188653809</v>
+        <v>574401.0362553401</v>
       </c>
       <c r="BB2">
-        <v>54493.06909309914</v>
+        <v>592726.2372482145</v>
       </c>
       <c r="BC2">
-        <v>55547.21811605394</v>
+        <v>610891.526292327</v>
       </c>
       <c r="BD2">
-        <v>56562.02795417902</v>
+        <v>628518.799746849</v>
       </c>
       <c r="BE2">
-        <v>57530.23059227324</v>
+        <v>645368.5510460106</v>
       </c>
       <c r="BF2">
-        <v>58472.80069764567</v>
+        <v>661948.2298219911</v>
       </c>
       <c r="BG2">
-        <v>59391.02483016923</v>
+        <v>678196.8840979713</v>
       </c>
       <c r="BH2">
-        <v>60341.31697758789</v>
+        <v>695031.5852672869</v>
       </c>
       <c r="BI2">
-        <v>61369.44572580744</v>
+        <v>712767.4706613627</v>
       </c>
       <c r="BJ2">
-        <v>62520.5824187589</v>
+        <v>731727.2360868318</v>
       </c>
       <c r="BK2">
-        <v>63825.59608124262</v>
+        <v>751996.1733728978</v>
       </c>
       <c r="BL2">
-        <v>65281.76931015926</v>
+        <v>773269.5804567493</v>
       </c>
       <c r="BM2">
-        <v>66893.47532449842</v>
+        <v>796017.6753539456</v>
       </c>
       <c r="BN2">
-        <v>68600.29344266528</v>
+        <v>820236.1900863333</v>
       </c>
       <c r="BO2">
-        <v>70339.13614843921</v>
+        <v>845776.2808308591</v>
       </c>
       <c r="BP2">
-        <v>72080.27429502826</v>
+        <v>872125.4982713689</v>
       </c>
       <c r="BQ2">
-        <v>73800.66889491926</v>
+        <v>898679.4473954786</v>
       </c>
       <c r="BR2">
-        <v>75510.55394673461</v>
+        <v>925503.8311087716</v>
       </c>
       <c r="BS2">
-        <v>77209.93274605762</v>
+        <v>952483.0744576107</v>
       </c>
       <c r="BT2">
-        <v>78892.85414214185</v>
+        <v>979352.3582723825</v>
       </c>
       <c r="BU2">
-        <v>80529.82800584412</v>
+        <v>1005605.886405825</v>
       </c>
       <c r="BV2">
-        <v>82049.56196103097</v>
+        <v>1030551.083126269</v>
       </c>
       <c r="BW2">
-        <v>83449.07233290613</v>
+        <v>1054330.314432942</v>
       </c>
       <c r="BX2">
-        <v>84777.91610751736</v>
+        <v>1077244.563783682</v>
       </c>
       <c r="BY2">
-        <v>86081.62740720209</v>
+        <v>1099608.310432888</v>
       </c>
       <c r="BZ2">
-        <v>87366.91012967729</v>
+        <v>1121545.881940672</v>
       </c>
       <c r="CA2">
-        <v>88611.22994395999</v>
+        <v>1142839.021268793</v>
       </c>
       <c r="CB2">
-        <v>89830.17168117625</v>
+        <v>1163718.541113372</v>
       </c>
       <c r="CC2">
-        <v>91040.20905054302</v>
+        <v>1184354.893641674</v>
       </c>
       <c r="CD2">
-        <v>92268.47484122698</v>
+        <v>1204974.253357433</v>
       </c>
       <c r="CE2">
-        <v>93551.46288828968</v>
+        <v>1225807.74669048</v>
       </c>
       <c r="CF2">
-        <v>94913.03058837049</v>
+        <v>1246766.374973166</v>
       </c>
       <c r="CG2">
-        <v>96400.9506609243</v>
+        <v>1268184.97004992</v>
       </c>
       <c r="CH2">
-        <v>98031.78508484103</v>
+        <v>1290072.696143785</v>
       </c>
       <c r="CI2">
-        <v>99801.77020675573</v>
+        <v>1312407.241273799</v>
       </c>
       <c r="CJ2">
-        <v>101685.8002614838</v>
+        <v>1335168.073329367</v>
       </c>
       <c r="CK2">
-        <v>103620.0093885724</v>
+        <v>1357872.289920935</v>
       </c>
       <c r="CL2">
-        <v>105583.6584405077</v>
+        <v>1380746.950765132</v>
       </c>
       <c r="CM2">
-        <v>107550.0809992659</v>
+        <v>1403584.796733433</v>
       </c>
       <c r="CN2">
-        <v>109507.3446109131</v>
+        <v>1426214.21651879</v>
       </c>
       <c r="CO2">
-        <v>111450.6532649926</v>
+        <v>1448529.305598472</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.48537994071701</v>
+        <v>70.90986674581129</v>
       </c>
       <c r="E3">
-        <v>35.64126853471349</v>
+        <v>163.6126556386614</v>
       </c>
       <c r="F3">
-        <v>67.95227166329974</v>
+        <v>256.1485766420695</v>
       </c>
       <c r="G3">
-        <v>91.55882706380388</v>
+        <v>344.0167853366277</v>
       </c>
       <c r="H3">
-        <v>154.1114277386955</v>
+        <v>462.4057110825447</v>
       </c>
       <c r="I3">
-        <v>189.5380779291399</v>
+        <v>547.4709564627051</v>
       </c>
       <c r="J3">
-        <v>229.0986815551324</v>
+        <v>702.2510562004401</v>
       </c>
       <c r="K3">
-        <v>274.6465438545999</v>
+        <v>855.9632805554559</v>
       </c>
       <c r="L3">
-        <v>310.701800199061</v>
+        <v>992.6197415267985</v>
       </c>
       <c r="M3">
-        <v>355.19753119443</v>
+        <v>1118.390498306938</v>
       </c>
       <c r="N3">
-        <v>376.8533125066333</v>
+        <v>1389.059769863725</v>
       </c>
       <c r="O3">
-        <v>401.2704943866932</v>
+        <v>1552.875416097135</v>
       </c>
       <c r="P3">
-        <v>451.7947658355426</v>
+        <v>1882.55313140134</v>
       </c>
       <c r="Q3">
-        <v>503.0885218925895</v>
+        <v>2238.40574154183</v>
       </c>
       <c r="R3">
-        <v>555.1797933767302</v>
+        <v>2620.733543792412</v>
       </c>
       <c r="S3">
-        <v>686.8084110363556</v>
+        <v>3458.484349563677</v>
       </c>
       <c r="T3">
-        <v>818.2406090301663</v>
+        <v>4355.522345574665</v>
       </c>
       <c r="U3">
-        <v>949.8948850489808</v>
+        <v>5312.456067788243</v>
       </c>
       <c r="V3">
-        <v>1082.281160166483</v>
+        <v>6330.305582025793</v>
       </c>
       <c r="W3">
-        <v>1215.458689989186</v>
+        <v>7409.883146112896</v>
       </c>
       <c r="X3">
-        <v>1337.964257788771</v>
+        <v>8494.224523752295</v>
       </c>
       <c r="Y3">
-        <v>1461.554656017322</v>
+        <v>9637.574446140536</v>
       </c>
       <c r="Z3">
-        <v>1585.987601664883</v>
+        <v>10840.37097500899</v>
       </c>
       <c r="AA3">
-        <v>1711.404933561823</v>
+        <v>12103.73120514106</v>
       </c>
       <c r="AB3">
-        <v>1839.355565646915</v>
+        <v>13429.19878060042</v>
       </c>
       <c r="AC3">
-        <v>1880.900858734564</v>
+        <v>14044.58003155929</v>
       </c>
       <c r="AD3">
-        <v>1926.954071959217</v>
+        <v>14676.27424159641</v>
       </c>
       <c r="AE3">
-        <v>1977.383644413066</v>
+        <v>15328.63263625584</v>
       </c>
       <c r="AF3">
-        <v>2027.602373718026</v>
+        <v>16001.07926943303</v>
       </c>
       <c r="AG3">
-        <v>2076.408491502853</v>
+        <v>16696.88346966401</v>
       </c>
       <c r="AH3">
-        <v>2112.729757623099</v>
+        <v>17137.21044673495</v>
       </c>
       <c r="AI3">
-        <v>2148.258838983126</v>
+        <v>17580.92992583307</v>
       </c>
       <c r="AJ3">
-        <v>2182.732787629489</v>
+        <v>18043.91661610042</v>
       </c>
       <c r="AK3">
-        <v>2216.596441744256</v>
+        <v>18541.72855993539</v>
       </c>
       <c r="AL3">
-        <v>2254.228360186285</v>
+        <v>19073.53729836782</v>
       </c>
       <c r="AM3">
-        <v>2300.011649676257</v>
+        <v>19779.68824491663</v>
       </c>
       <c r="AN3">
-        <v>2354.759520550644</v>
+        <v>20568.84293921975</v>
       </c>
       <c r="AO3">
-        <v>2422.131353910642</v>
+        <v>21472.71185144472</v>
       </c>
       <c r="AP3">
-        <v>2505.609931346154</v>
+        <v>22524.2251709412</v>
       </c>
       <c r="AQ3">
-        <v>2597.519443569903</v>
+        <v>23681.48143794481</v>
       </c>
       <c r="AR3">
-        <v>2690.557186907623</v>
+        <v>25119.86094242634</v>
       </c>
       <c r="AS3">
-        <v>2783.793018582108</v>
+        <v>26616.80754947566</v>
       </c>
       <c r="AT3">
-        <v>2876.337646569189</v>
+        <v>28162.16385210782</v>
       </c>
       <c r="AU3">
-        <v>2967.428505965291</v>
+        <v>29746.12476654222</v>
       </c>
       <c r="AV3">
-        <v>3058.370472564123</v>
+        <v>31368.28016841926</v>
       </c>
       <c r="AW3">
-        <v>3148.387883995777</v>
+        <v>33066.38546481669</v>
       </c>
       <c r="AX3">
-        <v>3248.527307236324</v>
+        <v>34745.28514349432</v>
       </c>
       <c r="AY3">
-        <v>3338.23926747619</v>
+        <v>36319.55808873706</v>
       </c>
       <c r="AZ3">
-        <v>3413.629423708793</v>
+        <v>37727.45216659486</v>
       </c>
       <c r="BA3">
-        <v>3482.936891505393</v>
+        <v>39052.00064794256</v>
       </c>
       <c r="BB3">
-        <v>3551.222820739207</v>
+        <v>40313.9736017843</v>
       </c>
       <c r="BC3">
-        <v>3618.680931105781</v>
+        <v>41564.85281379429</v>
       </c>
       <c r="BD3">
-        <v>3683.441531168436</v>
+        <v>42776.92010042151</v>
       </c>
       <c r="BE3">
-        <v>3745.016270045937</v>
+        <v>43932.4214889197</v>
       </c>
       <c r="BF3">
-        <v>3804.81319671505</v>
+        <v>45068.07581913016</v>
       </c>
       <c r="BG3">
-        <v>3862.914488508539</v>
+        <v>46183.06956657848</v>
       </c>
       <c r="BH3">
-        <v>3923.107881486404</v>
+        <v>47340.4953392743</v>
       </c>
       <c r="BI3">
-        <v>3988.466670100407</v>
+        <v>48563.27549450676</v>
       </c>
       <c r="BJ3">
-        <v>4062.024118405622</v>
+        <v>49874.92955693158</v>
       </c>
       <c r="BK3">
-        <v>4145.853011632527</v>
+        <v>51281.60975525362</v>
       </c>
       <c r="BL3">
-        <v>4239.767642230382</v>
+        <v>52763.13081293269</v>
       </c>
       <c r="BM3">
-        <v>4344.061459294242</v>
+        <v>54351.67921860504</v>
       </c>
       <c r="BN3">
-        <v>4454.677146539432</v>
+        <v>56046.84210456424</v>
       </c>
       <c r="BO3">
-        <v>4567.378362190972</v>
+        <v>57837.59338241375</v>
       </c>
       <c r="BP3">
-        <v>4680.168862368653</v>
+        <v>59686.23511965979</v>
       </c>
       <c r="BQ3">
-        <v>4791.496871934529</v>
+        <v>61549.50456159137</v>
       </c>
       <c r="BR3">
-        <v>4902.049674116341</v>
+        <v>63431.01534757589</v>
       </c>
       <c r="BS3">
-        <v>5011.827698000218</v>
+        <v>65322.23883926374</v>
       </c>
       <c r="BT3">
-        <v>5120.431568507872</v>
+        <v>67203.74649724398</v>
       </c>
       <c r="BU3">
-        <v>5225.881274319172</v>
+        <v>69038.54763781842</v>
       </c>
       <c r="BV3">
-        <v>5323.385533655777</v>
+        <v>70777.4612203838</v>
       </c>
       <c r="BW3">
-        <v>5412.744064387308</v>
+        <v>72429.73588534771</v>
       </c>
       <c r="BX3">
-        <v>5497.284709957833</v>
+        <v>74017.46294275703</v>
       </c>
       <c r="BY3">
-        <v>5580.065049489408</v>
+        <v>75563.62286748333</v>
       </c>
       <c r="BZ3">
-        <v>5661.535117238049</v>
+        <v>77077.28656412456</v>
       </c>
       <c r="CA3">
-        <v>5740.17723737193</v>
+        <v>78543.74436439878</v>
       </c>
       <c r="CB3">
-        <v>5817.037712969185</v>
+        <v>79978.64529010378</v>
       </c>
       <c r="CC3">
-        <v>5893.22262454672</v>
+        <v>81394.26390909715</v>
       </c>
       <c r="CD3">
-        <v>5970.55382654601</v>
+        <v>82806.77272257948</v>
       </c>
       <c r="CE3">
-        <v>6051.481839764851</v>
+        <v>84232.54171955019</v>
       </c>
       <c r="CF3">
-        <v>6137.603801203688</v>
+        <v>85665.99681641468</v>
       </c>
       <c r="CG3">
-        <v>6232.127558794455</v>
+        <v>87129.50940330942</v>
       </c>
       <c r="CH3">
-        <v>6336.165209371924</v>
+        <v>88623.22336403269</v>
       </c>
       <c r="CI3">
-        <v>6449.46393411087</v>
+        <v>90145.00904012276</v>
       </c>
       <c r="CJ3">
-        <v>6570.337779279548</v>
+        <v>91692.82552397162</v>
       </c>
       <c r="CK3">
-        <v>6694.493547753909</v>
+        <v>93233.3834648194</v>
       </c>
       <c r="CL3">
-        <v>6820.53840131789</v>
+        <v>94780.93190697687</v>
       </c>
       <c r="CM3">
-        <v>6946.681685767889</v>
+        <v>96320.66527741568</v>
       </c>
       <c r="CN3">
-        <v>7072.122180331122</v>
+        <v>97840.4698373385</v>
       </c>
       <c r="CO3">
-        <v>7196.537916785424</v>
+        <v>99332.91039465049</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>804667.33313765</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>1353440.751761682</v>
+        <v>3082938.417141687</v>
       </c>
       <c r="F4">
-        <v>1708611.347661523</v>
+        <v>4356491.107201578</v>
       </c>
       <c r="G4">
-        <v>2000333.355849012</v>
+        <v>5833762.594395978</v>
       </c>
       <c r="H4">
-        <v>2328601.060749675</v>
+        <v>7457135.3880507</v>
       </c>
       <c r="I4">
-        <v>2585160.864573786</v>
+        <v>9000019.415885929</v>
       </c>
       <c r="J4">
-        <v>2835538.92044682</v>
+        <v>10677451.04175133</v>
       </c>
       <c r="K4">
-        <v>3074474.178075661</v>
+        <v>12216082.76307636</v>
       </c>
       <c r="L4">
-        <v>3382577.844962627</v>
+        <v>13744402.31021416</v>
       </c>
       <c r="M4">
-        <v>3666818.795858577</v>
+        <v>15782835.0040762</v>
       </c>
       <c r="N4">
-        <v>3980445.346551755</v>
+        <v>17717256.82240039</v>
       </c>
       <c r="O4">
-        <v>4379332.390139696</v>
+        <v>19633428.46110847</v>
       </c>
       <c r="P4">
-        <v>6204748.084188311</v>
+        <v>29565082.97551566</v>
       </c>
       <c r="Q4">
-        <v>8052484.293173807</v>
+        <v>39545737.22774508</v>
       </c>
       <c r="R4">
-        <v>9913835.591797281</v>
+        <v>49563673.58113229</v>
       </c>
       <c r="S4">
-        <v>15653962.28336719</v>
+        <v>80835873.95270315</v>
       </c>
       <c r="T4">
-        <v>21400582.25465195</v>
+        <v>112168167.2503025</v>
       </c>
       <c r="U4">
-        <v>27158047.70225725</v>
+        <v>143569504.1310289</v>
       </c>
       <c r="V4">
-        <v>32928295.77544259</v>
+        <v>175047262.3922734</v>
       </c>
       <c r="W4">
-        <v>38711490.88017251</v>
+        <v>206607100.30692</v>
       </c>
       <c r="X4">
-        <v>44176274.27968257</v>
+        <v>239101329.1159905</v>
       </c>
       <c r="Y4">
-        <v>49657815.57246024</v>
+        <v>271686160.0216666</v>
       </c>
       <c r="Z4">
-        <v>55152404.63723146</v>
+        <v>304356056.4079345</v>
       </c>
       <c r="AA4">
-        <v>60659866.49447009</v>
+        <v>337115198.7318789</v>
       </c>
       <c r="AB4">
-        <v>66185584.8250999</v>
+        <v>369968787.1680256</v>
       </c>
       <c r="AC4">
-        <v>67232994.92912135</v>
+        <v>378836834.6833184</v>
       </c>
       <c r="AD4">
-        <v>68308135.98780316</v>
+        <v>387805958.889646</v>
       </c>
       <c r="AE4">
-        <v>69416120.69218427</v>
+        <v>396889256.3856708</v>
       </c>
       <c r="AF4">
-        <v>70554677.66692866</v>
+        <v>406067265.4692202</v>
       </c>
       <c r="AG4">
-        <v>71729076.26635207</v>
+        <v>415363595.5682065</v>
       </c>
       <c r="AH4">
-        <v>72158325.35403204</v>
+        <v>417236097.6377463</v>
       </c>
       <c r="AI4">
-        <v>72661257.64583637</v>
+        <v>419122042.5977188</v>
       </c>
       <c r="AJ4">
-        <v>73266511.76653323</v>
+        <v>421122275.5712556</v>
       </c>
       <c r="AK4">
-        <v>74013203.33097184</v>
+        <v>423355669.327705</v>
       </c>
       <c r="AL4">
-        <v>74954333.98561136</v>
+        <v>425876707.7565541</v>
       </c>
       <c r="AM4">
-        <v>76134886.62639882</v>
+        <v>432202293.3460329</v>
       </c>
       <c r="AN4">
-        <v>77577928.9928005</v>
+        <v>439084776.8378226</v>
       </c>
       <c r="AO4">
-        <v>79334964.89482982</v>
+        <v>446610137.6300478</v>
       </c>
       <c r="AP4">
-        <v>81447505.39354424</v>
+        <v>454858746.3694187</v>
       </c>
       <c r="AQ4">
-        <v>83816682.81931785</v>
+        <v>463581421.2009134</v>
       </c>
       <c r="AR4">
-        <v>86337664.08953495</v>
+        <v>477543854.6344993</v>
       </c>
       <c r="AS4">
-        <v>88972053.95935068</v>
+        <v>491638145.4566578</v>
       </c>
       <c r="AT4">
-        <v>91674947.02543725</v>
+        <v>505764373.4417437</v>
       </c>
       <c r="AU4">
-        <v>94397993.88388108</v>
+        <v>519821400.7291063</v>
       </c>
       <c r="AV4">
-        <v>97548908.04908942</v>
+        <v>533740423.11345</v>
       </c>
       <c r="AW4">
-        <v>100762515.5998658</v>
+        <v>548769321.2890079</v>
       </c>
       <c r="AX4">
-        <v>104006416.8647907</v>
+        <v>563403701.4320701</v>
       </c>
       <c r="AY4">
-        <v>106992615.245479</v>
+        <v>577415842.8275902</v>
       </c>
       <c r="AZ4">
-        <v>109645736.8184525</v>
+        <v>590671340.255103</v>
       </c>
       <c r="BA4">
-        <v>112054968.5327406</v>
+        <v>603397134.1026288</v>
       </c>
       <c r="BB4">
-        <v>114228190.0167216</v>
+        <v>614864163.6666057</v>
       </c>
       <c r="BC4">
-        <v>116257013.2849654</v>
+        <v>626031176.6374054</v>
       </c>
       <c r="BD4">
-        <v>118146410.0479958</v>
+        <v>636930429.3327546</v>
       </c>
       <c r="BE4">
-        <v>119918268.652438</v>
+        <v>647652610.4275638</v>
       </c>
       <c r="BF4">
-        <v>121626557.0628668</v>
+        <v>658233753.5110449</v>
       </c>
       <c r="BG4">
-        <v>123249610.6835386</v>
+        <v>668184719.3783135</v>
       </c>
       <c r="BH4">
-        <v>124926952.6477714</v>
+        <v>678098566.9376051</v>
       </c>
       <c r="BI4">
-        <v>126714182.5800419</v>
+        <v>688139801.5371269</v>
       </c>
       <c r="BJ4">
-        <v>128660153.6509366</v>
+        <v>698407307.8110822</v>
       </c>
       <c r="BK4">
-        <v>130803632.3584408</v>
+        <v>708931399.8968248</v>
       </c>
       <c r="BL4">
-        <v>133107511.4299407</v>
+        <v>719591667.3575187</v>
       </c>
       <c r="BM4">
-        <v>135629199.1885009</v>
+        <v>730499888.0512558</v>
       </c>
       <c r="BN4">
-        <v>138321666.5357921</v>
+        <v>741595459.1989137</v>
       </c>
       <c r="BO4">
-        <v>141130491.2250291</v>
+        <v>752799032.3020501</v>
       </c>
       <c r="BP4">
-        <v>144023289.0417198</v>
+        <v>764012834.9218121</v>
       </c>
       <c r="BQ4">
-        <v>146936138.2042136</v>
+        <v>775147784.8748583</v>
       </c>
       <c r="BR4">
-        <v>149894492.6004365</v>
+        <v>786190836.7658262</v>
       </c>
       <c r="BS4">
-        <v>152879489.6471636</v>
+        <v>797112079.4117365</v>
       </c>
       <c r="BT4">
-        <v>155864317.0446937</v>
+        <v>807863102.312897</v>
       </c>
       <c r="BU4">
-        <v>158801234.2245782</v>
+        <v>818368703.1820768</v>
       </c>
       <c r="BV4">
-        <v>161577525.1784833</v>
+        <v>828424627.1851298</v>
       </c>
       <c r="BW4">
-        <v>164205185.4610977</v>
+        <v>838176155.9076679</v>
       </c>
       <c r="BX4">
-        <v>166715406.40261</v>
+        <v>847759741.491155</v>
       </c>
       <c r="BY4">
-        <v>169144762.7209863</v>
+        <v>857299515.5919596</v>
       </c>
       <c r="BZ4">
-        <v>171503590.2084274</v>
+        <v>866761668.3166062</v>
       </c>
       <c r="CA4">
-        <v>173746143.9564883</v>
+        <v>875924929.0778596</v>
       </c>
       <c r="CB4">
-        <v>175926340.9099649</v>
+        <v>884993976.8588353</v>
       </c>
       <c r="CC4">
-        <v>178068370.8652188</v>
+        <v>893968369.0320055</v>
       </c>
       <c r="CD4">
-        <v>180206185.2643986</v>
+        <v>902840980.7825835</v>
       </c>
       <c r="CE4">
-        <v>182378753.1329185</v>
+        <v>911578484.2765672</v>
       </c>
       <c r="CF4">
-        <v>184573646.4655723</v>
+        <v>919962228.2332026</v>
       </c>
       <c r="CG4">
-        <v>186873908.6650709</v>
+        <v>928443494.3971313</v>
       </c>
       <c r="CH4">
-        <v>189301929.7124281</v>
+        <v>937037276.6460568</v>
       </c>
       <c r="CI4">
-        <v>191864825.1181277</v>
+        <v>945742108.1176267</v>
       </c>
       <c r="CJ4">
-        <v>194551095.644246</v>
+        <v>954544363.1251628</v>
       </c>
       <c r="CK4">
-        <v>197263058.4040822</v>
+        <v>962848290.2602322</v>
       </c>
       <c r="CL4">
-        <v>200038401.1529101</v>
+        <v>971183024.7190518</v>
       </c>
       <c r="CM4">
-        <v>202854997.8022265</v>
+        <v>979512829.1827157</v>
       </c>
       <c r="CN4">
-        <v>205699444.7965587</v>
+        <v>987813757.2956841</v>
       </c>
       <c r="CO4">
-        <v>208561070.4818643</v>
+        <v>996073561.1456084</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694840.45682091</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>2690897.882863141</v>
+        <v>3589423.08583223</v>
       </c>
       <c r="F5">
-        <v>3190235.660674582</v>
+        <v>4935242.527957176</v>
       </c>
       <c r="G5">
-        <v>3497267.588735386</v>
+        <v>6232477.638354069</v>
       </c>
       <c r="H5">
-        <v>3785176.027500592</v>
+        <v>7477313.07730572</v>
       </c>
       <c r="I5">
-        <v>3989746.576304241</v>
+        <v>9032703.249138245</v>
       </c>
       <c r="J5">
-        <v>4157635.432624189</v>
+        <v>10744081.60213781</v>
       </c>
       <c r="K5">
-        <v>4374839.426385662</v>
+        <v>12233509.40645095</v>
       </c>
       <c r="L5">
-        <v>4768597.163253103</v>
+        <v>13611930.72009925</v>
       </c>
       <c r="M5">
-        <v>5114773.271836668</v>
+        <v>15154461.05775309</v>
       </c>
       <c r="N5">
-        <v>5551725.581066363</v>
+        <v>16776349.49316758</v>
       </c>
       <c r="O5">
-        <v>6099856.754638673</v>
+        <v>18888535.5676977</v>
       </c>
       <c r="P5">
-        <v>9651016.238861332</v>
+        <v>35196396.31177352</v>
       </c>
       <c r="Q5">
-        <v>13212173.07179294</v>
+        <v>51528060.12218378</v>
       </c>
       <c r="R5">
-        <v>16785643.12971668</v>
+        <v>67889024.41584255</v>
       </c>
       <c r="S5">
-        <v>28088074.35656421</v>
+        <v>122087446.6455493</v>
       </c>
       <c r="T5">
-        <v>39407886.09850582</v>
+        <v>176328132.1623391</v>
       </c>
       <c r="U5">
-        <v>50747598.14283648</v>
+        <v>230618691.2147763</v>
       </c>
       <c r="V5">
-        <v>62109564.48392694</v>
+        <v>284967944.2182832</v>
       </c>
       <c r="W5">
-        <v>73495878.22594216</v>
+        <v>339386677.3501649</v>
       </c>
       <c r="X5">
-        <v>84400440.94966711</v>
+        <v>396686036.5722546</v>
       </c>
       <c r="Y5">
-        <v>95332726.93031713</v>
+        <v>454085166.2180244</v>
       </c>
       <c r="Z5">
-        <v>106294312.8687048</v>
+        <v>511606578.5864841</v>
       </c>
       <c r="AA5">
-        <v>117287227.05474</v>
+        <v>569280695.1728921</v>
       </c>
       <c r="AB5">
-        <v>128314661.9662918</v>
+        <v>627148701.6042591</v>
       </c>
       <c r="AC5">
-        <v>130371046.7136752</v>
+        <v>643548226.2718607</v>
       </c>
       <c r="AD5">
-        <v>132476071.503342</v>
+        <v>660270202.4158233</v>
       </c>
       <c r="AE5">
-        <v>134643285.8035933</v>
+        <v>677409522.4577565</v>
       </c>
       <c r="AF5">
-        <v>136892336.2858585</v>
+        <v>695085935.2207919</v>
       </c>
       <c r="AG5">
-        <v>139249933.7482258</v>
+        <v>713445863.3404136</v>
       </c>
       <c r="AH5">
-        <v>140045700.6169486</v>
+        <v>718685721.7324188</v>
       </c>
       <c r="AI5">
-        <v>141025134.5218376</v>
+        <v>724781046.9245381</v>
       </c>
       <c r="AJ5">
-        <v>142234608.8936924</v>
+        <v>731901911.4221559</v>
       </c>
       <c r="AK5">
-        <v>143723350.2391962</v>
+        <v>740479484.7612019</v>
       </c>
       <c r="AL5">
-        <v>145540022.389507</v>
+        <v>750736071.7266023</v>
       </c>
       <c r="AM5">
-        <v>147728613.2133627</v>
+        <v>768746191.6431705</v>
       </c>
       <c r="AN5">
-        <v>150323886.6499946</v>
+        <v>788720358.1108099</v>
       </c>
       <c r="AO5">
-        <v>153346759.8160491</v>
+        <v>810696183.251217</v>
       </c>
       <c r="AP5">
-        <v>156800023.0754513</v>
+        <v>834613588.4834206</v>
       </c>
       <c r="AQ5">
-        <v>160664968.0489004</v>
+        <v>860300919.6241844</v>
       </c>
       <c r="AR5">
-        <v>164899609.3368723</v>
+        <v>895685651.1138612</v>
       </c>
       <c r="AS5">
-        <v>169439025.5995689</v>
+        <v>932199551.084923</v>
       </c>
       <c r="AT5">
-        <v>174198221.9631082</v>
+        <v>969400193.7097094</v>
       </c>
       <c r="AU5">
-        <v>179077487.780649</v>
+        <v>1006798693.861483</v>
       </c>
       <c r="AV5">
-        <v>185119332.3577131</v>
+        <v>1043897150.341498</v>
       </c>
       <c r="AW5">
-        <v>191393499.3001253</v>
+        <v>1082626713.700139</v>
       </c>
       <c r="AX5">
-        <v>197478308.4345983</v>
+        <v>1120185560.444202</v>
       </c>
       <c r="AY5">
-        <v>203294198.5107948</v>
+        <v>1156263399.282537</v>
       </c>
       <c r="AZ5">
-        <v>208784004.5413479</v>
+        <v>1190659464.46303</v>
       </c>
       <c r="BA5">
-        <v>213916277.9830006</v>
+        <v>1223289023.560771</v>
       </c>
       <c r="BB5">
-        <v>218519405.5667097</v>
+        <v>1252783502.351975</v>
       </c>
       <c r="BC5">
-        <v>222781852.1608308</v>
+        <v>1280669897.266029</v>
       </c>
       <c r="BD5">
-        <v>226748420.7150791</v>
+        <v>1307162711.772832</v>
       </c>
       <c r="BE5">
-        <v>230482911.6814225</v>
+        <v>1332537616.481833</v>
       </c>
       <c r="BF5">
-        <v>234062218.9816119</v>
+        <v>1357104219.908818</v>
       </c>
       <c r="BG5">
-        <v>237404643.0886875</v>
+        <v>1380406325.021177</v>
       </c>
       <c r="BH5">
-        <v>240757114.68842</v>
+        <v>1403508194.921257</v>
       </c>
       <c r="BI5">
-        <v>244194695.5773518</v>
+        <v>1426659809.861119</v>
       </c>
       <c r="BJ5">
-        <v>247780862.9017816</v>
+        <v>1450053530.048987</v>
       </c>
       <c r="BK5">
-        <v>251565026.0131075</v>
+        <v>1473817206.427902</v>
       </c>
       <c r="BL5">
-        <v>255457874.463448</v>
+        <v>1497908190.696191</v>
       </c>
       <c r="BM5">
-        <v>259603473.2497971</v>
+        <v>1522433266.856707</v>
       </c>
       <c r="BN5">
-        <v>264008438.4226801</v>
+        <v>1547339327.854814</v>
       </c>
       <c r="BO5">
-        <v>268666943.2163441</v>
+        <v>1572527845.238043</v>
       </c>
       <c r="BP5">
-        <v>273561936.2807873</v>
+        <v>1597865756.456859</v>
       </c>
       <c r="BQ5">
-        <v>278580142.3732243</v>
+        <v>1623221775.75425</v>
       </c>
       <c r="BR5">
-        <v>283772964.8826577</v>
+        <v>1648406385.168512</v>
       </c>
       <c r="BS5">
-        <v>289099157.9194363</v>
+        <v>1673256141.791507</v>
       </c>
       <c r="BT5">
-        <v>294513376.2363607</v>
+        <v>1697619845.766638</v>
       </c>
       <c r="BU5">
-        <v>299968482.6654721</v>
+        <v>1721366760.784523</v>
       </c>
       <c r="BV5">
-        <v>305333684.4968565</v>
+        <v>1744172860.049911</v>
       </c>
       <c r="BW5">
-        <v>310650071.47958</v>
+        <v>1766182737.890459</v>
       </c>
       <c r="BX5">
-        <v>315880192.5146493</v>
+        <v>1787351396.374865</v>
       </c>
       <c r="BY5">
-        <v>320994762.7720042</v>
+        <v>1807661791.211268</v>
       </c>
       <c r="BZ5">
-        <v>325974627.9251236</v>
+        <v>1827120574.388574</v>
       </c>
       <c r="CA5">
-        <v>330723528.1400359</v>
+        <v>1845361331.822927</v>
       </c>
       <c r="CB5">
-        <v>335334045.3288852</v>
+        <v>1862810458.406107</v>
       </c>
       <c r="CC5">
-        <v>339821342.9500447</v>
+        <v>1879507240.887707</v>
       </c>
       <c r="CD5">
-        <v>344210033.8765453</v>
+        <v>1895488022.522376</v>
       </c>
       <c r="CE5">
-        <v>348531736.0023208</v>
+        <v>1910780395.673401</v>
       </c>
       <c r="CF5">
-        <v>352722355.3363631</v>
+        <v>1924728378.487037</v>
       </c>
       <c r="CG5">
-        <v>356918609.6266245</v>
+        <v>1938001236.631579</v>
       </c>
       <c r="CH5">
-        <v>361155768.9171895</v>
+        <v>1950581240.759037</v>
       </c>
       <c r="CI5">
-        <v>365465182.4206701</v>
+        <v>1962435232.185674</v>
       </c>
       <c r="CJ5">
-        <v>369872505.8128026</v>
+        <v>1973517198.012941</v>
       </c>
       <c r="CK5">
-        <v>374260063.7855554</v>
+        <v>1982719649.8976</v>
       </c>
       <c r="CL5">
-        <v>378775565.7826016</v>
+        <v>1991035154.927118</v>
       </c>
       <c r="CM5">
-        <v>383422646.6147358</v>
+        <v>1998403912.578312</v>
       </c>
       <c r="CN5">
-        <v>388197691.1391039</v>
+        <v>2004770668.581359</v>
       </c>
       <c r="CO5">
-        <v>393090593.5428196</v>
+        <v>2010088643.937868</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_target.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_target.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Baseline/RR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7D5EF4095D99E01B49213336E5AF7573503A3F26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEFB6E22-90AC-4ED4-AC31-95B9736B5DFA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual production" sheetId="1" r:id="rId1"/>
     <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -38,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -102,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,14 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>2011</v>
       </c>
@@ -668,132 +687,132 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.353295692877</v>
+        <v>1072.3532956928771</v>
       </c>
       <c r="E2">
-        <v>1397.697139652291</v>
+        <v>1397.6971396522911</v>
       </c>
       <c r="F2">
-        <v>1396.973433067987</v>
+        <v>1396.9734330679869</v>
       </c>
       <c r="G2">
-        <v>1327.492088360183</v>
+        <v>1327.4920883601831</v>
       </c>
       <c r="H2">
-        <v>1780.456358358066</v>
+        <v>1780.4563583580659</v>
       </c>
       <c r="I2">
-        <v>1284.475738561879</v>
+        <v>1284.4757385618791</v>
       </c>
       <c r="J2">
-        <v>2324.134751137541</v>
+        <v>2324.1347511375411</v>
       </c>
       <c r="K2">
-        <v>2310.501438880546</v>
+        <v>2310.5014388805462</v>
       </c>
       <c r="L2">
-        <v>2055.882519252133</v>
+        <v>2055.8825192521331</v>
       </c>
       <c r="M2">
         <v>1894.954773564368</v>
       </c>
       <c r="N2">
-        <v>4053.663396661204</v>
+        <v>4053.6633966612039</v>
       </c>
       <c r="O2">
-        <v>2460.661291829873</v>
+        <v>2460.6612918298729</v>
       </c>
       <c r="P2">
-        <v>4931.980183032959</v>
+        <v>4931.9801830329588</v>
       </c>
       <c r="Q2">
         <v>5322.359150345249</v>
       </c>
       <c r="R2">
-        <v>5717.164701191091</v>
+        <v>5717.1647011910909</v>
       </c>
       <c r="S2">
-        <v>12500.7967691967</v>
+        <v>12500.796769196701</v>
       </c>
       <c r="T2">
-        <v>13384.21711129678</v>
+        <v>13384.217111296781</v>
       </c>
       <c r="U2">
         <v>14276.68982207636</v>
       </c>
       <c r="V2">
-        <v>15184.32047184844</v>
+        <v>15184.320471848439</v>
       </c>
       <c r="W2">
         <v>16103.81892782887</v>
       </c>
       <c r="X2">
-        <v>16174.79653299817</v>
+        <v>16174.796532998171</v>
       </c>
       <c r="Y2">
-        <v>17052.8668005696</v>
+        <v>17052.866800569602</v>
       </c>
       <c r="Z2">
-        <v>17936.98394912974</v>
+        <v>17936.983949129739</v>
       </c>
       <c r="AA2">
-        <v>18837.15245291548</v>
+        <v>18837.152452915481</v>
       </c>
       <c r="AB2">
-        <v>19759.57681052468</v>
+        <v>19759.576810524679</v>
       </c>
       <c r="AC2">
-        <v>9182.643992807822</v>
+        <v>9182.6439928078216</v>
       </c>
       <c r="AD2">
-        <v>9422.79001479549</v>
+        <v>9422.7900147954897</v>
       </c>
       <c r="AE2">
-        <v>9726.074610849671</v>
+        <v>9726.0746108496714</v>
       </c>
       <c r="AF2">
-        <v>10020.70939338066</v>
+        <v>10020.709393380659</v>
       </c>
       <c r="AG2">
-        <v>10362.57723724886</v>
+        <v>10362.577237248859</v>
       </c>
       <c r="AH2">
-        <v>6553.840174639036</v>
+        <v>6553.8401746390364</v>
       </c>
       <c r="AI2">
-        <v>6600.574288609554</v>
+        <v>6600.5742886095541</v>
       </c>
       <c r="AJ2">
-        <v>6876.339667999569</v>
+        <v>6876.3396679995694</v>
       </c>
       <c r="AK2">
-        <v>7375.668891228064</v>
+        <v>7375.6688912280642</v>
       </c>
       <c r="AL2">
-        <v>7861.478383229634</v>
+        <v>7861.4783832296343</v>
       </c>
       <c r="AM2">
         <v>10424.22417717936</v>
       </c>
       <c r="AN2">
-        <v>11609.24781623173</v>
+        <v>11609.247816231729</v>
       </c>
       <c r="AO2">
-        <v>13240.36108505516</v>
+        <v>13240.361085055159</v>
       </c>
       <c r="AP2">
-        <v>15329.27190049173</v>
+        <v>15329.271900491731</v>
       </c>
       <c r="AQ2">
         <v>16807.50362316085</v>
@@ -802,121 +821,121 @@
         <v>20921.45366436756</v>
       </c>
       <c r="AS2">
-        <v>21725.05877381691</v>
+        <v>21725.058773816909</v>
       </c>
       <c r="AT2">
-        <v>22382.96842953373</v>
+        <v>22382.968429533728</v>
       </c>
       <c r="AU2">
-        <v>22901.2024131225</v>
+        <v>22901.202413122501</v>
       </c>
       <c r="AV2">
-        <v>23411.84356741013</v>
+        <v>23411.843567410131</v>
       </c>
       <c r="AW2">
-        <v>24494.70588558148</v>
+        <v>24494.705885581479</v>
       </c>
       <c r="AX2">
-        <v>24206.82933943601</v>
+        <v>24206.829339436012</v>
       </c>
       <c r="AY2">
-        <v>22737.69448334201</v>
+        <v>22737.694483342009</v>
       </c>
       <c r="AZ2">
-        <v>20422.01095973736</v>
+        <v>20422.010959737359</v>
       </c>
       <c r="BA2">
-        <v>19261.99357411212</v>
+        <v>19261.993574112119</v>
       </c>
       <c r="BB2">
         <v>18325.20099287451</v>
       </c>
       <c r="BC2">
-        <v>18165.28904411239</v>
+        <v>18165.289044112389</v>
       </c>
       <c r="BD2">
-        <v>17627.27345452206</v>
+        <v>17627.273454522059</v>
       </c>
       <c r="BE2">
         <v>16849.75129916162</v>
       </c>
       <c r="BF2">
-        <v>16579.6787759805</v>
+        <v>16579.678775980501</v>
       </c>
       <c r="BG2">
-        <v>16248.65427598019</v>
+        <v>16248.654275980191</v>
       </c>
       <c r="BH2">
-        <v>16834.70116931557</v>
+        <v>16834.701169315569</v>
       </c>
       <c r="BI2">
-        <v>17735.88539407593</v>
+        <v>17735.885394075929</v>
       </c>
       <c r="BJ2">
-        <v>18959.76542546902</v>
+        <v>18959.765425469021</v>
       </c>
       <c r="BK2">
-        <v>20268.93728606598</v>
+        <v>20268.937286065979</v>
       </c>
       <c r="BL2">
-        <v>21273.40708385155</v>
+        <v>21273.407083851551</v>
       </c>
       <c r="BM2">
-        <v>22748.09489719626</v>
+        <v>22748.094897196261</v>
       </c>
       <c r="BN2">
         <v>24218.51473238775</v>
       </c>
       <c r="BO2">
-        <v>25540.09074452576</v>
+        <v>25540.090744525762</v>
       </c>
       <c r="BP2">
-        <v>26349.2174405098</v>
+        <v>26349.217440509801</v>
       </c>
       <c r="BQ2">
         <v>26553.94912410972</v>
       </c>
       <c r="BR2">
-        <v>26824.38371329296</v>
+        <v>26824.383713292958</v>
       </c>
       <c r="BS2">
         <v>26979.24334883914</v>
       </c>
       <c r="BT2">
-        <v>26869.28381477186</v>
+        <v>26869.283814771861</v>
       </c>
       <c r="BU2">
         <v>26253.52813344256</v>
       </c>
       <c r="BV2">
-        <v>24945.19672044406</v>
+        <v>24945.196720444059</v>
       </c>
       <c r="BW2">
-        <v>23779.23130667259</v>
+        <v>23779.231306672591</v>
       </c>
       <c r="BX2">
-        <v>22914.24935074091</v>
+        <v>22914.249350740909</v>
       </c>
       <c r="BY2">
-        <v>22363.7466492057</v>
+        <v>22363.746649205699</v>
       </c>
       <c r="BZ2">
         <v>21937.57150778365</v>
       </c>
       <c r="CA2">
-        <v>21293.13932812133</v>
+        <v>21293.139328121331</v>
       </c>
       <c r="CB2">
-        <v>20879.51984457877</v>
+        <v>20879.519844578768</v>
       </c>
       <c r="CC2">
         <v>20636.35252830249</v>
       </c>
       <c r="CD2">
-        <v>20619.35971575858</v>
+        <v>20619.359715758579</v>
       </c>
       <c r="CE2">
-        <v>20833.4933330472</v>
+        <v>20833.493333047201</v>
       </c>
       <c r="CF2">
         <v>20958.62828268552</v>
@@ -925,89 +944,89 @@
         <v>21418.59507675398</v>
       </c>
       <c r="CH2">
-        <v>21887.72609386534</v>
+        <v>21887.726093865342</v>
       </c>
       <c r="CI2">
-        <v>22334.54513001398</v>
+        <v>22334.545130013979</v>
       </c>
       <c r="CJ2">
-        <v>22760.83205556858</v>
+        <v>22760.832055568579</v>
       </c>
       <c r="CK2">
-        <v>22704.21659156795</v>
+        <v>22704.216591567951</v>
       </c>
       <c r="CL2">
-        <v>22874.66084419687</v>
+        <v>22874.660844196871</v>
       </c>
       <c r="CM2">
         <v>22837.84596830064</v>
       </c>
       <c r="CN2">
-        <v>22629.4197853574</v>
+        <v>22629.419785357401</v>
       </c>
       <c r="CO2">
-        <v>22315.08907968201</v>
+        <v>22315.089079682009</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90986674581129</v>
+        <v>70.909866745811286</v>
       </c>
       <c r="E3">
-        <v>92.70278889285014</v>
+        <v>92.702788892850137</v>
       </c>
       <c r="F3">
-        <v>92.53592100340813</v>
+        <v>92.535921003408134</v>
       </c>
       <c r="G3">
-        <v>87.86820869455813</v>
+        <v>87.868208694558135</v>
       </c>
       <c r="H3">
-        <v>118.388925745917</v>
+        <v>118.38892574591701</v>
       </c>
       <c r="I3">
-        <v>85.06524538016033</v>
+        <v>85.065245380160334</v>
       </c>
       <c r="J3">
-        <v>154.780099737735</v>
+        <v>154.78009973773499</v>
       </c>
       <c r="K3">
-        <v>153.7122243550158</v>
+        <v>153.71222435501579</v>
       </c>
       <c r="L3">
-        <v>136.6564609713427</v>
+        <v>136.65646097134271</v>
       </c>
       <c r="M3">
         <v>125.7707567801391</v>
       </c>
       <c r="N3">
-        <v>270.6692715567877</v>
+        <v>270.66927155678769</v>
       </c>
       <c r="O3">
-        <v>163.8156462334101</v>
+        <v>163.81564623341009</v>
       </c>
       <c r="P3">
-        <v>329.677715304205</v>
+        <v>329.67771530420498</v>
       </c>
       <c r="Q3">
-        <v>355.8526101404896</v>
+        <v>355.85261014048962</v>
       </c>
       <c r="R3">
-        <v>382.3278022505818</v>
+        <v>382.32780225058178</v>
       </c>
       <c r="S3">
         <v>837.7508057712646</v>
       </c>
       <c r="T3">
-        <v>897.037996010989</v>
+        <v>897.03799601098899</v>
       </c>
       <c r="U3">
-        <v>956.9337222135771</v>
+        <v>956.93372221357708</v>
       </c>
       <c r="V3">
         <v>1017.849514237551</v>
@@ -1016,61 +1035,61 @@
         <v>1079.577564087102</v>
       </c>
       <c r="X3">
-        <v>1084.341377639399</v>
+        <v>1084.3413776393991</v>
       </c>
       <c r="Y3">
-        <v>1143.349922388241</v>
+        <v>1143.3499223882411</v>
       </c>
       <c r="Z3">
         <v>1202.796528868457</v>
       </c>
       <c r="AA3">
-        <v>1263.360230132066</v>
+        <v>1263.3602301320659</v>
       </c>
       <c r="AB3">
         <v>1325.467575459357</v>
       </c>
       <c r="AC3">
-        <v>615.3812509588719</v>
+        <v>615.38125095887187</v>
       </c>
       <c r="AD3">
-        <v>631.6942100371178</v>
+        <v>631.69421003711784</v>
       </c>
       <c r="AE3">
-        <v>652.3583946594392</v>
+        <v>652.35839465943923</v>
       </c>
       <c r="AF3">
         <v>672.4466331771896</v>
       </c>
       <c r="AG3">
-        <v>695.8042002309783</v>
+        <v>695.80420023097827</v>
       </c>
       <c r="AH3">
-        <v>440.3269770709375</v>
+        <v>440.32697707093752</v>
       </c>
       <c r="AI3">
         <v>443.7194790981236</v>
       </c>
       <c r="AJ3">
-        <v>462.9866902673468</v>
+        <v>462.98669026734677</v>
       </c>
       <c r="AK3">
-        <v>497.8119438349752</v>
+        <v>497.81194383497518</v>
       </c>
       <c r="AL3">
-        <v>531.8087384324228</v>
+        <v>531.80873843242284</v>
       </c>
       <c r="AM3">
-        <v>706.1509465488102</v>
+        <v>706.15094654881023</v>
       </c>
       <c r="AN3">
-        <v>789.1546943031275</v>
+        <v>789.15469430312749</v>
       </c>
       <c r="AO3">
-        <v>903.8689122249721</v>
+        <v>903.86891222497206</v>
       </c>
       <c r="AP3">
-        <v>1051.513319496475</v>
+        <v>1051.5133194964751</v>
       </c>
       <c r="AQ3">
         <v>1157.25626700361</v>
@@ -1079,46 +1098,46 @@
         <v>1438.379504481532</v>
       </c>
       <c r="AS3">
-        <v>1496.946607049313</v>
+        <v>1496.9466070493129</v>
       </c>
       <c r="AT3">
-        <v>1545.356302632162</v>
+        <v>1545.3563026321619</v>
       </c>
       <c r="AU3">
-        <v>1583.960914434408</v>
+        <v>1583.9609144344081</v>
       </c>
       <c r="AV3">
         <v>1622.155401877041</v>
       </c>
       <c r="AW3">
-        <v>1698.105296397427</v>
+        <v>1698.1052963974271</v>
       </c>
       <c r="AX3">
-        <v>1678.899678677636</v>
+        <v>1678.8996786776361</v>
       </c>
       <c r="AY3">
-        <v>1574.272945242734</v>
+        <v>1574.2729452427341</v>
       </c>
       <c r="AZ3">
-        <v>1407.894077857799</v>
+        <v>1407.8940778577989</v>
       </c>
       <c r="BA3">
-        <v>1324.548481347712</v>
+        <v>1324.5484813477119</v>
       </c>
       <c r="BB3">
-        <v>1261.972953841737</v>
+        <v>1261.9729538417371</v>
       </c>
       <c r="BC3">
         <v>1250.879212009992</v>
       </c>
       <c r="BD3">
-        <v>1212.067286627216</v>
+        <v>1212.0672866272159</v>
       </c>
       <c r="BE3">
         <v>1155.501388498199</v>
       </c>
       <c r="BF3">
-        <v>1135.65433021046</v>
+        <v>1135.6543302104601</v>
       </c>
       <c r="BG3">
         <v>1114.993747448319</v>
@@ -1133,13 +1152,13 @@
         <v>1311.65406242482</v>
       </c>
       <c r="BK3">
-        <v>1406.680198322039</v>
+        <v>1406.6801983220389</v>
       </c>
       <c r="BL3">
         <v>1481.521057679078</v>
       </c>
       <c r="BM3">
-        <v>1588.548405672345</v>
+        <v>1588.5484056723451</v>
       </c>
       <c r="BN3">
         <v>1695.162885959202</v>
@@ -1148,7 +1167,7 @@
         <v>1790.75127784951</v>
       </c>
       <c r="BP3">
-        <v>1848.64173724604</v>
+        <v>1848.6417372460401</v>
       </c>
       <c r="BQ3">
         <v>1863.269441931584</v>
@@ -1160,7 +1179,7 @@
         <v>1891.223491687849</v>
       </c>
       <c r="BT3">
-        <v>1881.507657980245</v>
+        <v>1881.5076579802451</v>
       </c>
       <c r="BU3">
         <v>1834.801140574446</v>
@@ -1169,7 +1188,7 @@
         <v>1738.913582565373</v>
       </c>
       <c r="BW3">
-        <v>1652.274664963902</v>
+        <v>1652.2746649639021</v>
       </c>
       <c r="BX3">
         <v>1587.727057409325</v>
@@ -1181,10 +1200,10 @@
         <v>1513.66369664124</v>
       </c>
       <c r="CA3">
-        <v>1466.457800274224</v>
+        <v>1466.4578002742239</v>
       </c>
       <c r="CB3">
-        <v>1434.900925705009</v>
+        <v>1434.9009257050091</v>
       </c>
       <c r="CC3">
         <v>1415.618618993366</v>
@@ -1193,10 +1212,10 @@
         <v>1412.508813482332</v>
       </c>
       <c r="CE3">
-        <v>1425.76899697071</v>
+        <v>1425.7689969707101</v>
       </c>
       <c r="CF3">
-        <v>1433.455096864492</v>
+        <v>1433.4550968644919</v>
       </c>
       <c r="CG3">
         <v>1463.51258689473</v>
@@ -1208,7 +1227,7 @@
         <v>1521.785676090082</v>
       </c>
       <c r="CJ3">
-        <v>1547.816483848863</v>
+        <v>1547.8164838488631</v>
       </c>
       <c r="CK3">
         <v>1540.557940847774</v>
@@ -1223,12 +1242,12 @@
         <v>1519.804559922819</v>
       </c>
       <c r="CO3">
-        <v>1492.440557311992</v>
+        <v>1492.4405573119921</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1255,7 @@
         <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>1458847.879811725</v>
+        <v>1458847.8798117251</v>
       </c>
       <c r="F4">
         <v>1273552.690059891</v>
@@ -1248,16 +1267,16 @@
         <v>1623372.793654721</v>
       </c>
       <c r="I4">
-        <v>1542884.02783523</v>
+        <v>1542884.0278352301</v>
       </c>
       <c r="J4">
         <v>1677431.625865404</v>
       </c>
       <c r="K4">
-        <v>1538631.721325026</v>
+        <v>1538631.7213250259</v>
       </c>
       <c r="L4">
-        <v>1528319.5471378</v>
+        <v>1528319.5471377999</v>
       </c>
       <c r="M4">
         <v>2038432.693862041</v>
@@ -1269,58 +1288,58 @@
         <v>1916171.638708076</v>
       </c>
       <c r="P4">
-        <v>9931654.514407182</v>
+        <v>9931654.5144071821</v>
       </c>
       <c r="Q4">
-        <v>9980654.25222942</v>
+        <v>9980654.2522294205</v>
       </c>
       <c r="R4">
-        <v>10017936.35338721</v>
+        <v>10017936.353387211</v>
       </c>
       <c r="S4">
-        <v>31272200.37157086</v>
+        <v>31272200.371570859</v>
       </c>
       <c r="T4">
-        <v>31332293.29759934</v>
+        <v>31332293.297599342</v>
       </c>
       <c r="U4">
-        <v>31401336.88072637</v>
+        <v>31401336.880726371</v>
       </c>
       <c r="V4">
-        <v>31477758.26124451</v>
+        <v>31477758.261244509</v>
       </c>
       <c r="W4">
-        <v>31559837.91464659</v>
+        <v>31559837.914646588</v>
       </c>
       <c r="X4">
-        <v>32494228.80907048</v>
+        <v>32494228.809070479</v>
       </c>
       <c r="Y4">
-        <v>32584830.90567621</v>
+        <v>32584830.905676208</v>
       </c>
       <c r="Z4">
-        <v>32669896.38626789</v>
+        <v>32669896.386267889</v>
       </c>
       <c r="AA4">
-        <v>32759142.3239444</v>
+        <v>32759142.323944401</v>
       </c>
       <c r="AB4">
-        <v>32853588.4361467</v>
+        <v>32853588.436146699</v>
       </c>
       <c r="AC4">
-        <v>8868047.515292749</v>
+        <v>8868047.5152927488</v>
       </c>
       <c r="AD4">
         <v>8969124.206327606</v>
       </c>
       <c r="AE4">
-        <v>9083297.496024758</v>
+        <v>9083297.4960247576</v>
       </c>
       <c r="AF4">
-        <v>9178009.083549401</v>
+        <v>9178009.0835494008</v>
       </c>
       <c r="AG4">
-        <v>9296330.098986339</v>
+        <v>9296330.0989863388</v>
       </c>
       <c r="AH4">
         <v>1872502.069539842</v>
@@ -1329,43 +1348,43 @@
         <v>1885944.959972447</v>
       </c>
       <c r="AJ4">
-        <v>2000232.973536851</v>
+        <v>2000232.9735368509</v>
       </c>
       <c r="AK4">
-        <v>2233393.756449416</v>
+        <v>2233393.7564494158</v>
       </c>
       <c r="AL4">
-        <v>2521038.428849104</v>
+        <v>2521038.4288491039</v>
       </c>
       <c r="AM4">
-        <v>6325585.589478768</v>
+        <v>6325585.5894787684</v>
       </c>
       <c r="AN4">
-        <v>6882483.491789619</v>
+        <v>6882483.4917896194</v>
       </c>
       <c r="AO4">
-        <v>7525360.792225271</v>
+        <v>7525360.7922252715</v>
       </c>
       <c r="AP4">
         <v>8248608.739370863</v>
       </c>
       <c r="AQ4">
-        <v>8722674.831494769</v>
+        <v>8722674.8314947691</v>
       </c>
       <c r="AR4">
         <v>13962433.43358589</v>
       </c>
       <c r="AS4">
-        <v>14094290.82215852</v>
+        <v>14094290.822158519</v>
       </c>
       <c r="AT4">
-        <v>14126227.98508593</v>
+        <v>14126227.985085931</v>
       </c>
       <c r="AU4">
         <v>14057027.28736257</v>
       </c>
       <c r="AV4">
-        <v>13919022.38434367</v>
+        <v>13919022.384343671</v>
       </c>
       <c r="AW4">
         <v>15028898.17555788</v>
@@ -1377,37 +1396,37 @@
         <v>14012141.39552013</v>
       </c>
       <c r="AZ4">
-        <v>13255497.42751282</v>
+        <v>13255497.427512821</v>
       </c>
       <c r="BA4">
-        <v>12725793.84752581</v>
+        <v>12725793.847525811</v>
       </c>
       <c r="BB4">
         <v>11467029.56397685</v>
       </c>
       <c r="BC4">
-        <v>11167012.97079963</v>
+        <v>11167012.970799631</v>
       </c>
       <c r="BD4">
-        <v>10899252.69534926</v>
+        <v>10899252.695349259</v>
       </c>
       <c r="BE4">
-        <v>10722181.0948092</v>
+        <v>10722181.094809201</v>
       </c>
       <c r="BF4">
         <v>10581143.08348109</v>
       </c>
       <c r="BG4">
-        <v>9950965.867268667</v>
+        <v>9950965.8672686666</v>
       </c>
       <c r="BH4">
-        <v>9913847.559291635</v>
+        <v>9913847.5592916347</v>
       </c>
       <c r="BI4">
         <v>10041234.5995217</v>
       </c>
       <c r="BJ4">
-        <v>10267506.27395537</v>
+        <v>10267506.273955369</v>
       </c>
       <c r="BK4">
         <v>10524092.08574258</v>
@@ -1416,7 +1435,7 @@
         <v>10660267.46069381</v>
       </c>
       <c r="BM4">
-        <v>10908220.69373715</v>
+        <v>10908220.693737149</v>
       </c>
       <c r="BN4">
         <v>11095571.14765784</v>
@@ -1428,113 +1447,113 @@
         <v>11213802.61976189</v>
       </c>
       <c r="BQ4">
-        <v>11134949.95304617</v>
+        <v>11134949.953046169</v>
       </c>
       <c r="BR4">
         <v>11043051.89096798</v>
       </c>
       <c r="BS4">
-        <v>10921242.64591032</v>
+        <v>10921242.645910321</v>
       </c>
       <c r="BT4">
-        <v>10751022.9011605</v>
+        <v>10751022.901160499</v>
       </c>
       <c r="BU4">
-        <v>10505600.86917984</v>
+        <v>10505600.869179839</v>
       </c>
       <c r="BV4">
         <v>10055924.003053</v>
       </c>
       <c r="BW4">
-        <v>9751528.722538084</v>
+        <v>9751528.7225380838</v>
       </c>
       <c r="BX4">
-        <v>9583585.583487131</v>
+        <v>9583585.5834871307</v>
       </c>
       <c r="BY4">
-        <v>9539774.100804593</v>
+        <v>9539774.1008045934</v>
       </c>
       <c r="BZ4">
-        <v>9462152.724646589</v>
+        <v>9462152.7246465888</v>
       </c>
       <c r="CA4">
-        <v>9163260.761253489</v>
+        <v>9163260.7612534892</v>
       </c>
       <c r="CB4">
-        <v>9069047.780975645</v>
+        <v>9069047.7809756454</v>
       </c>
       <c r="CC4">
-        <v>8974392.173170254</v>
+        <v>8974392.1731702536</v>
       </c>
       <c r="CD4">
-        <v>8872611.750577969</v>
+        <v>8872611.7505779695</v>
       </c>
       <c r="CE4">
-        <v>8737503.493983716</v>
+        <v>8737503.4939837158</v>
       </c>
       <c r="CF4">
-        <v>8383743.956635363</v>
+        <v>8383743.9566353634</v>
       </c>
       <c r="CG4">
-        <v>8481266.163928756</v>
+        <v>8481266.1639287565</v>
       </c>
       <c r="CH4">
-        <v>8593782.248925449</v>
+        <v>8593782.2489254493</v>
       </c>
       <c r="CI4">
         <v>8704831.471569879</v>
       </c>
       <c r="CJ4">
-        <v>8802255.007536121</v>
+        <v>8802255.0075361207</v>
       </c>
       <c r="CK4">
-        <v>8303927.135069317</v>
+        <v>8303927.1350693172</v>
       </c>
       <c r="CL4">
-        <v>8334734.458819671</v>
+        <v>8334734.4588196706</v>
       </c>
       <c r="CM4">
-        <v>8329804.463663815</v>
+        <v>8329804.4636638146</v>
       </c>
       <c r="CN4">
-        <v>8300928.112968404</v>
+        <v>8300928.1129684038</v>
       </c>
       <c r="CO4">
-        <v>8259803.84992429</v>
+        <v>8259803.8499242896</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149741.752917891</v>
+        <v>2149741.7529178909</v>
       </c>
       <c r="E5">
-        <v>1439681.332914339</v>
+        <v>1439681.3329143389</v>
       </c>
       <c r="F5">
         <v>1345819.442124946</v>
       </c>
       <c r="G5">
-        <v>1297235.110396892</v>
+        <v>1297235.1103968921</v>
       </c>
       <c r="H5">
-        <v>1244835.438951651</v>
+        <v>1244835.4389516511</v>
       </c>
       <c r="I5">
-        <v>1555390.171832525</v>
+        <v>1555390.1718325249</v>
       </c>
       <c r="J5">
-        <v>1711378.352999566</v>
+        <v>1711378.3529995659</v>
       </c>
       <c r="K5">
-        <v>1489427.804313139</v>
+        <v>1489427.8043131391</v>
       </c>
       <c r="L5">
-        <v>1378421.313648296</v>
+        <v>1378421.3136482961</v>
       </c>
       <c r="M5">
         <v>1542530.337653843</v>
@@ -1543,7 +1562,7 @@
         <v>1621888.435414487</v>
       </c>
       <c r="O5">
-        <v>2112186.074530119</v>
+        <v>2112186.0745301191</v>
       </c>
       <c r="P5">
         <v>16307860.74407582</v>
@@ -1552,61 +1571,61 @@
         <v>16331663.81041027</v>
       </c>
       <c r="R5">
-        <v>16360964.29365876</v>
+        <v>16360964.293658759</v>
       </c>
       <c r="S5">
-        <v>54198422.2297067</v>
+        <v>54198422.229706697</v>
       </c>
       <c r="T5">
-        <v>54240685.5167898</v>
+        <v>54240685.516789801</v>
       </c>
       <c r="U5">
-        <v>54290559.05243728</v>
+        <v>54290559.052437283</v>
       </c>
       <c r="V5">
-        <v>54349253.00350692</v>
+        <v>54349253.003506921</v>
       </c>
       <c r="W5">
-        <v>54418733.13188171</v>
+        <v>54418733.131881706</v>
       </c>
       <c r="X5">
-        <v>57299359.22208967</v>
+        <v>57299359.222089671</v>
       </c>
       <c r="Y5">
-        <v>57399129.64576985</v>
+        <v>57399129.645769849</v>
       </c>
       <c r="Z5">
-        <v>57521412.36845963</v>
+        <v>57521412.368459627</v>
       </c>
       <c r="AA5">
-        <v>57674116.58640803</v>
+        <v>57674116.586408027</v>
       </c>
       <c r="AB5">
-        <v>57868006.431367</v>
+        <v>57868006.431367002</v>
       </c>
       <c r="AC5">
-        <v>16399524.66760156</v>
+        <v>16399524.667601559</v>
       </c>
       <c r="AD5">
         <v>16721976.14396262</v>
       </c>
       <c r="AE5">
-        <v>17139320.04193318</v>
+        <v>17139320.041933179</v>
       </c>
       <c r="AF5">
-        <v>17676412.76303544</v>
+        <v>17676412.763035439</v>
       </c>
       <c r="AG5">
-        <v>18359928.11962161</v>
+        <v>18359928.119621608</v>
       </c>
       <c r="AH5">
-        <v>5239858.392005256</v>
+        <v>5239858.3920052564</v>
       </c>
       <c r="AI5">
-        <v>6095325.192119308</v>
+        <v>6095325.1921193078</v>
       </c>
       <c r="AJ5">
-        <v>7120864.497617668</v>
+        <v>7120864.4976176675</v>
       </c>
       <c r="AK5">
         <v>8577573.339046007</v>
@@ -1615,34 +1634,34 @@
         <v>10256586.96540048</v>
       </c>
       <c r="AM5">
-        <v>18010119.9165682</v>
+        <v>18010119.916568201</v>
       </c>
       <c r="AN5">
         <v>19974166.46763948</v>
       </c>
       <c r="AO5">
-        <v>21975825.14040709</v>
+        <v>21975825.140407089</v>
       </c>
       <c r="AP5">
-        <v>23917405.23220355</v>
+        <v>23917405.232203551</v>
       </c>
       <c r="AQ5">
-        <v>25687331.14076381</v>
+        <v>25687331.140763812</v>
       </c>
       <c r="AR5">
-        <v>35384731.4896768</v>
+        <v>35384731.489676803</v>
       </c>
       <c r="AS5">
-        <v>36513899.9710618</v>
+        <v>36513899.971061803</v>
       </c>
       <c r="AT5">
-        <v>37200642.62478638</v>
+        <v>37200642.624786377</v>
       </c>
       <c r="AU5">
-        <v>37398500.15177321</v>
+        <v>37398500.151773207</v>
       </c>
       <c r="AV5">
-        <v>37098456.48001546</v>
+        <v>37098456.480015457</v>
       </c>
       <c r="AW5">
         <v>38729563.35864035</v>
@@ -1651,82 +1670,82 @@
         <v>37558846.74406372</v>
       </c>
       <c r="AY5">
-        <v>36077838.8383347</v>
+        <v>36077838.838334702</v>
       </c>
       <c r="AZ5">
-        <v>34396065.18049342</v>
+        <v>34396065.180493422</v>
       </c>
       <c r="BA5">
-        <v>32629559.09774077</v>
+        <v>32629559.097740769</v>
       </c>
       <c r="BB5">
-        <v>29494478.79120391</v>
+        <v>29494478.791203909</v>
       </c>
       <c r="BC5">
-        <v>27886394.91405413</v>
+        <v>27886394.914054129</v>
       </c>
       <c r="BD5">
-        <v>26492814.5068025</v>
+        <v>26492814.506802499</v>
       </c>
       <c r="BE5">
-        <v>25374904.70900187</v>
+        <v>25374904.709001869</v>
       </c>
       <c r="BF5">
-        <v>24566603.42698487</v>
+        <v>24566603.426984869</v>
       </c>
       <c r="BG5">
         <v>23302105.11235838</v>
       </c>
       <c r="BH5">
-        <v>23101869.90008068</v>
+        <v>23101869.900080681</v>
       </c>
       <c r="BI5">
         <v>23151614.93986202</v>
       </c>
       <c r="BJ5">
-        <v>23393720.1878674</v>
+        <v>23393720.187867399</v>
       </c>
       <c r="BK5">
-        <v>23763676.37891538</v>
+        <v>23763676.378915381</v>
       </c>
       <c r="BL5">
-        <v>24090984.26828923</v>
+        <v>24090984.268289231</v>
       </c>
       <c r="BM5">
-        <v>24525076.16051556</v>
+        <v>24525076.160515562</v>
       </c>
       <c r="BN5">
         <v>24906060.99810737</v>
       </c>
       <c r="BO5">
-        <v>25188517.38322826</v>
+        <v>25188517.383228261</v>
       </c>
       <c r="BP5">
-        <v>25337911.21881606</v>
+        <v>25337911.218816061</v>
       </c>
       <c r="BQ5">
         <v>25356019.29739169</v>
       </c>
       <c r="BR5">
-        <v>25184609.41426183</v>
+        <v>25184609.414261829</v>
       </c>
       <c r="BS5">
-        <v>24849756.62299469</v>
+        <v>24849756.622994691</v>
       </c>
       <c r="BT5">
         <v>24363703.97513099</v>
       </c>
       <c r="BU5">
-        <v>23746915.01788508</v>
+        <v>23746915.017885081</v>
       </c>
       <c r="BV5">
-        <v>22806099.26538843</v>
+        <v>22806099.265388429</v>
       </c>
       <c r="BW5">
-        <v>22009877.84054744</v>
+        <v>22009877.840547439</v>
       </c>
       <c r="BX5">
-        <v>21168658.48440616</v>
+        <v>21168658.484406158</v>
       </c>
       <c r="BY5">
         <v>20310394.83640302</v>
@@ -1741,43 +1760,43 @@
         <v>17449126.58317991</v>
       </c>
       <c r="CC5">
-        <v>16696782.48159987</v>
+        <v>16696782.481599869</v>
       </c>
       <c r="CD5">
         <v>15980781.63466892</v>
       </c>
       <c r="CE5">
-        <v>15292373.15102489</v>
+        <v>15292373.151024889</v>
       </c>
       <c r="CF5">
-        <v>13947982.81363601</v>
+        <v>13947982.813636011</v>
       </c>
       <c r="CG5">
         <v>13272858.14454277</v>
       </c>
       <c r="CH5">
-        <v>12580004.12745772</v>
+        <v>12580004.127457719</v>
       </c>
       <c r="CI5">
         <v>11853991.42663704</v>
       </c>
       <c r="CJ5">
-        <v>11081965.82726746</v>
+        <v>11081965.827267461</v>
       </c>
       <c r="CK5">
         <v>9202451.884658711</v>
       </c>
       <c r="CL5">
-        <v>8315505.029517814</v>
+        <v>8315505.0295178136</v>
       </c>
       <c r="CM5">
-        <v>7368757.651194031</v>
+        <v>7368757.6511940314</v>
       </c>
       <c r="CN5">
-        <v>6366756.003047271</v>
+        <v>6366756.0030472707</v>
       </c>
       <c r="CO5">
-        <v>5317975.356508483</v>
+        <v>5317975.3565084832</v>
       </c>
     </row>
   </sheetData>
@@ -1790,14 +1809,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="177" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="93" max="93" width="13.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>2011</v>
       </c>
@@ -2069,72 +2091,72 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.353295692877</v>
+        <v>1072.3532956928771</v>
       </c>
       <c r="E2">
-        <v>2470.050435345168</v>
+        <v>2470.0504353451679</v>
       </c>
       <c r="F2">
         <v>3867.023868413155</v>
       </c>
       <c r="G2">
-        <v>5194.515956773338</v>
+        <v>5194.5159567733381</v>
       </c>
       <c r="H2">
-        <v>6974.972315131404</v>
+        <v>6974.9723151314038</v>
       </c>
       <c r="I2">
-        <v>8259.448053693282</v>
+        <v>8259.4480536932824</v>
       </c>
       <c r="J2">
-        <v>10583.58280483082</v>
+        <v>10583.582804830819</v>
       </c>
       <c r="K2">
         <v>12894.08424371137</v>
       </c>
       <c r="L2">
-        <v>14949.9667629635</v>
+        <v>14949.966762963501</v>
       </c>
       <c r="M2">
-        <v>16844.92153652787</v>
+        <v>16844.921536527869</v>
       </c>
       <c r="N2">
-        <v>20898.58493318907</v>
+        <v>20898.584933189071</v>
       </c>
       <c r="O2">
-        <v>23359.24622501895</v>
+        <v>23359.246225018949</v>
       </c>
       <c r="P2">
-        <v>28291.22640805191</v>
+        <v>28291.226408051909</v>
       </c>
       <c r="Q2">
-        <v>33613.58555839716</v>
+        <v>33613.585558397157</v>
       </c>
       <c r="R2">
-        <v>39330.75025958825</v>
+        <v>39330.750259588247</v>
       </c>
       <c r="S2">
-        <v>51831.54702878495</v>
+        <v>51831.547028784953</v>
       </c>
       <c r="T2">
-        <v>65215.76414008172</v>
+        <v>65215.764140081723</v>
       </c>
       <c r="U2">
-        <v>79492.45396215808</v>
+        <v>79492.453962158077</v>
       </c>
       <c r="V2">
-        <v>94676.77443400651</v>
+        <v>94676.774434006511</v>
       </c>
       <c r="W2">
         <v>110780.5933618354</v>
@@ -2143,7 +2165,7 @@
         <v>126955.3898948336</v>
       </c>
       <c r="Y2">
-        <v>144008.2566954032</v>
+        <v>144008.25669540319</v>
       </c>
       <c r="Z2">
         <v>161945.2406445329</v>
@@ -2152,139 +2174,139 @@
         <v>180782.3930974484</v>
       </c>
       <c r="AB2">
-        <v>200541.969907973</v>
+        <v>200541.96990797299</v>
       </c>
       <c r="AC2">
-        <v>209724.6139007809</v>
+        <v>209724.61390078091</v>
       </c>
       <c r="AD2">
         <v>219147.4039155764</v>
       </c>
       <c r="AE2">
-        <v>228873.478526426</v>
+        <v>228873.47852642601</v>
       </c>
       <c r="AF2">
-        <v>238894.1879198067</v>
+        <v>238894.18791980669</v>
       </c>
       <c r="AG2">
         <v>249256.7651570556</v>
       </c>
       <c r="AH2">
-        <v>255810.6053316946</v>
+        <v>255810.60533169459</v>
       </c>
       <c r="AI2">
-        <v>262411.1796203041</v>
+        <v>262411.17962030409</v>
       </c>
       <c r="AJ2">
-        <v>269287.5192883037</v>
+        <v>269287.51928830368</v>
       </c>
       <c r="AK2">
-        <v>276663.1881795318</v>
+        <v>276663.18817953177</v>
       </c>
       <c r="AL2">
-        <v>284524.6665627614</v>
+        <v>284524.66656276141</v>
       </c>
       <c r="AM2">
-        <v>294948.8907399408</v>
+        <v>294948.89073994081</v>
       </c>
       <c r="AN2">
-        <v>306558.1385561725</v>
+        <v>306558.13855617249</v>
       </c>
       <c r="AO2">
-        <v>319798.4996412277</v>
+        <v>319798.49964122771</v>
       </c>
       <c r="AP2">
-        <v>335127.7715417194</v>
+        <v>335127.77154171938</v>
       </c>
       <c r="AQ2">
-        <v>351935.2751648803</v>
+        <v>351935.27516488032</v>
       </c>
       <c r="AR2">
-        <v>372856.7288292479</v>
+        <v>372856.72882924788</v>
       </c>
       <c r="AS2">
-        <v>394581.7876030648</v>
+        <v>394581.78760306479</v>
       </c>
       <c r="AT2">
         <v>416964.7560325985</v>
       </c>
       <c r="AU2">
-        <v>439865.958445721</v>
+        <v>439865.95844572101</v>
       </c>
       <c r="AV2">
-        <v>463277.8020131311</v>
+        <v>463277.80201313109</v>
       </c>
       <c r="AW2">
-        <v>487772.5078987126</v>
+        <v>487772.50789871259</v>
       </c>
       <c r="AX2">
-        <v>511979.3372381487</v>
+        <v>511979.33723814873</v>
       </c>
       <c r="AY2">
-        <v>534717.0317214907</v>
+        <v>534717.03172149067</v>
       </c>
       <c r="AZ2">
-        <v>555139.042681228</v>
+        <v>555139.04268122802</v>
       </c>
       <c r="BA2">
-        <v>574401.0362553401</v>
+        <v>574401.03625534009</v>
       </c>
       <c r="BB2">
-        <v>592726.2372482145</v>
+        <v>592726.23724821454</v>
       </c>
       <c r="BC2">
-        <v>610891.526292327</v>
+        <v>610891.52629232698</v>
       </c>
       <c r="BD2">
-        <v>628518.799746849</v>
+        <v>628518.79974684899</v>
       </c>
       <c r="BE2">
-        <v>645368.5510460106</v>
+        <v>645368.55104601057</v>
       </c>
       <c r="BF2">
-        <v>661948.2298219911</v>
+        <v>661948.22982199106</v>
       </c>
       <c r="BG2">
-        <v>678196.8840979713</v>
+        <v>678196.88409797125</v>
       </c>
       <c r="BH2">
-        <v>695031.5852672869</v>
+        <v>695031.58526728686</v>
       </c>
       <c r="BI2">
-        <v>712767.4706613627</v>
+        <v>712767.47066136275</v>
       </c>
       <c r="BJ2">
-        <v>731727.2360868318</v>
+        <v>731727.23608683178</v>
       </c>
       <c r="BK2">
-        <v>751996.1733728978</v>
+        <v>751996.17337289779</v>
       </c>
       <c r="BL2">
         <v>773269.5804567493</v>
       </c>
       <c r="BM2">
-        <v>796017.6753539456</v>
+        <v>796017.67535394558</v>
       </c>
       <c r="BN2">
-        <v>820236.1900863333</v>
+        <v>820236.19008633331</v>
       </c>
       <c r="BO2">
-        <v>845776.2808308591</v>
+        <v>845776.28083085909</v>
       </c>
       <c r="BP2">
-        <v>872125.4982713689</v>
+        <v>872125.49827136891</v>
       </c>
       <c r="BQ2">
-        <v>898679.4473954786</v>
+        <v>898679.44739547861</v>
       </c>
       <c r="BR2">
-        <v>925503.8311087716</v>
+        <v>925503.83110877161</v>
       </c>
       <c r="BS2">
-        <v>952483.0744576107</v>
+        <v>952483.07445761072</v>
       </c>
       <c r="BT2">
-        <v>979352.3582723825</v>
+        <v>979352.35827238252</v>
       </c>
       <c r="BU2">
         <v>1005605.886405825</v>
@@ -2293,19 +2315,19 @@
         <v>1030551.083126269</v>
       </c>
       <c r="BW2">
-        <v>1054330.314432942</v>
+        <v>1054330.3144329421</v>
       </c>
       <c r="BX2">
         <v>1077244.563783682</v>
       </c>
       <c r="BY2">
-        <v>1099608.310432888</v>
+        <v>1099608.3104328881</v>
       </c>
       <c r="BZ2">
-        <v>1121545.881940672</v>
+        <v>1121545.8819406719</v>
       </c>
       <c r="CA2">
-        <v>1142839.021268793</v>
+        <v>1142839.0212687929</v>
       </c>
       <c r="CB2">
         <v>1163718.541113372</v>
@@ -2335,13 +2357,13 @@
         <v>1335168.073329367</v>
       </c>
       <c r="CK2">
-        <v>1357872.289920935</v>
+        <v>1357872.2899209349</v>
       </c>
       <c r="CL2">
         <v>1380746.950765132</v>
       </c>
       <c r="CM2">
-        <v>1403584.796733433</v>
+        <v>1403584.7967334329</v>
       </c>
       <c r="CN2">
         <v>1426214.21651879</v>
@@ -2350,41 +2372,41 @@
         <v>1448529.305598472</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90986674581129</v>
+        <v>70.909866745811286</v>
       </c>
       <c r="E3">
-        <v>163.6126556386614</v>
+        <v>163.61265563866141</v>
       </c>
       <c r="F3">
-        <v>256.1485766420695</v>
+        <v>256.14857664206949</v>
       </c>
       <c r="G3">
-        <v>344.0167853366277</v>
+        <v>344.01678533662772</v>
       </c>
       <c r="H3">
-        <v>462.4057110825447</v>
+        <v>462.40571108254471</v>
       </c>
       <c r="I3">
-        <v>547.4709564627051</v>
+        <v>547.47095646270509</v>
       </c>
       <c r="J3">
-        <v>702.2510562004401</v>
+        <v>702.25105620044008</v>
       </c>
       <c r="K3">
-        <v>855.9632805554559</v>
+        <v>855.96328055545587</v>
       </c>
       <c r="L3">
-        <v>992.6197415267985</v>
+        <v>992.61974152679852</v>
       </c>
       <c r="M3">
-        <v>1118.390498306938</v>
+        <v>1118.3904983069381</v>
       </c>
       <c r="N3">
         <v>1389.059769863725</v>
@@ -2393,40 +2415,40 @@
         <v>1552.875416097135</v>
       </c>
       <c r="P3">
-        <v>1882.55313140134</v>
+        <v>1882.5531314013399</v>
       </c>
       <c r="Q3">
-        <v>2238.40574154183</v>
+        <v>2238.4057415418301</v>
       </c>
       <c r="R3">
-        <v>2620.733543792412</v>
+        <v>2620.7335437924121</v>
       </c>
       <c r="S3">
-        <v>3458.484349563677</v>
+        <v>3458.4843495636769</v>
       </c>
       <c r="T3">
-        <v>4355.522345574665</v>
+        <v>4355.5223455746655</v>
       </c>
       <c r="U3">
-        <v>5312.456067788243</v>
+        <v>5312.4560677882428</v>
       </c>
       <c r="V3">
-        <v>6330.305582025793</v>
+        <v>6330.3055820257932</v>
       </c>
       <c r="W3">
-        <v>7409.883146112896</v>
+        <v>7409.8831461128957</v>
       </c>
       <c r="X3">
-        <v>8494.224523752295</v>
+        <v>8494.2245237522948</v>
       </c>
       <c r="Y3">
-        <v>9637.574446140536</v>
+        <v>9637.5744461405357</v>
       </c>
       <c r="Z3">
-        <v>10840.37097500899</v>
+        <v>10840.370975008989</v>
       </c>
       <c r="AA3">
-        <v>12103.73120514106</v>
+        <v>12103.731205141061</v>
       </c>
       <c r="AB3">
         <v>13429.19878060042</v>
@@ -2435,31 +2457,31 @@
         <v>14044.58003155929</v>
       </c>
       <c r="AD3">
-        <v>14676.27424159641</v>
+        <v>14676.274241596409</v>
       </c>
       <c r="AE3">
-        <v>15328.63263625584</v>
+        <v>15328.632636255839</v>
       </c>
       <c r="AF3">
         <v>16001.07926943303</v>
       </c>
       <c r="AG3">
-        <v>16696.88346966401</v>
+        <v>16696.883469664011</v>
       </c>
       <c r="AH3">
-        <v>17137.21044673495</v>
+        <v>17137.210446734949</v>
       </c>
       <c r="AI3">
-        <v>17580.92992583307</v>
+        <v>17580.929925833068</v>
       </c>
       <c r="AJ3">
-        <v>18043.91661610042</v>
+        <v>18043.916616100421</v>
       </c>
       <c r="AK3">
-        <v>18541.72855993539</v>
+        <v>18541.728559935389</v>
       </c>
       <c r="AL3">
-        <v>19073.53729836782</v>
+        <v>19073.537298367821</v>
       </c>
       <c r="AM3">
         <v>19779.68824491663</v>
@@ -2468,19 +2490,19 @@
         <v>20568.84293921975</v>
       </c>
       <c r="AO3">
-        <v>21472.71185144472</v>
+        <v>21472.711851444721</v>
       </c>
       <c r="AP3">
-        <v>22524.2251709412</v>
+        <v>22524.225170941201</v>
       </c>
       <c r="AQ3">
-        <v>23681.48143794481</v>
+        <v>23681.481437944811</v>
       </c>
       <c r="AR3">
-        <v>25119.86094242634</v>
+        <v>25119.860942426341</v>
       </c>
       <c r="AS3">
-        <v>26616.80754947566</v>
+        <v>26616.807549475659</v>
       </c>
       <c r="AT3">
         <v>28162.16385210782</v>
@@ -2492,144 +2514,144 @@
         <v>31368.28016841926</v>
       </c>
       <c r="AW3">
-        <v>33066.38546481669</v>
+        <v>33066.385464816689</v>
       </c>
       <c r="AX3">
-        <v>34745.28514349432</v>
+        <v>34745.285143494322</v>
       </c>
       <c r="AY3">
         <v>36319.55808873706</v>
       </c>
       <c r="AZ3">
-        <v>37727.45216659486</v>
+        <v>37727.452166594863</v>
       </c>
       <c r="BA3">
-        <v>39052.00064794256</v>
+        <v>39052.000647942557</v>
       </c>
       <c r="BB3">
-        <v>40313.9736017843</v>
+        <v>40313.973601784302</v>
       </c>
       <c r="BC3">
-        <v>41564.85281379429</v>
+        <v>41564.852813794292</v>
       </c>
       <c r="BD3">
-        <v>42776.92010042151</v>
+        <v>42776.920100421507</v>
       </c>
       <c r="BE3">
-        <v>43932.4214889197</v>
+        <v>43932.421488919703</v>
       </c>
       <c r="BF3">
-        <v>45068.07581913016</v>
+        <v>45068.075819130157</v>
       </c>
       <c r="BG3">
-        <v>46183.06956657848</v>
+        <v>46183.069566578481</v>
       </c>
       <c r="BH3">
-        <v>47340.4953392743</v>
+        <v>47340.495339274297</v>
       </c>
       <c r="BI3">
-        <v>48563.27549450676</v>
+        <v>48563.275494506757</v>
       </c>
       <c r="BJ3">
         <v>49874.92955693158</v>
       </c>
       <c r="BK3">
-        <v>51281.60975525362</v>
+        <v>51281.609755253623</v>
       </c>
       <c r="BL3">
-        <v>52763.13081293269</v>
+        <v>52763.130812932694</v>
       </c>
       <c r="BM3">
-        <v>54351.67921860504</v>
+        <v>54351.679218605037</v>
       </c>
       <c r="BN3">
-        <v>56046.84210456424</v>
+        <v>56046.842104564239</v>
       </c>
       <c r="BO3">
-        <v>57837.59338241375</v>
+        <v>57837.593382413746</v>
       </c>
       <c r="BP3">
-        <v>59686.23511965979</v>
+        <v>59686.235119659788</v>
       </c>
       <c r="BQ3">
         <v>61549.50456159137</v>
       </c>
       <c r="BR3">
-        <v>63431.01534757589</v>
+        <v>63431.015347575893</v>
       </c>
       <c r="BS3">
-        <v>65322.23883926374</v>
+        <v>65322.238839263737</v>
       </c>
       <c r="BT3">
-        <v>67203.74649724398</v>
+        <v>67203.746497243978</v>
       </c>
       <c r="BU3">
-        <v>69038.54763781842</v>
+        <v>69038.547637818425</v>
       </c>
       <c r="BV3">
-        <v>70777.4612203838</v>
+        <v>70777.461220383804</v>
       </c>
       <c r="BW3">
-        <v>72429.73588534771</v>
+        <v>72429.735885347705</v>
       </c>
       <c r="BX3">
-        <v>74017.46294275703</v>
+        <v>74017.462942757033</v>
       </c>
       <c r="BY3">
-        <v>75563.62286748333</v>
+        <v>75563.622867483326</v>
       </c>
       <c r="BZ3">
-        <v>77077.28656412456</v>
+        <v>77077.286564124559</v>
       </c>
       <c r="CA3">
-        <v>78543.74436439878</v>
+        <v>78543.744364398779</v>
       </c>
       <c r="CB3">
-        <v>79978.64529010378</v>
+        <v>79978.645290103785</v>
       </c>
       <c r="CC3">
         <v>81394.26390909715</v>
       </c>
       <c r="CD3">
-        <v>82806.77272257948</v>
+        <v>82806.772722579481</v>
       </c>
       <c r="CE3">
-        <v>84232.54171955019</v>
+        <v>84232.541719550194</v>
       </c>
       <c r="CF3">
-        <v>85665.99681641468</v>
+        <v>85665.996816414685</v>
       </c>
       <c r="CG3">
-        <v>87129.50940330942</v>
+        <v>87129.509403309421</v>
       </c>
       <c r="CH3">
-        <v>88623.22336403269</v>
+        <v>88623.223364032689</v>
       </c>
       <c r="CI3">
-        <v>90145.00904012276</v>
+        <v>90145.009040122764</v>
       </c>
       <c r="CJ3">
-        <v>91692.82552397162</v>
+        <v>91692.825523971624</v>
       </c>
       <c r="CK3">
-        <v>93233.3834648194</v>
+        <v>93233.383464819402</v>
       </c>
       <c r="CL3">
-        <v>94780.93190697687</v>
+        <v>94780.931906976868</v>
       </c>
       <c r="CM3">
-        <v>96320.66527741568</v>
+        <v>96320.665277415683</v>
       </c>
       <c r="CN3">
-        <v>97840.4698373385</v>
+        <v>97840.469837338504</v>
       </c>
       <c r="CO3">
-        <v>99332.91039465049</v>
+        <v>99332.910394650491</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2637,25 +2659,25 @@
         <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>3082938.417141687</v>
+        <v>3082938.4171416871</v>
       </c>
       <c r="F4">
-        <v>4356491.107201578</v>
+        <v>4356491.1072015781</v>
       </c>
       <c r="G4">
-        <v>5833762.594395978</v>
+        <v>5833762.5943959784</v>
       </c>
       <c r="H4">
-        <v>7457135.3880507</v>
+        <v>7457135.3880506996</v>
       </c>
       <c r="I4">
         <v>9000019.415885929</v>
       </c>
       <c r="J4">
-        <v>10677451.04175133</v>
+        <v>10677451.041751331</v>
       </c>
       <c r="K4">
-        <v>12216082.76307636</v>
+        <v>12216082.763076359</v>
       </c>
       <c r="L4">
         <v>13744402.31021416</v>
@@ -2664,269 +2686,269 @@
         <v>15782835.0040762</v>
       </c>
       <c r="N4">
-        <v>17717256.82240039</v>
+        <v>17717256.822400391</v>
       </c>
       <c r="O4">
-        <v>19633428.46110847</v>
+        <v>19633428.461108468</v>
       </c>
       <c r="P4">
         <v>29565082.97551566</v>
       </c>
       <c r="Q4">
-        <v>39545737.22774508</v>
+        <v>39545737.227745079</v>
       </c>
       <c r="R4">
-        <v>49563673.58113229</v>
+        <v>49563673.581132293</v>
       </c>
       <c r="S4">
-        <v>80835873.95270315</v>
+        <v>80835873.952703148</v>
       </c>
       <c r="T4">
-        <v>112168167.2503025</v>
+        <v>112168167.25030249</v>
       </c>
       <c r="U4">
-        <v>143569504.1310289</v>
+        <v>143569504.13102889</v>
       </c>
       <c r="V4">
         <v>175047262.3922734</v>
       </c>
       <c r="W4">
-        <v>206607100.30692</v>
+        <v>206607100.30691999</v>
       </c>
       <c r="X4">
-        <v>239101329.1159905</v>
+        <v>239101329.11599049</v>
       </c>
       <c r="Y4">
-        <v>271686160.0216666</v>
+        <v>271686160.02166659</v>
       </c>
       <c r="Z4">
-        <v>304356056.4079345</v>
+        <v>304356056.40793449</v>
       </c>
       <c r="AA4">
-        <v>337115198.7318789</v>
+        <v>337115198.73187888</v>
       </c>
       <c r="AB4">
-        <v>369968787.1680256</v>
+        <v>369968787.16802561</v>
       </c>
       <c r="AC4">
-        <v>378836834.6833184</v>
+        <v>378836834.68331838</v>
       </c>
       <c r="AD4">
-        <v>387805958.889646</v>
+        <v>387805958.88964599</v>
       </c>
       <c r="AE4">
-        <v>396889256.3856708</v>
+        <v>396889256.38567078</v>
       </c>
       <c r="AF4">
-        <v>406067265.4692202</v>
+        <v>406067265.46922022</v>
       </c>
       <c r="AG4">
-        <v>415363595.5682065</v>
+        <v>415363595.56820649</v>
       </c>
       <c r="AH4">
-        <v>417236097.6377463</v>
+        <v>417236097.63774627</v>
       </c>
       <c r="AI4">
-        <v>419122042.5977188</v>
+        <v>419122042.59771878</v>
       </c>
       <c r="AJ4">
-        <v>421122275.5712556</v>
+        <v>421122275.57125562</v>
       </c>
       <c r="AK4">
-        <v>423355669.327705</v>
+        <v>423355669.32770503</v>
       </c>
       <c r="AL4">
-        <v>425876707.7565541</v>
+        <v>425876707.75655413</v>
       </c>
       <c r="AM4">
-        <v>432202293.3460329</v>
+        <v>432202293.34603292</v>
       </c>
       <c r="AN4">
-        <v>439084776.8378226</v>
+        <v>439084776.83782262</v>
       </c>
       <c r="AO4">
         <v>446610137.6300478</v>
       </c>
       <c r="AP4">
-        <v>454858746.3694187</v>
+        <v>454858746.36941868</v>
       </c>
       <c r="AQ4">
-        <v>463581421.2009134</v>
+        <v>463581421.20091343</v>
       </c>
       <c r="AR4">
-        <v>477543854.6344993</v>
+        <v>477543854.63449931</v>
       </c>
       <c r="AS4">
-        <v>491638145.4566578</v>
+        <v>491638145.45665783</v>
       </c>
       <c r="AT4">
-        <v>505764373.4417437</v>
+        <v>505764373.44174367</v>
       </c>
       <c r="AU4">
-        <v>519821400.7291063</v>
+        <v>519821400.72910631</v>
       </c>
       <c r="AV4">
-        <v>533740423.11345</v>
+        <v>533740423.11344999</v>
       </c>
       <c r="AW4">
         <v>548769321.2890079</v>
       </c>
       <c r="AX4">
-        <v>563403701.4320701</v>
+        <v>563403701.43207014</v>
       </c>
       <c r="AY4">
-        <v>577415842.8275902</v>
+        <v>577415842.82759023</v>
       </c>
       <c r="AZ4">
-        <v>590671340.255103</v>
+        <v>590671340.25510299</v>
       </c>
       <c r="BA4">
-        <v>603397134.1026288</v>
+        <v>603397134.10262883</v>
       </c>
       <c r="BB4">
-        <v>614864163.6666057</v>
+        <v>614864163.66660571</v>
       </c>
       <c r="BC4">
         <v>626031176.6374054</v>
       </c>
       <c r="BD4">
-        <v>636930429.3327546</v>
+        <v>636930429.33275461</v>
       </c>
       <c r="BE4">
-        <v>647652610.4275638</v>
+        <v>647652610.42756379</v>
       </c>
       <c r="BF4">
-        <v>658233753.5110449</v>
+        <v>658233753.51104486</v>
       </c>
       <c r="BG4">
-        <v>668184719.3783135</v>
+        <v>668184719.37831354</v>
       </c>
       <c r="BH4">
-        <v>678098566.9376051</v>
+        <v>678098566.93760514</v>
       </c>
       <c r="BI4">
         <v>688139801.5371269</v>
       </c>
       <c r="BJ4">
-        <v>698407307.8110822</v>
+        <v>698407307.81108224</v>
       </c>
       <c r="BK4">
-        <v>708931399.8968248</v>
+        <v>708931399.89682484</v>
       </c>
       <c r="BL4">
-        <v>719591667.3575187</v>
+        <v>719591667.35751867</v>
       </c>
       <c r="BM4">
-        <v>730499888.0512558</v>
+        <v>730499888.05125582</v>
       </c>
       <c r="BN4">
-        <v>741595459.1989137</v>
+        <v>741595459.19891369</v>
       </c>
       <c r="BO4">
-        <v>752799032.3020501</v>
+        <v>752799032.30205011</v>
       </c>
       <c r="BP4">
-        <v>764012834.9218121</v>
+        <v>764012834.92181206</v>
       </c>
       <c r="BQ4">
-        <v>775147784.8748583</v>
+        <v>775147784.87485826</v>
       </c>
       <c r="BR4">
-        <v>786190836.7658262</v>
+        <v>786190836.76582623</v>
       </c>
       <c r="BS4">
-        <v>797112079.4117365</v>
+        <v>797112079.41173649</v>
       </c>
       <c r="BT4">
-        <v>807863102.312897</v>
+        <v>807863102.31289697</v>
       </c>
       <c r="BU4">
-        <v>818368703.1820768</v>
+        <v>818368703.18207681</v>
       </c>
       <c r="BV4">
-        <v>828424627.1851298</v>
+        <v>828424627.18512976</v>
       </c>
       <c r="BW4">
-        <v>838176155.9076679</v>
+        <v>838176155.90766788</v>
       </c>
       <c r="BX4">
-        <v>847759741.491155</v>
+        <v>847759741.49115503</v>
       </c>
       <c r="BY4">
         <v>857299515.5919596</v>
       </c>
       <c r="BZ4">
-        <v>866761668.3166062</v>
+        <v>866761668.31660616</v>
       </c>
       <c r="CA4">
-        <v>875924929.0778596</v>
+        <v>875924929.07785964</v>
       </c>
       <c r="CB4">
-        <v>884993976.8588353</v>
+        <v>884993976.85883534</v>
       </c>
       <c r="CC4">
-        <v>893968369.0320055</v>
+        <v>893968369.03200555</v>
       </c>
       <c r="CD4">
-        <v>902840980.7825835</v>
+        <v>902840980.78258348</v>
       </c>
       <c r="CE4">
-        <v>911578484.2765672</v>
+        <v>911578484.27656722</v>
       </c>
       <c r="CF4">
-        <v>919962228.2332026</v>
+        <v>919962228.23320258</v>
       </c>
       <c r="CG4">
-        <v>928443494.3971313</v>
+        <v>928443494.39713132</v>
       </c>
       <c r="CH4">
-        <v>937037276.6460568</v>
+        <v>937037276.64605677</v>
       </c>
       <c r="CI4">
-        <v>945742108.1176267</v>
+        <v>945742108.11762667</v>
       </c>
       <c r="CJ4">
-        <v>954544363.1251628</v>
+        <v>954544363.12516284</v>
       </c>
       <c r="CK4">
-        <v>962848290.2602322</v>
+        <v>962848290.26023221</v>
       </c>
       <c r="CL4">
-        <v>971183024.7190518</v>
+        <v>971183024.71905184</v>
       </c>
       <c r="CM4">
-        <v>979512829.1827157</v>
+        <v>979512829.18271565</v>
       </c>
       <c r="CN4">
         <v>987813757.2956841</v>
       </c>
       <c r="CO4">
-        <v>996073561.1456084</v>
+        <v>996073561.14560843</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149741.752917891</v>
+        <v>2149741.7529178909</v>
       </c>
       <c r="E5">
-        <v>3589423.08583223</v>
+        <v>3589423.0858322298</v>
       </c>
       <c r="F5">
-        <v>4935242.527957176</v>
+        <v>4935242.5279571759</v>
       </c>
       <c r="G5">
-        <v>6232477.638354069</v>
+        <v>6232477.6383540686</v>
       </c>
       <c r="H5">
-        <v>7477313.07730572</v>
+        <v>7477313.0773057202</v>
       </c>
       <c r="I5">
-        <v>9032703.249138245</v>
+        <v>9032703.2491382454</v>
       </c>
       <c r="J5">
         <v>10744081.60213781</v>
@@ -2941,103 +2963,103 @@
         <v>15154461.05775309</v>
       </c>
       <c r="N5">
-        <v>16776349.49316758</v>
+        <v>16776349.493167579</v>
       </c>
       <c r="O5">
         <v>18888535.5676977</v>
       </c>
       <c r="P5">
-        <v>35196396.31177352</v>
+        <v>35196396.311773524</v>
       </c>
       <c r="Q5">
-        <v>51528060.12218378</v>
+        <v>51528060.122183777</v>
       </c>
       <c r="R5">
-        <v>67889024.41584255</v>
+        <v>67889024.415842548</v>
       </c>
       <c r="S5">
         <v>122087446.6455493</v>
       </c>
       <c r="T5">
-        <v>176328132.1623391</v>
+        <v>176328132.16233909</v>
       </c>
       <c r="U5">
-        <v>230618691.2147763</v>
+        <v>230618691.21477631</v>
       </c>
       <c r="V5">
-        <v>284967944.2182832</v>
+        <v>284967944.21828318</v>
       </c>
       <c r="W5">
-        <v>339386677.3501649</v>
+        <v>339386677.35016489</v>
       </c>
       <c r="X5">
         <v>396686036.5722546</v>
       </c>
       <c r="Y5">
-        <v>454085166.2180244</v>
+        <v>454085166.21802437</v>
       </c>
       <c r="Z5">
-        <v>511606578.5864841</v>
+        <v>511606578.58648407</v>
       </c>
       <c r="AA5">
-        <v>569280695.1728921</v>
+        <v>569280695.17289209</v>
       </c>
       <c r="AB5">
-        <v>627148701.6042591</v>
+        <v>627148701.60425913</v>
       </c>
       <c r="AC5">
-        <v>643548226.2718607</v>
+        <v>643548226.27186072</v>
       </c>
       <c r="AD5">
-        <v>660270202.4158233</v>
+        <v>660270202.41582334</v>
       </c>
       <c r="AE5">
-        <v>677409522.4577565</v>
+        <v>677409522.45775652</v>
       </c>
       <c r="AF5">
-        <v>695085935.2207919</v>
+        <v>695085935.22079194</v>
       </c>
       <c r="AG5">
-        <v>713445863.3404136</v>
+        <v>713445863.34041357</v>
       </c>
       <c r="AH5">
-        <v>718685721.7324188</v>
+        <v>718685721.73241878</v>
       </c>
       <c r="AI5">
-        <v>724781046.9245381</v>
+        <v>724781046.92453814</v>
       </c>
       <c r="AJ5">
-        <v>731901911.4221559</v>
+        <v>731901911.42215586</v>
       </c>
       <c r="AK5">
-        <v>740479484.7612019</v>
+        <v>740479484.76120186</v>
       </c>
       <c r="AL5">
-        <v>750736071.7266023</v>
+        <v>750736071.72660232</v>
       </c>
       <c r="AM5">
-        <v>768746191.6431705</v>
+        <v>768746191.64317048</v>
       </c>
       <c r="AN5">
-        <v>788720358.1108099</v>
+        <v>788720358.11080992</v>
       </c>
       <c r="AO5">
-        <v>810696183.251217</v>
+        <v>810696183.25121701</v>
       </c>
       <c r="AP5">
-        <v>834613588.4834206</v>
+        <v>834613588.48342061</v>
       </c>
       <c r="AQ5">
-        <v>860300919.6241844</v>
+        <v>860300919.62418437</v>
       </c>
       <c r="AR5">
         <v>895685651.1138612</v>
       </c>
       <c r="AS5">
-        <v>932199551.084923</v>
+        <v>932199551.08492303</v>
       </c>
       <c r="AT5">
-        <v>969400193.7097094</v>
+        <v>969400193.70970941</v>
       </c>
       <c r="AU5">
         <v>1006798693.861483</v>
@@ -3049,13 +3071,13 @@
         <v>1082626713.700139</v>
       </c>
       <c r="AX5">
-        <v>1120185560.444202</v>
+        <v>1120185560.4442019</v>
       </c>
       <c r="AY5">
         <v>1156263399.282537</v>
       </c>
       <c r="AZ5">
-        <v>1190659464.46303</v>
+        <v>1190659464.4630301</v>
       </c>
       <c r="BA5">
         <v>1223289023.560771</v>
@@ -3064,10 +3086,10 @@
         <v>1252783502.351975</v>
       </c>
       <c r="BC5">
-        <v>1280669897.266029</v>
+        <v>1280669897.2660289</v>
       </c>
       <c r="BD5">
-        <v>1307162711.772832</v>
+        <v>1307162711.7728319</v>
       </c>
       <c r="BE5">
         <v>1332537616.481833</v>
@@ -3076,7 +3098,7 @@
         <v>1357104219.908818</v>
       </c>
       <c r="BG5">
-        <v>1380406325.021177</v>
+        <v>1380406325.0211771</v>
       </c>
       <c r="BH5">
         <v>1403508194.921257</v>
@@ -3085,31 +3107,31 @@
         <v>1426659809.861119</v>
       </c>
       <c r="BJ5">
-        <v>1450053530.048987</v>
+        <v>1450053530.0489869</v>
       </c>
       <c r="BK5">
         <v>1473817206.427902</v>
       </c>
       <c r="BL5">
-        <v>1497908190.696191</v>
+        <v>1497908190.6961911</v>
       </c>
       <c r="BM5">
-        <v>1522433266.856707</v>
+        <v>1522433266.8567071</v>
       </c>
       <c r="BN5">
-        <v>1547339327.854814</v>
+        <v>1547339327.8548141</v>
       </c>
       <c r="BO5">
-        <v>1572527845.238043</v>
+        <v>1572527845.2380431</v>
       </c>
       <c r="BP5">
-        <v>1597865756.456859</v>
+        <v>1597865756.4568591</v>
       </c>
       <c r="BQ5">
         <v>1623221775.75425</v>
       </c>
       <c r="BR5">
-        <v>1648406385.168512</v>
+        <v>1648406385.1685121</v>
       </c>
       <c r="BS5">
         <v>1673256141.791507</v>
@@ -3124,37 +3146,37 @@
         <v>1744172860.049911</v>
       </c>
       <c r="BW5">
-        <v>1766182737.890459</v>
+        <v>1766182737.8904591</v>
       </c>
       <c r="BX5">
-        <v>1787351396.374865</v>
+        <v>1787351396.3748651</v>
       </c>
       <c r="BY5">
-        <v>1807661791.211268</v>
+        <v>1807661791.2112679</v>
       </c>
       <c r="BZ5">
-        <v>1827120574.388574</v>
+        <v>1827120574.3885739</v>
       </c>
       <c r="CA5">
         <v>1845361331.822927</v>
       </c>
       <c r="CB5">
-        <v>1862810458.406107</v>
+        <v>1862810458.4061069</v>
       </c>
       <c r="CC5">
         <v>1879507240.887707</v>
       </c>
       <c r="CD5">
-        <v>1895488022.522376</v>
+        <v>1895488022.5223761</v>
       </c>
       <c r="CE5">
-        <v>1910780395.673401</v>
+        <v>1910780395.6734011</v>
       </c>
       <c r="CF5">
-        <v>1924728378.487037</v>
+        <v>1924728378.4870369</v>
       </c>
       <c r="CG5">
-        <v>1938001236.631579</v>
+        <v>1938001236.6315789</v>
       </c>
       <c r="CH5">
         <v>1950581240.759037</v>
@@ -3163,22 +3185,22 @@
         <v>1962435232.185674</v>
       </c>
       <c r="CJ5">
-        <v>1973517198.012941</v>
+        <v>1973517198.0129409</v>
       </c>
       <c r="CK5">
-        <v>1982719649.8976</v>
+        <v>1982719649.8975999</v>
       </c>
       <c r="CL5">
-        <v>1991035154.927118</v>
+        <v>1991035154.9271181</v>
       </c>
       <c r="CM5">
-        <v>1998403912.578312</v>
+        <v>1998403912.5783119</v>
       </c>
       <c r="CN5">
-        <v>2004770668.581359</v>
+        <v>2004770668.5813589</v>
       </c>
       <c r="CO5">
-        <v>2010088643.937868</v>
+        <v>2010088643.9378681</v>
       </c>
     </row>
   </sheetData>
